--- a/output/transcripts.xlsx
+++ b/output/transcripts.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -535,6 +535,40 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>道德经1</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-12-20 20:02:26</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>本视频号是229天,总计两小时33分,基于道德经原文,从八个核心天道规律深入分析,用现代人的思维理解仙者的思想平用于事件,道德经到底全在哪里?他又如何助理人生逆转,我是梅头那的阿星,接下来让我们开启内心之旅探索之路。1.反者道知动篇虽然这些道现代都会被生物学、物理学等学术专业知识一一解释,但基本不会有人将其归纳总结成万五归律,也只有老子这位独立地球之外的觉醒NPC会这么做。因此,所谓的命运和具备的归律,掌握归律主动引导事务的运动变化,积极改善掌握自己的命运。老子认为,万五虽表象不同,但却具有共同的运动变化归律,而这个归律的重头就是反者道知动。这趋徐五个字也成为道德经论的核心内容,而通过多方学习,阿普找到认为相当精彩的理论解释与兴共伤。同时结合本人个人潜包的经历,对反者道知动进行时间的补充。地球理论于时间相结合,继续大家一起完成内心之旅。您的支持是我最大的动力,下期我也会继续推出弱者道知用篇。反者道知动最核心的是反字。反意味着反向对抗,同时协因反,因此又有反回之一。具体来说,反包含了事无运动变化的三条基本规律。阴阳护转,物极必反,循环往复。接下来将对这三条规律进行一一解释。首先,阴阳护转,阴总是向阳的一级变化发展,反之依然,阴阳各自向对方的一级变化发展。老子也针对这条规律力举许多实力,把所谓的阴阳具体化,取责权,网泽指,刮责营,取责权是指残缺不存的事物,总是向完整状态发展。树木再被砍掉制调的地方总会长出新的制雅,就像人的伤口总是屈向预合。网泽指是指完全的东西总是向端子的方向发展,人越是用流氛去谈谎,他就越有一种向端子生涨开的力量,挖责营,是指地势低挖就会变得充营,水往低处流,越是低挖的地方,越容易具体更多的水。虽然这些到现代都会被生物学、物理学等学术专业之使一一解释,但基本不会有人将其归纳总结成万五规律,也只有老子这位独立地球之外的觉醒NPC会这么做。总之,当事务处于某一基定状态时,他总是自我否定,沿着以自己相反的一级发展,这是事物运动变化的普遍法则,无论于事与无于人,盖墨能外,第二条规律,误极必反,无论事物内部阴向阳运动变化,还是阳向运动变化,都不会沿着直线一直发展下去。这种发展到一定程度,又会调转头来访回自己原来的状态,这就是事物的矛盾转化。最为经典的是老子的服货领域,货息,服质所以,服息,货之所服,是服是货都要看命运耻伦的转动情况,仅近此具,很容易误认为老子也是苏明论者,命运主在一切。但这段文字还有下半句是,熟知其急,其无正,正复为其,善复为妖。谁知道货发展到极线就会转化为服,服发展到极线就会转化为货的道理。这个理论一出,服货矛盾双方的转化就有了条件,这个条件就是急。因此所谓的命运也举本了规律,掌握规律主动引导事物的运动变化,积极改善掌握自己的命运。关于人生,我们可以说,不信者别以为自己永远不幸,得知者也必以为幸福于自己永远相伴。人生遭遇措者不幸,但他也可以激发人们重新崛起的意志。方法使错者转化为新生的契机。人人都渴望生活在安逸的顺庆中,但长期的安逸生活也可能成为小姐人们一直的麻醉藥,甚至成为遭遇各种不幸的火根,第三条规律,巡换网负。事物的运动变化不是运转到一个周期,或者轮回一次之后就停止发展,事物为了的阴阳两极,游阴到阳,游阳到阴,再游阴到阳。这是一个巡换网负永无止息的运动变化过程。老子说,面对网务分成进行争艳的宇宙世界,他特别注意观察的一个现象,富,富就是反富的意思。自然界一切向的运动都表现为周形的特点,例如,苍海变桑田,桑田变苍海,三十年合动,三十年合西,四季轮回,周夜交替等等。人的生存生活也无不如此。人一生的所有活动都可以用做和吸两个自难过。人一生就是做而吸,吸而做的巡换运动。人每天每周每年的工作如此,整个人生一副如此。正所谓人生带带无穷意,将远年年只相似。而站在NPC的角度,老子更是看到万物从无道有,最终又回归虚无的运动变化回律。运言重生,当走往各自的生命力程,最终都要回归到万物的本源,然后重新开始。万物经过一世的遮层回到本源,就是富贵为虚无虚敬的存在状态。富贵为虚无虚敬的存在状态,同时也成为万物重新开始的歧视状态。因此,万物不碗如何发展变化,最终都要回归自己的本性,这是永恒不变的规律。认识这个规律,就会忽然开了,反之,则会预遇划还。在道几期万物的阴阳互转,物击必反,巡荒往福三大规律的共同之约作用下,宇宙世界形成一个更高的法则,这就是宇宙平衡法则。任何事物既不会一位区象,注留在阴级,也不能一位区象注留在阳级,而始终在阴阳两极之间徘徊,竟然互相抗衡,制约和互相接纳包容。最终实现了宇宙世界,极其万物的阴阳和谐,稳定有序的存在状态。这个法则的最高表现形态,就是浩汉无音的宇宙太空中无数心体一去周形的轨迹,而表现出的稳乱而不乱,反中有简单的仅然秩序。我们在理解三条规律以后,如果今天是,哦,我知道了,学习了这种心态,想必会让老子这位 NPC 失望,因为反者到之动,运藏着诸多更加深入的厨师哲学,典型的有反向思维,无为成就大为,以退为尽等等。接下来详细解读,厨师哲学一就是反向思维,面对任何事,任何问题都要反着想,反着说,反着做,简研之就是要学会反向思维,反向形势。到得及三十六张绝立一,将与废之,必顾取之,这段文字十分中性,需要按照受重来理解,如果受重是你的敌对,就可以理解为捧杀。你如果想废掉一个人,最好的方法就是向他捧到高位,然后再稍微拆下台,就会让此人跌落至粉身碎骨。人性无法经受住考验,任何吹捧都会导致人的捧杖。所以,知道现代,大家都仍在使用这种废人的方法,却不知老子,倒在几千年前,究竟十分明确。如果受重是自己,这句话就变成了,将与强之,必顾弱之,可以理解为破福臣州。人生到达古底之时,如果真的想彻底翻身,那就先把自己所有认知中的后路全部堵死。当我们毫无估计时,反者到之动,会让你彻底崛起。而崛起的真正原因正是你的决心。这种子端后路的方法,相遇是实践者,也是我们可以模仿和学习。到得经三十六张举例二,将与取之,必顾与之。用现代的话来讲,就是御情孤众,也是反者到之动的经典案例。追求成绩更进一步的同学,都会喜欢分享自己的解体思路。表面上是无常帮助其他人,实际上是不断维护大脑神经的突出生长。追求利益最大化的商人,都会在无形中让你觉得占了便宜,表面上是不断给予,实际上是更加兇残的绝取。人要生存,不仅需要从自然他人社会那里获取来生存的物质资料,还需要得到他人在情感,精神上的关心,尊敬和社会的认可。那么人怎样才能更好的获得自己生活所需要的一切呢?许多人在获取的过程中,不懂取和语,即使对立又是一存的关系,只是一味的直接锁取,而忘记了,给予是锁取的基础与全体。结果,虽然日夜矛算,但是往往不能达到真正货取的目的,或者虽然暂时信货的那些利益,但难以长久,甚至最终一无所有。所以,不管有多少追求,不管想货取什么,最有效的途径只有一个,先给予后货取,护止生活资料的货取如此,精神生活资料的货取也是如此,处事哲学二,就是无为而成之大为。道德经七张中指力,天地所以能长且久者,以其不自生,故能长生。天地之所以长久,是因为他的存在就是给予人类空间,但基本不会达扰人类的生存,但天地确实人类的绝对领导,我们到现在都无法讨多天地的控制。我们总会无意将忘掉这位领导,所以他可以长久存在。世人诸多理解错误老死官有无为的含义,他并不是教世人躺平,可以想象,那时候的世人如果躺平恐怕是要饿死,至少他们还需要干农火维持温宝的吧,如果你将反者道正的核心思想,来品为无为,才会知道,老死是在教育那些又纯又坏的诸候领导呢。教育他们无为吧,别争有的没的,他们无为了,就会给大家造就最有为的环境。这里反映了老子,一推违进的思想特点,也担有私心,表象让诸候领导无为,但实际上为天下更加太平,以无为来达到大为的目的,换取百姓安尼。用现在的话,来理解领导的环例就是无为而至。在现在某种环例体系下,上下班打卡,写周报开立会等等环例措施,表面上领导环例有方,使则是在不断人为控制并额下原功的积极性,结果是人赴于是人员自为。而在另一种环例体系下,领导表面上消失,给原功足够的自由空间,表面上人人蓝散无纪无数,使则是给予大家足够的空间完成真正的工作,结果是真正的上,领导也在无卫中实现自己最终的目的,而用现在的话,来理解刺身的管理,就是拿得起放了下。情绪管理一直都是用文化体,而老子也在无心中提出了自己的观点,人就是情绪本身,是所以为人,便是因为情绪的存在,但情绪仅仅是本末的点罪,却因本末的胡知,导致情绪成为本末的主导,我会义语,我会崩溃,这都是情绪占据身体的距向体现,而情绪最害怕的就是本末的无为,如果你能拿得起放了下,无为而为,情绪是无法控制你的,你能够做到收放自如,情绪反而成为你左绑右臂,助力美好人生的建立,这种无为,也造就了本末的大为,厨师哲学三就是一退为尽,道德经41张绝立,明道若美,尽道若腿,明道若美,光明的道路看起来却宽暗不明,无论是高考还是考研考宫,对于普通人来说都算得上人生道路上的光明之图,但在寻找光明之图的过程中,我们都会长进在黑夜中摸索前行的痛苦,经历冷摸着石头过河的危险,没有在黑暗中痛苦摸索的经历,就不可能找到光明之图,所以光明之图看起来却是宽暗不明的,尽道若腿,前进的道路有时却像在道腿,平坦的大道却向高低不平,股票在翻背的道路中都是回弹无数次的结果,只想进生的道路中都是在无数坑中摔出来的经验和机会,好事成绩的提升都是在无数刷提中激赞的思路和记忆,人生没有一路向前的坦图,前进的道路上难免有看看科科,需要随时停顿下来清除路障,而且有时主动后退,愈回而行反而更有利于前进,这两句话也全面体现了老子反者道之众的哲学思想,其一,民与妹进一退,即使对立的又是统一的,唯有相反才能相成。其二,事务的因与阳两极总是不断运动变化的,运动变化的规律就是各自向对方的方向发展,而任何一起运动发展到极致,又会转向元初的性质状态,因此寻找光明的图中可能遇到黑暗,而黑暗道极致,又会流暗花明又一村。追求永往之前必然会于遭遇坎坷,而经历一切坎坷之后,最终达到前进的目的。其三,很显然,在明道与妹,近道与退的关系中,老子追求的是明道,近道。那么什么才是真正的明道,近道呢?老子认为,事务最理想的存在,既不是孤音,也不是独养的单几状态,而是音中有阳,阳中有音的和谐统一体。所以,真正理想的明道,近道,必须善于接纳异己,要由于自身对立的妹,退等性质的弥补抗衡。这样,明道近道就不再是与妹、退,对待的单几性质的分败了,而分别成为包含了对立性质的阴阳和体,即实现了合的存在状态。好了,本期关于老子反着到之动的哲学思想就讲完了,下期将继续弱者道之用片。2.弱者道之用片老子所说的刚强则是音摔而阳胜的不和谐状态,甚至是完全失去音的性质,或是能抗衡纯阳的单几存在状态。音摔阳胜意味着音语阳相互感应,激盪于抗衡的生命机制储向稳乱,生命的原动力不足,因此,刚强是音阳适衡的体现,是生命里苦解的象征。在竞争内险的国家,历来都会注重专制和压迫的社会管理方式,从上强和炫耀的行事作风,信奉弱弱强制的身份策略。在这样的历史背景和残酷的现实条件下,随波主流成为多数人校访的普世处事哲学,而坚定不已的奉行柔弱行事原则的人却聊聊无级。道德经中核心内容,反着道德动的下文是弱者道之用,它指的是道即其万物的功能作用的发挥,是通过其柔弱的外线提醒而实现的。阿普常试直接分析原剧,担心涉及太多的哲学名字道之难以理解。很幸运的是,道德经中还有两个与弱者道之用相关的思想,柔弱胜刚强和有之以为力,无之以为用,他们共同从侧面结束了弱者道之用的内合,接下来我将卓中分析这两个思想。您的支持是我对大的动力,下期我将啟动不一样的阳明兴血探索之路。首先,柔弱胜刚强。老子泡豬这样的思想,出看是与尝试相为备的,不太像普世法则。因为千百年来的经验尝试告诉人们,无论自然界还是人类社会,无论个体与个体的背扛还是群体与群体的教量,现实力量强大的一方,总是居于竞争的优势地位,而现实力量弱小的一方,总是处于竞争的劣势。人们之所以会对关度制战这种以弱胜强的案例精进乐道,就是因为这种案例太少见了。那为什么柔弱可以战胜刚强,又如何运用到真实的生活中呢?接下来一一接小。以弱胜强其一的理论一句,就是反者到之动中的阴阳对立发展相互转化。老子认为,事务在不断发展变化,刚强与柔弱伤疯的竞争关系并非永远是强者站去闪疯,而弱小者居于劣势,到底谁有谁劣,要具体分析。用现在的话讲就是用发展的眼光看问题。从事务存在的共识性或既定状态而言,力量弱小的一方显然是无法与力量强大的一方抗衡的。关度之战,无论从兵力还是世纪方面,曹操显然是无法战胜元少的。在这种情况下,不是柔弱胜刚强,而恰恰是刚强胜柔弱。但是如果从历史性或事务运动变化的趋势而言,刚强能否战胜柔弱就不具有必然性了,而柔弱胜刚强反而具有了必然性。这种必然性也是由反者导致动中的物级必反的规律决定的。柔弱以刚强代表了事务存在状态的两级,按照物级必反的规律,不仅柔弱发展到极致会转向刚强,刚强发展到极致也会转向柔弱。从事务运动变化的趋势而言,元少正因为实力太强,优势太明显,反而会有细小的疏忽和漏洞。所以,曹操可以抓住夹风中的机会,从局部关键的胜利不断扩展,从而逐步使正争局势完全逆转。以弱胜强还有一个更核心的理论依据,即老子对柔弱于刚强废的特殊内涵。世俗所谓的刚强和柔弱,着眼于失务外在形体和力量的强大于否。而老子则着眼于失务内在生命力的强弱。老子认为外在形体力量上的强壮恰恰是内在生命力日期衰竭的表争。而外在形体和力量上的弱小恰恰是内在生命活力、强和旺盛的体现。用现在的话讲,就是外强中肝、外柔内肝。外在用眼看,靠的是感受非常主观,而内在得是需要在时间中检验更加客观。道德经33章,胜人者有力,自胜者强。能够战胜别的人,只能算是力量强大,能够战成自己的人才是真正的强者。老子说胜人者就是世俗所谓的刚强者,他们的外在形体和力量都很强大。老子说自胜者就是内心刚强者,他们的内在充实且生命力强。老子认为我们面临最大的敌人,不是他人而是自己。能够战胜自己的人才是一个真正的强者。柔弱胜刚强并不是说柔弱的一方在外在形体力量方面能够战胜刚强者。而是说柔弱的一方具有更强和更持久的生命力。那么柔弱为什么是生命力强和持久的表现呢?因为道德经中的柔弱并不是世俗所谓的外在弱小,而是本身包含了英语洋两种性质的阴洋和些统一体。而英语洋的互相感应,激盪和抗衡,正是生命的激力和原动力所在。因此,柔弱是生命本质的体现,是生命活力的象征。柔弱胜刚强的是阴衰儿洋胜的不合谐状态,甚至是完全失去阴的性质,或是能抗衡成洋的单级存在状态。阴衰洋胜意味着阴语洋相互感应,激盪与抗衡的生命机制出现稳乱,生命的原动力不足。因此,刚强是阴洋适恒的体现,是生命力库解的象征。这才是柔弱胜刚强的核心寒翼。老子也为大家贡献足够多的实力,道德经76张,人之生也柔弱,其思也坚强,草木之生也柔脆,其思也哭搞。人活着的时候,肌体是柔弱的,人思以后肌体变得僵硬。草木活着的时候,支条柔软,草木一旦死亡支条变成哭搞。所以肩强的东西总是与死亡围办,柔弱的东西总是与生命同类。道德经78张,天下末柔弱于水,而攻肩强者末之能胜,以其无一一直。事实上没有比水更柔弱的,而攻克肩强的东西没有什么能够胜过它。为什么刘子心的三体会有水滴的形象,不认为获得或少都说到了道德经的影响。可见,劳子主张弱者道志动,提出柔弱胜刚强,实至是对弯强和旺盛的生命力的可求。然而柔弱胜刚强的厨师哲学容易理解,但真正要在生活工作中做到确实极其难的。劳子也进一步分析了如何才可以应用柔弱胜刚强的厨师知道。道德经73张,永于赶则杀,永于不赶则活。永于承强都气的人就会招致死亡,永于不承强都气而认输的人就可以保存生命。永于承强很好理解,但永于不承强,会被很多人理解成松胞、胆小之类。在这里其实有两层含义,其一,永于不敢的永于是懂得擅长或惊通的意思。这个意义上的永于不敢是说,坚守柔弱者懂得天道法则,身安柔弱胜刚强的哲理。因此他们不认为身体强壮或外在势力的强大是真正的强大。他们追求的是自我与万物的和谐统一,因为他们坚信对立两级的互相抗衡,相互弥补,才能相得一张,才是生命里玩强和持久的象征,才是真正的坚强。所以最终反而可以超越,并且占身外强中干屎的坚强者。其二,永于不敢的永于又有感于有勇气的意思。这个意义上的永于不敢是说,奉行柔弱的厨师态度并不是一件容易的事,需要其他的勇气和高差的智慧。在竞争内卷的国家,立来都会注重专制和压迫的社会管理方式,从上强和宣要的行师作风,信奉弱弱强制的生存策略。在这样的历史背景和残酷的现实条件下,随波主流成为多数人校访的普世厨师哲学。而坚定不宜的奉行柔弱形式原则的人却聊聊无己。要做到举世接着为我独卿,重人接罪而我独行,没有念了上的大无微勇气,缺乏超越世俗的极高明的智慧,是断然不可能做到永于不敢的。所以,无论坚信弱者道之用的真理,还是奉行柔弱生刚强的厨师原则。都不是世俗大众亲而易举做的事。以我马尔言,我们可以参考老子的厨师哲学,真正常试去理解柔弱生刚强的则力。并不但经济成为真正之有反世俗精神的勇士,不去计较一时厉害得失。始终坚守柔弱的厨师原则,最终做到永于不敢。而老子也认为,唯有这样的人才能更深固地长生久世。与若者道之用相关的另外一个重要思想式,有知以为例,无知以为用。实体的有发挥了便利作用,人们可以使用它。例如房子本身是可以遮风党语的。而这个有却依赖于无,有了无才能有有。例如,房子的空间才是我们需要的无和空,有了空间我们才能住在房子里。由于无,就像事物难与异,长于短的关系一样,都是构成事物不可获却的议题两面性,相法而相成。而利于用则代表了具体实在的物质力,与不实在的抽象力,可见,有之力与无之用的区别,就是具体之用与抽象征的区别。老子若者道之用在普世功能的运用就在于此。世俗之人储慕村皇,只追求具体之用,而老子在肯定具体之用的前提下更注重抽象之用。认为无之用才是事物真正,或更具本质性的价值意义之所在。以企业为例,企业的资产不仅仅支厂房、生产设备等这些具体的有形资产,还包括企业拥有或者控制的没有实物形态,但可以给企业带来持续的长久力的无形资产。无形资产除了专利权、土利使用权等权利以外,还包括企业文化、企业形象等等。无形资产不仅是企业在有形资产之外的巨大财富,还是盘火开发有形资产,使其持续不断创造价值的动力源权。道理很简单,一个没有技术和先进的经验里面的企业,即使拥有在熊后的有形资产基础,也无法实现有效的生产经营。计划经济时代的许多中国企业,就不懂得无形资产的重要性。不懂得用法律手段保护企业长期经营形成的专有技术,品牌商标,导致一度被境外商家纷纷抢先注册的现象,给许多中国企业造成了巨大的损失。在以人的生命为例,人的生命是身体和精神的同一体。如果将人的生命等同于动物生命的意义而言,身体当然是生命的先在性和决定性的因素。物质性的生存是人生的主要内容,但从人作为理心动物的生命意义上而言,精神则是人的生命的决定性因素。不仅身体的意义与动受着精神的支配,而且整个人生的深刻性,丰富性决定于人的精神的深刻性和丰富性。精神的能量决定于生命的能量,精神的境界决定了人生的境界。我们不同意微信主义在本元意义上对物质与意义时关系的颠导,但在本元意义上承认物质决定意义时的前提下,绝不能忽视微信所限,微使所变的真理性。有之以为例,无之以为用,除了让我们更加证实万物飞实际的用途之外,还让我们反思当下之用与长远之用的利弊得事。当下之用就是利己就可以产生的功效,或当下就能明确意识到的功用。长远之用是当下没用而长远看有用的事物会行为,或当下没有意识到有用而长远看实际上有用的事物会行为。当下之用是有之力,长远之用是无之用。注重当下之用而忽视长远之用体现了一种狭隘的功用价值观。在当今社会表现的油尾突出,这就是全社会各行各业极工经历的风气。围观一方,追求看的见,见消快的正习。于是大型统一模式的基建建设就成为了工作图号抓手。而事关名声的教育医疗社会保障等基础服务性体系,因工作周期长,见消骂而被忽视。科研管理机构追求一年一度为周期的科研考核管理制度,科研工作人员追求短平快的科研成果,而号时废力但价值一生一年的基础性研究却很少有人问惊。各级学校以各类生学考试,各类就业考试为指挥棒的硬式教育,和偏重专业知识和技能的教学体制。使学生对人知生存,对基础性和终身意义的力生为人的道德学问不卸一步。乃至整个社会呈现出过度追求物质性生活的趋势,而对作为人生理想的精神性生活缺乏普遍的热情和期待。对求当下之用可见之用组织了人的思维,举前的人的事业,一直的人的创造性活力。阻挨的人们对应有人生广度的拓展和对应有人生深度的挖掘。这样的人表面上看茫茫路路,自自以求,但绝不会成就什么人生挥黄,更不会成为发挥社会大眼的动量制裁。所以,在一定意义上说,汉思最有用的有之力其实是最无用的。汉思最无用的无之用,其实是最有用的。装子对老子的思想做了很好的发挥。会死是装子的朋友,学父、车、天文地理无所不想,但他注重的是有关可见之物的知识,集对有之力的关注。而装子则经常思考探讨各种抽象的人生折力等学问。因此,有一天会死对装子说,你的言论没有什么用处。装子说,如果你真正懂得无用之用的道理的话,那我就可以与你说说公用的问题了。于是装子就虚过了一个情景,对会死说,大力不能不说广帽无音。但一个人要在大力上站立起来,只需要容得下双角的一小块土地霸。于是,许多人认为,对自己最有用的就是双角直接踩他的这一小块土地,而周围广帽无变的大力对自己毫无用处。装子说,如果真是这样,那么我给你做个假设,请你双角并且站在地上,我把你双角直接踩他的这块地留给你。把你双角之外广帽无音的大力通通掏空到九全之下。请问,这时候你能够在这一小块土地上站起来吗?你还有勇气站在这一小块土地上吗?你还觉得那一小块土地有用吗?为此,黄然大物的说,我原来认为最有用的东西恰恰成为最无用的东西。装子总结说,这样看来,那么无用的东西才是最有用的道理,也该明白了吧。装子这段话是对老子的有知以为力,无知以为用的生动助角,现在独来,我们既有一种亲近感,又有一种破歉感。说,亲近感是因为他简直是对当下社会的教风,学风,科研风气,那这整个社会集工经历的人生态度和工作作风的新纳缝次。说,紧迫感是因为阿不觉得,当代社会各行业集工经历的风气和人生态度已经达到无以复加的程度。已经对个人和整个社会的发展造成了极大的损害,继续尽快扭转彻底改变。所以,关于有知以为力,无知以为用,也是弱者道之用的功能体现。而所谓的弱,即使容易被人忽略的万物抽象之用,也是精神之用于软实力。于社会官员或企业领导而言,以退为尽,以慢为快,立足现实发展更加具备长远力的事业似乎更加符合老子的处事哲学。而与我们自己而言,12位人,如果仅仅追求当下之用,过渡追求物质性生活,这与动物无意,完全委辈了老子弱者道正的核心思想。老子知道我们应该追求,无知用,拆脱自身事业,发觉人生应有的广度和深度。好了,今天关于弱者道正的哲学思想解析完成,小伙伴们下期见。3.道德言读方法片老子是为了研究解决人生社会等现实问题才展开他的哲思。因此,对人生社会等现实问题的关注思考才是道德经的逐知所在。所以,尽管老子经常养往天空,游心太旋,但窮楼玉雨不是他向往的天堂。尽管老子不吃冷言均语,喷地现实,但对现实人生的骨刀热长恰恰是他的心知所念。这是一种站在太空腐蚀大地的四位方式,也是一种遮变素援高站援助的理论事业。很多自媒体的炒作,导致道德经,以及老子哲学思想被批上伤增,外星人,非生等各种离谱之籍的外衣。这些自媒体在脖曲流量以后,就会结束深入的解析。这些导致道德经的真实内核被果的言言事实,只剩下华而不是的外衣。再次声明本人不是立起去的阿不主。关于道德经的思想,本人更倾向于此书能够用于时间,解决人生和社会问题,而不是玄幻小说。接下来,让我们一起用正确的方式打开道德经的大门。中国历史上有三部典级,被称为三选,分别是周一,道德经和装子。这三部典级之所以被核成为三选,一是由于他们共同构成了未尽玄学的理论依据。二是由于他们运行的哲诗选妙,文字古澳普通人难以同小。其实就道德经而言,人们之所以觉得玄澳难懂。在很大程度上是因为我们的理解都是依据世俗的经验常识,带着习惯性的思维方式。而道德经恰恰超日了世俗的经验常识,其所思往往备理的人们习惯性的思维方式。也就是说普通独着的世俗经验常识和习惯思维方式,不但不利于理解道德经,反而会成为走进道德经的兰路虎。老子早在道德经写作过程中就意识到这个问题。道德经第七十张,五言身一之,身一行。天下莫能之,莫能行。意思是说,我所设的道理本来很前显一种,也很容易复助实践。但天下却没有人能知晓,没有人能见行。我们之所以无法见行,就是因为我们受制于世俗的经验常识和习惯性思维方式。老子将这种世俗经验常识和习惯思维方式成为前识。道德经第三十八张,老子认为这样的前识其实是道之华与之使。所谓前识,是对道德华而不是的潜魔理解,是愚昧的开始。老子的前识类似于德国哲学中所说的前友,前建或前理解。即使人们在新的理解活动开始前,就已经拥有了各种价值观念,经验常识和思维方式。他即使人们新的理解活动展开的基础,又会成为先入为主的成见或偏见。德国哲学强调了前友,前建对于新的理解和产生的积极效应。而老子强调了前时对于新的理解产生的消息效应。在老子看来,只有破除和超越世俗的经验常识习惯思维方式才能动习道德经。测误老子的思想,为此我们必须了解老子独特的运思方式或思维路响,这是走进道德经的入门钥匙。下面我们从三个方面对此于一说明,1.追本宿园的理论识域老子生活在春秋末期,此时周王朝游强转弱,王氏日益帅围大泉庞落。而诸后国则随着政治经济军事实力的日益强大野心膨胀。互相争罚,竞相称罚天下,于是战争平凡国家分裂,天下无道,生灵图炭成为春秋末期社会的最大特点。为了结束动乱分裂,重建社会秩序。大批人人知识,或者不同的社会理想,站在不同的立场。一边分分住宿,你说,汉语经郑国救命的药方,一边游水四方扩大自己的思想影响。朱子百家有此而清。因此,朱子百家的思想有一个共同点,都是针对春秋末期特定的历史现实,对人生社会问题的思考。都企图建立自以为行之有效的文化信仰体系和理想的人间社会秩序。但以老子为代表的道家,在思考解决这些问题时,观察问题的角度,思维方式,理论事业与其他各家,各派竭然不同。从思维的空间为度而言,其他各家各派都是站在人生社会现实的角度,思考解决各种人生社会等现实问题。或者说,他们都是立足于大地和人间,而观察思考人与人的问题。老子虽然也思考解决人生社会等现实问题,但他观察思考问题的角度,不又于人生社会现实。而是将思维视角,由人生社会领域扩展到更加红扩的自然界,再由自然界进一步提升到浩安的宇宙。或者说,老子是站在宇宙的高度,将天道地道人道视为魂战一体,还荒相扣的有机整体。通过,宗官还与,两官天道,复察地道,最后将视角居交日人道,从而提出解决人生社会等现实问题的一系列设想。以上思维视角的不同,接用中国古代形儿上形儿下的哲学书语,就是说,各家各派是正在形儿下的角度思考形儿下的问题,而老子则是站在形儿上的角度,神是形儿下的问题。从思维的时间为度来看,虽然先请各流派在力伦一句方面都注重历史的回望,以史为见,及言着过去现在未来的时空模式勾兼自己的学说,但其他各派对历史的关注。都没有超越人类历史这一有限的时空饭筹。他们只是以有限的人类历史为准则,而却力后世社会的饭市以先王剩人的言论为经典,作为理想社会饭市重建的理论根据。而没有从人类历史以外更红扩的天地自然与周生成过程,去寻求人类社会饭市重建的中级根据。老子也注重回望历史,也强调一史为见。当他对历史的关注没有限于人类历史,而是将四位的处角层层推进,步步提升,从有限的人类历史的考察,延伸到对自然界历史的追溯。在由自然界追溯到整个宇宙的形成历史。因为在老子看来,人类社会不过是天地自然演化的结果,人类历史不过是自然历史的一部分。而天地自然又是整个宇宙演化的结果,天地自然的历史也不过是整个宇宙历史的一部分。当老子的理论事业提升到宇宙的高度而服势环语时,他将四位拒绕到一个人类几乎不可能有的中级答案,但这要永恒追尽的问题上。人及其宇宙万物是怎么产生的。导致宇宙万物产生的最初那个东西,或中级原因到底是什么。通过重官环语,养官府查名思苦响,老子发现和接视了宇宙本源的真面目,将其名之为道。老子对人生社会等现实问题观察思考的思想力程,就是从这个中级源头切入而展开的。法国起蒙运动基建流行医区艳语,懂得了起源就懂得了本质。这句话可以帮助我们理解老子这一思路的深刻理剧。要研究解决任何问题,首先要了解这个事物的现象问题的本质,而要了解这个事物的现象问题的本质,就必须探究这个事物现象,问题的来龙去卖,同理,要研究解决人生社会等现实问题,首先必须任情人生社会的本质,而要任情人生社会的本质,就必须探究人及其人类社会的起源。而人类社会不过是天地自然演化的结果,天地自然就是整个宇宙演化的结果。因此,要探究人类社会的起源,不得不深究天地万物的起源。而要探究天地万物的起源,必须要进一步追问整个宇宙的起源。所以,对起源问题的观察思考是解决一切问题的前提条件,不懂得这个道理,就无法任情万事万物的真面目。而一旦弄清了万物的起源,一切事物的本质就招然落接,一切问题将迎然而解。这正是老子的运思方式。对此,到得近第二十一张,自经极古,其名不去,以月重斧。五何以知重斧之壮灾,以此。意思说,从苦道今人们总是道压道压的谈论不休。人们之所以如此关注道的问题,是为了依据到观察认识天地万物。我为什么能认识天地万物发展变化了各种状态规律呢?就是根据这个道的总原理。到得近第五十二张,天下有史以为天下母,记得琴母一之其子,记之其子复守琴母,没身不带。这里的史和母比于宇宙万物的本原,及老子说的道,子比于宇宙本原道创生的云原重生万物。整句的意思是,天地万物都有本有史。这个作为本史的东西就是天地万物之母。了解掌握天地万物的本原,就可以有此认识天地万物。如果认识了万物,又能坚守住万物的本原,终身都不会有危险。老子探探的这些问题属于旋轻深二的宇宙哲学问题。但是我们必须明白,购建宇宙哲学体系不是老子写作道德经的初衷。老子是为了研究解决人生社会等现实问题才展开他的哲思,因此对人生社会等现实问题的关注思考才是道德经的逐知所在。所以,尽管老子经常养往天空,游心太旋,但窮楼玉雨不是他向往的天堂。情况老子不吃冷言均语,喷地现实,但对现实人生的骨刀热常恰恰是他的心知所念。这是一种站在太空府市大地的四位方式,也是一种追本素援高战援助的敌论事业。独发道德经,许多人可能意识还不能理解或接受他的全部思想。但尽道德经愿含的这种观察思考问题的应思方式,就足以给人们以巨大的企业。我们对任何现象问题的观察思考,如果能超越现象问题本身,而养官、府市通过追本素援的方式,寻找问题产生的深层次原因。不是可以获得对有关现象问题更透彻地认识吗?不是可以使人们明确解决问题的更有效,更根本的途径和措施吗?2.天道推演人道的类比思维只顾知道之所以能够预金之有,老子关注思考研究人生社会等现实问题,之所以要从勾捐宇宙哲学体系入手,还在于老子认为人道与天道还换相互,息息相通,人道不离天道,天道不远人道。天道是指宇宙万物运动发展的根本法则和普遍规律,人道是人类应有道德理念和遵循的行为准则,以及人类社会应有的普遍饭饰和发展规律,老子认为,宇宙世界与人的社会在结构秩序,运动发展规律的方面是息息相通的,但二者不是并存关系,而是主存关系。天道在时间上先运人道,在空间上高运人道,在作用威力上大运人道,从而天道主在的人道,人道哪天地万物的存在方式,发展运动规律都受着天道的制约,都要英询效法天道。老子通过分析宇宙间四类最伟大的存在对象的关系,产明了这个道理,道德经第二是五章,古道大天大地大人意大,一中有四大而人居其一言,人法地地法天,天法道道法自然。老子认为,宇宙间有四类最伟大的存在对象,分别是道天地人。人为天地万物之灵,是云云万物中唯一用有主体一世的存在对象,所以老子将人从云云万物中独立标准出来,是为宇宙间四类伟大存在对象之一。道天地人,虽然从新闻上看是病例关系,但老子通过敘述顺序的先后安排,明税表示他们并非不分先后高下的病例存在对象,而是宇宙间不同等级层面的存在对象。宇宙间最高的存在对象是道,它熊居天地人之上,是天之为天地之为地人之为人的终极根据,是宇宙的最高法则,其四是天,其后安太空的一切存在对象,其四是地,其大地,它是太空星期中唯一拥有生命物的星球,人,是只居住在大地上的万物之灵,人是大地之子,吃穿住行等一切活动直接受职于大地,所以人的生存方式要阴巡效法大地的运行规律,而大地的存在运行受整个太空星系运行法则的职约,因此大地的存在运行要阴巡效法太空星系的总体规则,而太空星系的存在运行最终受宇宙最高法则的职约,因此要阴巡效法天道,那么天道的法则是什么呢?天道的法则就是自然,因此天道的法则阴巡效法自然,歸根解底天地人及其万物最终都要阴巡效法道的自然法则和规律,也正因道天地人的存在运行规律是还换相扣,息息相通的,因此天地人存在发展的普遍规律完全可以通过,层层类比推延而获得,动息宇宙之旧的最高法则就掌握了天的法则,掌握了天的法则就懂得了大地运行的规律,懂得了大地运行的规律就明白了人之生存,应该有的道德理念和行为准则,就明白了人类社会的发展规律和阴巡的普遍饭饰。合建,类比推延是与老子追本数员高粘原住的李倫事业,密切相关的运私方式,对其思想形成更具内在的影响力。下面就让我们看看有天道推延人道的类比思维在道德经用的具体应用,道德经地三十二上,道长无明,福,虽小,天地末能沉野,猴王若能守之万物将自兵,大意是,道永远是无明的,福之自然的,虽然优为不可见,天下却没有什么能使他沉浮,猴王如果坚守奉行大道,万物将会自然的归从。道德经地三十九章,稀之得意者,天得意以清,地德意以寧,神得意以寧,古德意以寧,万物得意以生,猴王得意以为天下正,大意是,自古以来,繁登坚守奉行大道者,天尊旋大道而运行,就会显现出他的情朗,地尊旋大道运行才会安稳寧静,神寧尊旋大道才会显现出他的领驿,虚空的东西,尊旋大道就会变得充赢,万物尊旋大道才会生长发语,猴王尊旋大道治理国家,就可以使天下安定。老子认为,水最能象征大道的品格特征,因此他经常接用水的种种特征来类比人因有的各种美特,道德经地六十六张,江海之所以能为白骨王者,一起善下之,故能为白骨王,是以预上民,必以言下之,预先民,必以身后之,江海所以能成为众多合流慧网的地方,是由于江海善于处在低下的地方,所以能成为百川之王,因此,要治理国家统治人民,对老百姓说话一定要态度温和,与其千倍,要像领导人民,必须把自己的利益放在人民的利益之后,类比思维不仅是老子为了由天道推论人道而刻意追求的思维方式,而且是老子意义冠知的思维方式,在道德经中,老子即使论述其他问题时,也同样平平运用类比思维,道德经地五张,天地之间,起喉头月呼,虚而不屈,动而语出,老子以风乡中空而能鼓动出无限风力,比喻道随虚空,而内运着无限能量,道德经地六张,全品之门,是为天地根,绵绵若存用之不情,老子以玄卖的辞性生知气,比喻道无穷无结的创生功能,道德经地六十张,至大国若碰小鲜,他以碰认先任的小鱼,不疑平凡角动,比喻无未而知的道理,擅长类比思维不仅是老子思维特色,更是中国传统思维民族特色的充分表争,这一民族思维特征形成的基础,从道家思想的源头而言,就是老子的混顿玄同的世界观,从中国传统文化思想冤冤而言,就是天人合一的世界观,在这一世界观基础上形成的思维方式,就是类比推远思维方式,而在类比推远思维基础上形成的认知,就是求同认知,这与西方的人与自然而言对立的世界观,以及建立在分析思维基础上的求意认知大乡境庭,三,超越世俗的反向思维,老子独特的思维路向还体现在他的反向思维方式中,老子的反向思维体现在,与世俗之人通常的思维言说,行为方式相比,他总是反向而死,反向而说,反向而做,因此,到的金中表他的所有思想观念,几乎都是超越世俗长清常理的,具有强烈的反世俗观念的批判精神。老子之所以提出一系列精湿害俗,甚至冒天下之大伯爲的其他怪论,当然不是处于分世技术标心利益,而是他的独特思维方式和哲学思想的必然结果。老子发现,天道及宇宙万物的运动发展遵循了一个共同的规律,反,反者道之动,反包含着宇宙万物运动变化的三条规律,其中一条规律就是阴阳护转,即是其内部的阴阳两种对立的元素或试能始终处于运动变化中,阴的一级总是向阳的一级发展区径,而阳的一级总是向阴的一级发展区径,例如,取责权,网责值,挖责营,弊责心,少得多,多责货。当然,把以上每具反过来独特地也是同样的道理,权责取,职责网,营责挖,新责弊,多责少,反世以后运动变化的根本规律,这个规律支配着天道地道人道乃之万十万五,因此,人应该主动积极的阴巡效法天道,从而使人的生存方式行为举动,乃至人的四位方式都遵循着反的运动规律,那人怎样遵守反的规律呢?道德经第三十六章,江羽西之,必顾章之,江羽弱之,必顾强之,江羽废之,必顾新之,江羽取之,必顾语之,世为微明。江羽使他收脸,一定先让他够扣张,江羽使他削弱,一定要使他强盛,江羽使他废弃,一定要让他心往发达。江羽打到货取的目的,一定首先给予对方,这就叫建为知之的通小明达。老子从反着道之动的宇宙法德中,领悟到为人处事,行为局质,四位眼睛的总原则。面对任何事,任何问题都要反着想,反着说,反着做,江实现杨的目的,则从阴的一级命司,要实现阴的目的,则从杨的一级入手,以此类推,遇上则先下,遇所则先右,遇动则先进,遇前则先后,遇义则从难,遇多则从少,反死种种,不易而足。其实说老子反着想,反着说,反着做,这是用试辱的眼光对老子思想的看法。老子因参透了宇宙运动变化了根本法则,领悟了天道地道人道的同够一体性,从而自己的应用超越世俗长情场里的四卫方式关键行为。它的四卫方式关键行为虽然超越世俗,反叛长情,却是最何辜天道地道,从而也是最何辜人间正道的四卫方式关键行为。而世俗之人因不能参透宇宙运动变化的根本法则,为能领悟天道地道人道的同够一体性,这才是他们阴巡所谓的长情场里,雇手沉沉香阴的习惯思维和行为策略,而这一切恰恰是完全被离天道地道和人间正道的。所以,站在宇宙之道的高度看,老子所谓的反,恰恰是长道,人间正道,世俗之人的长,恰恰是反常,伟逆之道。老子还说正言弱反,意思是真理之言说出来或听起来向反化。弱反,恰恰说明老子从不以为自己所言的,是反常的其他怪论,而是实施在的正言,常言。认为弱反的,仅仅是世俗之人而已。古希腊哲学家苏格拉里有一句明言,未经醒察的人生没有价值。在苏格拉里对古希腊世俗人生发出如此警告的几乎同时,老子则对中国人的世俗价值体系进行了更加全面系统性的反思批判。哲学的根本精神就是批判意识,与批判精神。一个缺乏批判意识,以批判精神的人不可能成为真正的哲学家。一种缺乏批判意识,以批判精神的哲学也不可能具有真正的哲学评格。而哲学家之所以具有批判意识和批判精神,就在于他们经过对宇宙世界的本质和普遍规律的深刻动察,使先了四位方式的根本辨格。因此,真正的哲学必然是时代精神的精华。无论从哲学和哲学家的哪个唯度审视,老子都是真正的哲学家,道德经都是人类史上真正的哲学居住,关于哲学和哲学家的反思评格,19世纪德国哲学家黑格尔有一个充满失益的精彩比喻。哲学就像Miniwa的猫头银一样,它总是在黄昏时起飞。Miniwa是罗马神话中的智慧女神,希洛在她身边的猫头银,则是思想和理性的象征。黑格尔用这个比喻,一再说明哲学是一种反思活动,是一种陈思的理性。黑格尔认为哲学的反思是对认识的认识,是对思想的思想。如果把认识和思想比喻尾鸟儿在续日东升,或燕阳当空的蓝天中熬响,反思当然就是只能在薄木降临时悄然起飞。这个比喻还有一层更深刻的含义,其宣秀的白天是世俗人生追明主力的舞台。人们精精乐道地日常生活的平凡,所屑,一位被现实的功力的试语签着鼻子走,从而不懂得反思现实改变人生。而哲学的反思必须是深沉寧静的,自干寂寞的,需要精神上情绪上深刻的认真态度。需要从日常极破的兴趣中抄托出来,需要排除洗俗意见的空书浅博。因此,黄惠以后的夜晚才是哲斯放弃的最佳时间。所以哲学就像,Miniwata猫头银一样,它不是在虚日冬孙的陈西中导想,而是在落日西晨的黄惠才敲染起飞。老子就是Miniwata猫头银。当我们掌握以上三点内容后,道德经的大门自然敞开,我们也能够更好理解期间内合,并将其用于实践,更深层次地达到误道效果。好了,关于道德经的打开方式,今天就讲完了,到你们下期见。四,道德本元篇。如今的世界,为物主义不仅在世界许多国家成为现行官方世界观的组成部分,而且其实在西方哲学中,比如在所谓深心讨论的范围内,也常常吹支配地位。但恰恰是这个物质概念,始终是使这个世界的科学家,感到最困难,最难解绝和最难理解的概念。总之,老子的宇宙本言论思想,即摆脱了创世神话的,盟媚幼稚的幻想,又撕破了个害宗教,虚望米性的神秘面杀。即超越了为心主义,又不举线于维物主义,它是人类历史上非常堵道而深刻的哲学指挥。老子思想的诸致是对人道的反思,即对人生社会各个领域问题的思考。老子认为,人道效法天道。因此要思考解决人道的各种问题,必须从研究天道入手。对天道的考察研究过程了老子的宇宙哲学,它的全部思想建立在其宇宙哲学的基础上,所以要全面系统了解老子的思想,必须从解读它的宇宙哲学开始。老子的宇宙哲学包括宇宙本言论和宇宙生成论两部分内容,本期视频诸将老子的宇宙本言论。宇宙本言是指宇宙的本始状态,是宇宙万物得以产生的对出原因。对宇宙奥秘和生命本原的探索是人类的中级关怀,是人类不可恶质的永恒情节。还一方面原因人对生命奥秘的好奇,另一方面原因人类企图超越生命达到永恒的向往。人类自争开智慧的双眼就没有停止过对中级的追问。神话实在的人类蒙懂无知,他们只能借助身体经验,引起独物,幻想出许多巨人垂死化身的神话故事来解释天地万物的游来。神话实在以后,人类对中级问题的关怀其中表现在各个民族宗教文化中。所有宗教认为,宇宙的本体是一种具有人格特征的神,神住在与世俗世界对立的另一个世界,其天堂,神带着某种目的和意志创造的人云宇宙万物。而虽这人类理性的不断发展,人类开始形造更加科学的中级解释,但是随着科学探索的不断深入,似乎一切逐步回到原点,回到老子的道。我们都知道,老子早在几千年前就提出道,才是宇宙万物的本源。道的本意是人形走的道路,这一原始一一种包含着许多可以被隐身的潜在因素。一,区势,由于道具有确定的指向,是人们达到特定目标的闭经之路,于是隐身为事物存在于发展的必然性与必然趋势。二,原则,由于道是人们抵达目的地必有之境,于是隐身为事物运动变化的规律,尽而隐身为人的行为所必须遵守的原则。三,方法,由于道为人们提供了达到基定目的的途径和手段,于是又隐身为认识事物解决问题的根本方法。道的这些隐身含义已经具有了一定的抽象性和普遍意义,但于宇宙本源相比,在境界上还是相差深远。那么真正的道到底有什么含义呢?或者说道具有哪些特征呢?一转,细此上约,形而上者为之道,形而下者为之气。形而下是指存在于有形世界中的人们可以直接感知的具体事物和现象。人们生活中用的各种气名就是具有物质形体特征的具体存在物,故意气名的气,借带一切形而下的事物和现象。形而上是指一切超越物质形态特征,人们无法直接感知观察的抽象存在对象。老子所谓的道就是超越物质形态特征的抽象存在对象,故意道指带一切形而上的对象,而道的本质特征也源于此。结合各种书记的学习和感悟,终和来说,道是非精神也非物质的存在,由于无的结合,虚无以失存的结合,超越时间的永恒,超越空间的存在,创生万物的能量,宇宙唯一的绝对,接下来对道的特征主义详细描述,非精神也非物质的存在,我们在读道德经时往往有一个疑惑,老子的思想到底属于维物主义还是维心主义,似乎不搞清楚这个问题,就难以把我老子的思想使质,尤其难以变稀老子思想任的积极成分于消极因素,这一困惑与长期以来,我们将维物主义和维心主义是为二人对立的观点有直接关系。其实,老子的思想既不是纯特的维物主义,也不是纯特的维心主义,而是超越了维物和维心的一种独特的世界观。宇宙的本体或本源是什么?这是人类智慧遭遇的最大挑战。当然,最初面的这个问题感到志穷立结的时候,各种创施神话和宗教知神的观念变产生了,但老子对宇宙本源的追问,超越了创施神话对宇宙起源的幼稚认知,也没有陷入宗教的泥潭。他虽然没有明确否定上帝的存在,却端然已到代替了上帝的本体性地位,认为即使真的有上帝,但到远在上帝之前就存在了,也就是说,在老子看来,上帝根本不是宇宙的本源,到才是宇宙的本源万事的即使。到不仅比上帝具有更本源性的存在,而且具有完全不同于上帝的本质特征,基督教认为,上帝是具有人格特征的神,而老子认为倒是一种自然现象,倒法自然。上帝是有目的有意志的,而倒是无目的无意志的,上帝自然为是全能全知的,而倒是无知无言的混顿存在,总之,倒得一切功能作用的发挥是自然的结果,而上帝的一切功能作用都是神的指引,既然老子倒这么虚武,那么如此看来,他的思想是为心主义吗?非也,老子的思想与为心主义更不展变,他明确将倒坚定为物的现象,而非精神现象,倒得精第21张,倒之为物,为谎为呼,呼吸谎吸其中有象,谎吸呼吸其中有物,谣吸明吸其中有精,其精甚真其中有幸,意思是说,倒这个东西,皇皇呼呼,四有四无,虽然呼呼皇皇,但其中又有形有象,虽然皇皇呼呼其中却有十无的存在,他虽然微不可见,身不可测,其中却运含着精气,而且这个精气是非常真实的,是有信念平正的,显然老子所说的道不具有任何精神性的特征,老子的宇宙本言论也是于微心主义化性的借险,倒既然是一种自然现象,而且老子说是其中有物,这是否意味着倒是物之形的存在呢?虽然老子说倒之为物,其中有物,但这个物不是可感知的物质形态之物,而是前物之之物,倒是神奇的宇宙基因,儲存着万物形成和转化的无限潜能,协待着推动万物生生不惜的全部信息,或者说倒是一种无形的,却又无所不在的抽象的宇宙能量,它周由于天体之间,也就是说,老子认为宇宙世界建立在非物质的基础上,物质不能成为物质的终极原因,非物质的倒才是物质世界得以产生的终极原因,这显然又以为物质意识相左的,层级合时,宇宙世界是绝对实体的观念被奉为放置似海而接准的真理,然而按赢思想的相对论证明,物质的质量根本不是绝对不变的实体,质量于速度有关,在质量于速度的互动关系中,抽象的能量可以变为实体的质量,实体的质量也可以变为空级需物的能量,层级合时,经典物理学认为,物质由分子构成分子由原子构成,原子是由电子、中子和制子这些基本例子构成的,人们坚信,即使物质细分道不能在细分的中子和制子这些基本例子层面,仍然保持着可观测、可寄良,可验证等物质的固有的确定性和横定性,然而,量子力学的星期彻底改变了人们对物质构成的认识,彻底颠覆了人们的世界观,在量子世界,物质过的可观测可寄良等确定性、客观性不复存在,不仅如此,科学家进一步发现,整个宇宙中存在的现象也不知像我们过去认为都是普通物质,除了普通物质还有暗物质和暗能量的存在,其中暗物质占宇宙的25%,暗能量占70%,我们通常所观测的普通物质只占宇宙之上的5%,也就是说,主在整个宇宙的不施普通物质,而是宇宙暗的一面,暗物质、暗能量。如今的世界,为物主义不仅在世界许多国家成为现行官方世界观的组成部分,而且其实在西方哲学中,比如在所谓深心讨论的范围内,也常常处于支配地位。但恰恰是这个物质概念始终使这个世界的科学家,感到最困难的最难解决和最难理解的概念。总之,老子的宇宙本言论思想,记忆摆脱了创世神话的盟媚幼稚的幻想,又思破了个害宗教虚望米性的神明面杀,记超越了微信主义,又不举线于维吾主义,它是人类历史上非常堵稻而深刻的哲学指挥,由于无的结合。我们都知道双奉干涉实验,宽踏着的存在会让实验结果发生重大变化,老子倒就是如此,它即使无又是有,名义失统,看你站在哪个角度观赵而已,当你观察它,它就以成为有,变成具体的内容,当你不换察它,它富贵遇到变成虚无的内容,由于无是道德别名,道是虚无性和十分性的合体,也就是由于无的合体,道德经第一章,道合道非常道,明可明非常明,无明天地之使有,明万物之母,故长无,遇义关其妙,长有,遇义关其角,此两者同出而一名,同位之旋,旋之又旋,重妙之门。道是可以言说的,但不能用通常的言说方式言说,道是可以称明的,但不能用通常的命名方式称明,为什么这样说呢?因为在老子看来,道不像普通道理或具体事物,不能用描述普通道理的语言来谈,无论,不能用给具体事物命名的方式来复于他名称,老子记着说,道即是无,又是有,明之为无,是为了说明道是天地的本使,明为有,是为了说明道是万物的母亲,也就是说,当老子强调道的虚无性时,将道明之为无,当老子强调道的十存性时,又将道明之为有,正因为道即是无,又是有,所以老子记着说,经常从虚无的角度,认道,可以想象领悟道的神奇奥妙,经常从石油的角度体无道,可以观照道的明确可验的真实性,总之,道即是无,又是有,明义是同,看你站在哪个角度观照而已,所以,老子最后说,无于有,是源于同一个对象的不同称为,都只在那个玄奥神秘的道,道不是一般的抽象玄奥,而是玄奥中的玄奥,他就是动息与招万物无穷奥妙的门境,虚无与时存的结合,在一般人看来,虚无与时存是矛盾对立的,因为在日常生活中,许多人判断一个对象是否存在,往往以是否能被人感知作为根据,能被人直接感知就认为是客观存在的,相反就认为是虚望不真实的,其实这个判断是很片面的,这个世界上许多高度抽象的对象,虽然不能被我们感知,但他们真实存在,比如终于的经落,大自然的磁场等,老子所说的道,就是这种计虚无忧真实的存在,为了避免人们将道的虚无理解为存在的虚空,老子从来不单独谈论道的虚无形,而总是将道的虚无性与时存性和二论治,道德经第十四章,世之不见,明月一,听知不文,明月西,博之不得,明月微,此三者不可至杰,故魂二为一,老子说,道具有看不到,听不见摸不着的存在特征,即道是不能为人的感觉器官所感知的虚无存在,道是宇宙世界的中级原因,而他自身的存在是没有原因的,他本来就是那样,所以面对道的存在特征,不能有为什么的追问,他是魂敦一体的存在,接上来,其上不角,其下不美,明明不可明,富贵于无物,是为无壮之壮,无物之相,是为忽惑,迎知不见其守,随知不见其后,从虚无性的角度来看,道优引不显,一点也不明了,从十分性的角度来看,道又是确证无疑的真实存在,一点也不婚案,道是分员不觉得无限存在,不能用语言,给他以限定性的名称,道虽然是真实存在,但中规不具有物质形态特征,说他是虚无,但似乎又有形状,刚才把它叫做没有形状的形状,没有物相的形象,或者叫做不可捉目的谎呼,道不像具体事物有钱有后,食语中,假如迎面看,看不到它的开始,跟随其后看不到它的结束,这段话,以后说道的虚无性,一会儿说道的实在性,其并非表示老子对道的存在将行将疑,而是一种审深的语言表达策略,道虽然是客观真实存在的,但毕竟难以感知观察无法验证,在这种情况下,用明确决断的言说方式,不仅有无段之前,而且恰恰会遮蔽道的虚空,和悬傲神秘的特点,超越时间的永恒,我们都在用肉身的思考去追求永恒的存在,在道的面前这种妄想不公自破,只有当我们真正做到完全脱离物质束缚时,才真正有资格摸到永恒的边缘,宇宙间只有道是不生不灭,无史无中的永恒存在,道德经第二是武章说,道是天地万物之母,所以在天地万物产生之前就存在,道德经第四章有说,假如有天地的话,道比天地更具有现在性,那么道德存在是否有一个更现在的原因呢?老子说,五不知谁知子,不知谁知子的自灭意思,是说我们不知道他是怎样产生的,实际意思等于否定了道之上,有一个派送的道更高的存在,道是自本自根,自足自因的,他是一切存在的总根源,是天地之使,没有一个更早的开始决定他的存在,道德经第六章,五神不死是为玄聘,玄聘之门是为天地根,绵绵若存,用之不情,股市以山谷和谷的虚空意象,比于道的空气虚无性,神比于道的神奇威力,神秘莫测,这个既空虚又神秘莫测的道是无史无中超越生死的,接着,老子又把道比为玄妙的辞性生之气,说天地万物都是从这个生之记中发出来的,他是天地万物的根源,道士连绵不觉得永恒存在,他创身万物的功用无情无敬,其中股神不死,绵绵若存就是说道的存在没有镜头没有终结,道德经第十四章说,道士迎之不见其守,随之不见其后,以及假如迎面看,看不到他的开始,跟随其后看不到他的结束,不见其守,比于道没有其使,不见其后,比于道没有终结,总之,由道创身天地万物都是特定时间的有限存在,我有道士超越时间的永恒存在,天地万物没有不生不死的,我有道士超越生死的,超越空间的存在,道不仅在时间上无史无中,而且在空间上无所不在,道德经第三十四章,大道繁夕,起刻左右,大道广泛流布,或上或下,或左或右,无所不在,真是说道不是具体的存在,而是一种无所不在的能量,装子曾以灰鞋风趣的一段对话,形象生动的皆是道在空间存在上的无线形,东国子听装子经常谈选论道,觉得神秘莫测就问装子,你所说的道在哪里,装子说无所不在,东国子觉得装子的回答大而不当,于是对装子的回答提出要求,必须要指出具体存在的地方,装子便说道在楼椅,在提败,在瓦屁,装子的以上回答其实是在起发,东国子思考一下问题,谁是楼椅据了不同于密封,唐朗等东武独特习近的生存特点呢?是什么原因是,提败成为提败,道古成为道古,卖子成为卖子呢?为什么瓦屁能牢过的,复在无顶而不移动呢?在这些事物和现象背后,必然有一种共同的力量或因素,在支配着他们,东国子无法理解,高身莫测道竟然如此悲响,于是沉默不语,线路沉思。东国子的困惑也是许多人的困惑,实际上,如果把道比左万有引力的话,它在空间上的无限性就容易理解了。万有引力本身就是道的自然能量和规律的一种表现,它不是特定空间的具体存在,而是辨布天地无所不在的能量,它像道一样无声无息,无形无向,但通过天地万物间普遍存在的引力现象,我们又确证无疑地感受到它的真实存在。自古以来,人们就将万有引力管放应用到生活十年中,但在牛顿的自然定律发表之前,有几个人会注意到万有引力的现象,并懂得其中的奥秘呢?创生万物的能量道一方面是虚物的存在,另一方面有其中有物,其中有象,其中有精。今世过程万物最精致的物质元素,它就是道运藏的创生万物的前代能量,这个前代能量是深不可测的,其功能发挥起来无穷无尽。为了皆是道具有无限的前代能量,老子除了把道比余为宇宙的生质器之外,它还用了一个通俗的比喻加以说明,道德经第五章,天地之间,其由陀月呼,续而不屈,动而遇出,天地难道不正向一个风箱吗?它内部中空但功能永不穷近,一旦股东起来,风力就会源源不断的输出。正因为道拥有无限的前代能量,它才能成为天地之使,万物之母,成为玄之又玄的重要之门。那么,为什么空气虚物的道却具有创生万物的无限功能呢?道德经第四十一章,大英西升大象无形,道影无名,符为道善代且成,是说道优引不现,无法用语言名撞,但正是这个道善于辅助万物,成就万物。下面我们捉种分析大英西升大象无形的内涵。大英西升大象无形的字面意思是最大最美的声音是无声的,最大最美的形象是无形的。这里的大英不是指音频最高最想念的某个具体声音,而是指包含了一切音响要死的声音,大象也不是指某一具体的形象,而是指包含了一切形体要死的形象,可见大英大象指的是总体,而不是指具体个别的存在对象。中国传统音乐理论认为完整的音乐在工商绝职与五个音节和五种调形过程,每个音节每个调形有不同的表演风格,但任何一首具体乐曲只能表现一种调形的风格特色,而老子所说的大英是同时包含了工商绝职与所有调形风格的那种音乐,谁能演奏出那的音乐呢,谁也演不出来,因为人一旦开口唱歌,一旦拿起乐器演奏,形成了只能是一首表现具体有限音乐风格的歌曲会乐曲,那么包含了万有大全大美的音乐在哪里呢,他存在于道中,大音大象都是道的比喻,道不是谋欲具体的声音,但这个世界上所有的声音现象都是从道中生发出来的,道不是谋欲具体的形象,但在这个世界上一切有型之物都是由道创生的,也就是说,道中愿含着一切声音潜能,一切形象要素,所以,与现象世界谋欲具体的声音,具体的形象比较,道才是真正的大音和大象,愈含着一切声音潜能的大音必然是无声无息,包吕一切形象要素的大象必然是没有形体特征的,因此,牺牲无形比喻道的空气需无形,而大音大象比喻道拥有无限潜在能量,和创生天地万物的无限可能性,正因为道是空气需无的,所以它什么也不是,正因为道什么也不是,所以它才具有创生天地万物的无限可能,与众唯一的绝对,要理解绝对性,最好先搞清楚什么是相对性,所谓相对性是这一个事物的存在,实时受它自身以外的其他事物会因素的影响,至于,以至于没有其他事物的影响,它就无法存在,就不会具有属性特征和功能,每个人的生死也不是自己能决定的,相对于父母的存在才有了是每个人的生命,受至于大自然的规律,每个人都要走向死亡,至于人的吃穿著行更是实施刻刻不能离开对他人社会自然的依赖,人与万物从生到死,有死而生始终是相对性的存在,相对性意味着自己不能为自己做主,即没有自主性,没有自主性就意味着没有自有性,所以从终极一上而言,相对性不自主,不自由是人与万物注定的宿命,那么什么东西不受自身以外的事物和因素的影响呢?它就是作为天地之使,万物之母的道,道的存在不依赖它自身以外的任何因素,它才具有各种能力和特性,道是自主自恰,自本自根的,它本身就是自己存在的唯一原因,这就是道的自因性,道的自因性说明道是绝对性的存在,道是最高的存在,是天地万物的总根据,它统设至于的天地万物,没有任何东西可以改变它。道德经第二是武章说,道法自然,其道的最高法则是自然,这里的自然不是我们现在说的自然界,而是用的自然一次的本意,自是自己事物自身的意思,然是这样的意思,自然就是自己如此,本来如此的意思。道法自然是说,道的法则就是自然,道不仅是万物存在的终极原因和根据,也是它自身存在的唯一原因和根据,它之所以具有这样性的特征和耐的功能作用,是自己如此,本来如此,而不是因为它自身以外有一个更高的存在对象,因此,老子自然的基本含义就是强调道的绝对性,除此以外,在道德经中,老子还从宇宙万物产生以前和宇宙万物产生之后的两个角度,产生了道的绝对性,在宇宙万物产生以前,道是这个世界上唯一存在,不会有任何其他因素,力量的存在而影响它,因此,道德绝对性表现为现在性为一性,道创生宇宙万物之后,道自身以外,虽然有分返复杂的云云万物,但道依然独立而不改,因为道不仅是宇宙万物的创生者,而且是宇宙万物的主宰者,天地万物都要无条件的负通道,效法道,而不会对道产生任何影响,更不可能驱遣意识道。道德经地三十二章,道长无名,福,虽小,天下木能臣,道优隐不现难以明撞,它是原始,致普的存在,道虽然优隐不现,苗小的让人感觉到他不存在,但天地万物却没有什么,能使他臣服,道德自因性决定了道德绝对性,道德绝对性决定了道德自主性,道德自主性决定了道德自由性,道德们说道实资本资根,自己如此存在状态时,就意味着说道是绝对的自主独立的存在。道家一派从装辞开始,将道德绝对性自主性自由性是为人生的最高境界。装辞一书开纵明义第一篇纪位消耀有,消耀有是一种人生态度,人生境界,独装人要效法道,就要摆脱明御力等现实的几半,实现像道一样的无千无话,无祖无外的高度独立自主的生活境界。在装辞的眼里,世俗质人失去了自己的本性,忘掉了自己的初心,实时受着自身以外的公民力路等身外之物脱类,处处受着他人社会的种种因素和势力的制约,委辈了大道招致的生存境界。人的理想生存境界就是道所招致的自主独立,自由的境界。要实现这样的理想生存境界,就得无功无名无己。超越一切人生社会等现实的束缚,率性而做,任性而由。作为一种人的精神层面的理想追求,装子的思想是极其深刻,能可贵的。但在此基础上,竟然逃避社会,隐居山林,一位名者保身,尤其忘掉作为社会一份子和家庭成员应有的社会担当和人生追求。这就走向了极端物入期徒了,这与老子主张到法自然的思想初中也是被当而迟的。在我们理解道的寒艺和特征以后,我们可以逐步发现道具为了成为宇宙本云的能力,但我们仍然需要统迫这层隔阔,老子把道作为宇宙本云的根据道理是什么呢?经过分析和篩选,我们可以龙统将其为规则为无点。道是天底之使,万物之物,万物之归宿,万物的最高法则,人类的道德行为准则,接下来主义享受。道是天底之使,老子认为,道之所以成为宇宙万物的本云,是因为他熊剧于天底之仙万物之上,道德经第二是五章,有物混成,先天地生,寄西了西,独立不改,周形而不代可以为天下母。老子说,有一个混然艺体的东西,在天底形成以前就存在了,他无声无息,空谎续舞,他不依然任何外在因素而独立存在,不抽任何外在影响,他寻谎往复的运行,而永无停息,他就是天地万物的本云,为了说明道是万物之上的宇宙本云,老子更是突破当时的思想极限。道德经第四章,五不知谁知子,向地知仙,老子说,我不清楚道是怎么产生的,大概在天地以前就存在了,凡是凡物有此必有富,有果必有因,五不知谁知子,并不是说道上面还有更高解的存在,而是说沿着试试万物存在的英国链一层一层的命流追溯,追溯到道这里时,就到了英国链的顶端,以上在乎更高的因缘存在,因此,他是天地万物存在的第一因,中极因。向地几天地的意思,中国老百姓后来俗成为老天爷。老子以假扇的语气说,假如真的有天地,那么道原在天地之前就存在了,老子虽然没有否定天地的存在,但明确已道代替了天地的本源位置,在老子看来,天地根本不是宇宙的本源,道才是宇宙的本源,万物的歧视,而这种思想,在当时已经突破了所有人的认知,甚至遭到极端的牌制,道德经第一章,无名天地之使,老子经常用史词称道,也都是为了强调道在天地之前,万物之上的先在性,不断佐证道是天地之使,道是万物之母,道作为宇宙万物的本源,它同时具有创生性,是天地万物生命的给予者,是万物存在的总根据,为了说明道的创生性,老子常用母笔于道,道德经第一章,无名天地之使,有名万物之母,无可用来表述天地混沌未开之际的状况,而有则是宇宙万物产生之本源的命名,道德经第二十章,我独义于人而跪使母,我之所以与众人不同,是因为我在权利以赴的探索万物的本源,与生命的真相,我是谁,我从哪里来,要到哪里去,在此基础上,老子竟然用母于子的关系,比于道于天地万的关系,道德经第五十二章,天下有史以为天下母,老子说天地万物是有本有史的,这个作为本史的东西就是天地万物之母,为了说明道具有创生万物的功能,老子还把道比于为于子的生之气,道德经第六章,五神不死是为玄品,玄品之门是为天地根,连连若存用之不情,这个激空虚又神秘莫特的道士无史无中超越生死的,他好像玄妙的辞性生之气,天地万物都是从这个神秘的生之气之门中发出来的,他是天地万物的总根源,道士连绵不断的永恒存在,他创生万物的功用无穷无尽,总之道士于周万有生命的给遇者,不仅是天地之使,而且是万物之母,道士万物之归宿,老子认为万物不仅生遇到,而且最重要富贵遇到,道德经第十六章,志虚极,守静独,万物并做无以关富,福物云云,各富归习根,老子说面对一彩分成的宇宙世界,让心灵保持虚荷静的志籍独定状态,我特别注意观察一个现象,富,富就是反富的意思,官富就是观察万物从无到有,最终又回归虚武的运动变化规律,道创生的云云重生万物,当走完各自的生命力成,最终都要回归到万物的本源,万物富贵于虚武的思想也表现在下面一段话中,道德经第二十五章,大约是,是约远,远约反,因为道运含着无限能量,具有生成天地万物的无限可能性,所以老子将道又成为大,道德能量大到极限,他就要是,是的,直接意思是离去,这里的事继续道德能量释放,又指道创生万物起万物脱离道德虚武性的过程,万物从虚武的道征产生后,见见脱离的道德虚武性,应有了最初的物质特征,这是大约式的含义,随着万物成长壮大不断发展,最终完全脱离了道德虚武性,而变成了纯粹的物质性存在,这时候万物的性质特征距离道德虚武性的本初状态,就更加遥远了,这是世约远的含义,但是道德物级必反规律的制约,任何事物不可能沿着一个方向永远直线发展下去,远到极限,就要返回他的元初时状态,所以说远约反,反到哪里呢,富归虚武,返回道德母体,道是万物的最高法则,道作为天地万物遵循的总法则,天地万物都应该效法道德规律,这是冠川道德经始终的基本思想,与此相关的言论在道德经中比比皆是,道德经第25张,人法地,地法天,天法道道法自然,老子说,人的存在要效法大地的运行法则,大地的运行要效法整个宇宙的法则,宇宙的运行要效法道德法则,而道德最高法则就是自然,总之,天地人与万物都要效法道德自然法则,道德经第14张,只古之道已遇经之有,能知古史是为道记,这是说,只守自古其经永康不变的道德规律,是为了价欲应对当今之万事万物,能动习宇宙万物产生的原始道理,并以此作为人与万物的行为准则,这就是天道的普遍规律,道德经第73张,天之道不争而善生,不言而善应,不赵而自来,产然而善谋,天往回復数而不失,天道的规律是不争而善于得盛,不发号失令而万物击击响应,不召唤而万物自动规顺,显示安然而善于仇策,道就像一张广大无边的法网,引然不显却没有一点漏事,道是人类的道德行为准则,老子总论天道是为了产民人道,作为宇宙法则的道落实到人间,就成为有天道而领悟到的人类,应该有的道德规范和行为准则,老子将天道引身到人间社会,告记领导治理下属因尊巡的理念和法则,以及一万人因而的厨师态度和原则,道德经第81张,天之道,立而不害,胜人之道,为而不争,这说天道的规律是有利于万物而无害于万物,胜人的行为法则应该失手而不争夺。道德经第37张,道常无为而无不为,喉王若能守之,万物将自话,这说,天道永远是顺人自然的,然而没有一件事不是他所为,因此喉王如果能迟首天道的法则,万物就会自生自涨。道德经第77张,天之道其由章公余,高者一知,下者举之,有欲者损之,不足者捕之。这说,天地自然的规律不正向拉功事件的道理嘛,显卫高了就把它压低一些,显卫低了就把它抬高一点。多余的就加以前少,不足的则给一补充。天地自然的规律,总是减少有余用来补充不足。老子认为人间社会也应该效法天地自然规律,均平复等跪践,实现大同的社会理想。然而,他看到社会的现实却不知这样,统治接近逆天伟地,疯狂搜刮名指名告,残酷播学贫困者本来很少的财富,而用来供奉富有的权贵。于是老子感开说,熟能有余一封天下,唯有道者。谁能够把多余的财富拿出来,就几天下贫困者,只有见行道的胜人才能做到。概括以上论述,我们可以总结出老子知道有三重基本含义,这就是宇宙本言知道,宇宙规律知道和人生社会知道。总之,老子思考宇宙本言的问题,其根本目里不知从认识论的角度,单纯探索宇宙的本真实相和宇宙万物得以生成的基础物质,而是从价值论的角度,尋求万物存在的理想境界,按所天地人的本真关系状态,从而为建立人类普遍的道德行为准则,人类社会的理想饭食,人类应追求的最高价值理想而提供中级的提论义,依税。这个中级根据就是道,道就是宇宙的本体,万物的主宰,一言一必知,道是天人合一的整体境界,这是老子宇宙哲学的重要特色,也是中国传统哲学不同于西方传统哲学的民族特色,是绝对的人文关怀,向制者老子之境。好了,今天关于道的分析就结束了,到也买下期见。中说,上古之人春秋皆度百岁而近中其天年,时至今日,物质生活如此丰富,我们法而受命缩短,这是为何。起看合爱的哲学家老子是如何讲解养生之道,解密上古常受之密。大家好,我是新人阿布主梅头娜的阿星,接下来我们来聊一聊养生。老子可能是一个统计学家,他对古往进来人们的生命状况做过一次意味生长的统计,道德经第五十章,生之图石有三,死之图石有三,人之生,动之于死地,亦石有三。福何故,以其生生之后。老子认为,天生常受的人在整个人类中大概占十分之三,天生短受的人在整个人类中也占十分之三。这两类人或常受或短受,仅仅是自然的常受和短受,与是否善于养生无关。还有一类人本来可以常受,但由于不懂养生之道而望做非为,导致遭遭走向死亡,这类人也占十分之三。这类人本来可以常受却过得死亡,原因合在的,因为他们过度后代自己的生命了。这句话是老子对世人无知的諷刺。以上三的人合起来占总人数的十分之九,还有十分之一,老子没有言己。这是只哪类人呢?不言而语,这十分之一的人才是真正懂得养生之道的制者。那么,在老子心目中,什么样的生命状态是最好的呢?道德经第十章,在营破报意,能无离忽,团气制柔,能如阴耳忽。人的生命活力表争就是形语神的和谐统一,一旦形语神分离,就意味着失去生命活力。人的生命力程中,阴耳阶段的生命最旺盛,因为阴耳的形语神实现了最高级的统一,出生的阴耳经古柔弱,全头缺握得很牢固,出生的阴耳整天好哭,但喉咪却不会杀呀。这些都是完全生命状态的巨想化,因此在老子眼中,阴耳的生命状态是最好的,因为阴耳阶段是整个生命力程中,形语神最为何些统一的阶段。而这不仅是老子的养生原则,也成为后来终于传统一学养生和治疗的基本原则,终于的四大治疗手段,编真纠要,都是通过降火去热,或出汗去失,以恢复身体各个技能和整体技能的阴阳平衡。在我们找到最佳生命状态之后,接下来我们需要思考如何随着年龄增长,人能保持阴耳般的形神状态。老子认为,保持阴耳般的状态是不可能的,但是我们可以不断接近,我可以保你长命,但不能保你百岁。关于养生知道,我们需要做到三点,养神,回归阴耳本能,更物人之本质是生命而不是物质。养能,珍惜生命能量,杜绝物质追求上无位的经历消耗。养行,保持自然需求,反对过渡的物质感官的外界刺激。接下来我们一探究竟,养神,不知道大家是否有注意过阴耳的自我保护意识,其实,阴耳阶段是人类生命中最吸命的阶段,阴耳会害怕任何对生命造成威胁的事情。而随着年龄的增长,我们却逐渐迷失在茫茫世界中,相比于生命,我们更追求金钱。而这种追求可能一直持续到死去,我们距离阴耳的状态也见行见远,毫无养生知道可言。老子基于对阴耳和对成人的观察,对我们提出了精神层面的两个中告,一是众内亲外,道德经第44张,名与深属亲,深与或数多,德语王属病,甚爱必大废,多藏必后王,故之足不辱,知之不代,可以长久。作为身在世俗红尘的普通人,我们早已迷失自我,很难分轻和为内外,再加之如今越来越多的快餐师大脑刺激,让我们无法抵御诱惑而一位追求物质享受,无结智的放众自己的欲望,忘掉了人的本质是真息和体验生命,所以老子才会访问,名声和生命相比哪样更亲近,生命和前才相比哪样更贵重,得到名力和喪失生命哪样为害更大,过分的令息,反而会付出更大的耗费,过多的残惑必定会遭制惨中的损失,所以知道满足就不会受到驱逐,知道世可而止就不会带来危险,这样才可以保持长久,知识是对人的行为的限制,其无论追求什么,要世可而止不可走极端,而知识关键在于知识组,极对遇望的理性控制,唯有知识才能知识,也就是真正懂得了珍惜的奥义,二是无声,道德经第13章,五所以有大患者,唯无有声,极无无声,无有何患,人生之所以遭遇各种祸患,都是由遇望之声而引起,如果能意志或彻底消除遇望之声,怎么会有兇险祸患呢?老子认为,内语外,误语声都是相对而言的,只要有声存在,外界就必然会对其发生作用,依然想要真正摆脱外部的脱蕾和亲害,最彻底的方法摸回于无声,也就是清楚砸念遇望,道德经第7章,天地所以能长期久者,以及不自生,不能长生,天地所以能长久存在,是因为他们不为了自己的生存而自然的运行者,所以能够长久生存,人生之所以有许多麻烦和祸患,既因为我们有生存压力,更因为我们有遇望之声,如果没有这个声,消除了内语外,误语声的对立,外误无所加烟,患又从何而来呢?这的确是一种最彻底的方法,然后老子所谓无声,并非不要身体和生命,它只是一种对待生命的独特态度,无声的态度反而会收到存身长生的效果,反而能很好地保全和护养生命,因而无声乃是存身,成其思的有效手段,这就是养生的变证法,也是无为而无不为的思想,在养生领域的运用,只有无为才是最高最好的为,接着老子说,听说善于养护生命的人,在陆地上行走不会遇到西牛和老虎,在战争中不会受到沙伤,西牛用不上他的脚,老虎用不上他的转,冰气用不上他的认,为什么呢?因为他从不忘作废为,不是自己至于危险的境地,这就是老子的养生知道,从因而中来到承认中去,我们逐步找回最原始的生而为人的本能,注重生命体验,忘掉物质追求,远离因为物质利益而让你自己生命至于危险的境地,养能,因而虽不能言语,也没法深度思考,但这种状态反而让他们节省最多的能量,老子的养生理论中还运含着结能养生的思想哲学,道德经地五十九章,致人是天末若色,福为色是为祖福,老子说,无论是致理人世还是养护身心,没有比爱惜经历更重要的,这段话中色,指的是爱惜经历,他包含了老子的结能养生知道,色的行为告诉我们,人的生命能量有一个横定的预值,而不是无限的,一个人到30岁就耗尽了全部的生命能量,意味着他只能活30岁,50岁耗尽全部的生命能量,意味着他只能活50岁,如果他在九十多岁时,人为耗尽生命能量,意味着他可能会活到100岁,生命就像一只蠟燭,然少得越快,熄灭的越早,所以人要学会珍惜积聚自己的生命能量,不要忘作非为无谓的耗费,这里引出老子的根深底雾,长生九世知道,他认为珍惜积的经历,才是真正的长生知道,这里的长生九世,很容易使人联想到后世,道教所精心地道的长生不老知道,其实这两者之间有着本质区别,道教所谓长生不老,是指肉体的永生或成仙,而老子的长生九世,不过是严严一受的意思,而绝无长生不老之意,老子关于长生的思想,可以从两个层面解读,从个体的石油生命而言,老子认为天下万物生于有,即作为个体的石油生命,都是由一年二七聚合而成,石油的生命按照自然的规律由弱道状,由状而衰直到消亡,可见,作为个体的石油生命是有限的存在,所以不可能长生不老,从不同的生命形式存在的关系而言,宇宙间的不同生命形式是一个不断轮回转化的无限过程,万物从续物中产生,变成石油的生命形式,石油的生命形式衰往后,富归道的母体,再次变为续物的宇宙能量,在道的作用下,续物的宇宙能量又演变成新的生命形式,如此巡换往复用不止吸。这个意义上的生命是永恒的,是长生不死的,但这是只宇宙生生不以创存的规律,而不只只同一个生命形式的长生不死,可见,将老子的长生久世之道,理解为长生不死之道,是对老子思想的歪曲,养行。因而提闹,他竟竟是因为恶了,所以吃饱了就会带着微笑寒睡,因而不太明白各种三天苦拉的自己,反而更喜欢无味的食物。在成练的世界中,我们会去追求各种每为刺激,但随着健康理念的深入,我们也会接受到各种养生理论,例如节食、节信语等等。因此形成两大阵营,一类是极度追求各类美食的,一类是极度追求修身养行的。老子则其中,他主张养行,但他又与现行的养生理念完全不同。他肯定人们对食物和幸运的自然需求,但否定了为了追求食色感官刺激而去食色的欲望。道德经地十二章,五色令人募忙,五音令人二龙,五味令人口爽,五色五音五味代表刺激人们身体欲望的各种物质幼火,爽是差失违背的意思,五味令人口爽,是说过渡追求各种美味的享受,就会使位觉受到损伤,不再有好的胃口。表面上看,老子似乎完全否定了人们对五色,五音五味等物质幼火的满足,其实非野。对人的自然性需求和物质幼火,老子的完整思想是,为父不为目,故去比去死。为父是指人们对生命的自然需求或生存必须的基本物质条件的满足,为目是这超越了生命或生存的自然需求,纯粹出于感官自己的和想乐的贪雨,例如,可而隐,既然时以及幸运的自然满足就是为父。而在满足了正常的时,色欲望的基础上,单纯为了时事的感官刺激,而无修指的追求时事就是为目。老子主张去比而去死,其他在充分肯定人们正常物质幼火的前提下,否定人们非分的物质贪雨。老子之所以否定人们非分的物质贪雨,是因为过渡的物质享受不但不利于强身健体,而且会抢害生命,道德经第五十五章,老子说,一生约强,也是这个意思。其过分增议身体享受,就会有灾阳。一生表面上是重生,其实也是亲生。总之,关于养行身体方面,老子的结论是,以为无为,事无事,为无为。为无为就是以清淡无为,为美食的意思。这里的美为,不只可口有为,而是指最利于养生的隐食或喷调方式。追求色香味的过渡喷调,激破坏了隐食过辉的营养成分,又刺激了人们抱怨抱怨的奢狱,使人们一望了吃饱渡的隐身目的,而一位放大欲望狂隐抱餐。二,服为无以身为者,是嫌疑贵生。意思是说,我用那些不追求身体想的的人,才剩过那些对身体疯养失质的人。这是老子的养行之道,我们逐步找回那种吃饱就能微笑入睡的状态,而不再去一位的追求更多的感官自己,让自己的身体始终处于低压状态。老子的无为思想,虚静论隐身到养生领域,都可以隐身出结能养生的客观意涵。这个意义上的无为就是否定和消除一切好费行体生命能量的旺作非为。这个意义上的虚静就是恶指一切好费精神生命能量的捨遇之心。道德经第46张,故之足不如,知止不代可以长久,所以说懂得满足就不会受到趋务,懂得试可而止就不会遇到危险,这样才能保持住长久的平安。故之足之足长足以,所以说知道什么地步就该满足的人,永远是满足的,也都可以在这个意义上来理解。汉代斯马弹,论六家药址该扩道家学说药址时说,道家使人精神专一,动何无形,善足万物。斯马强也说,凡人所生得神也,所托者行也,扶神大用则杰,行大老则必,行神骚动,遇天地长久,非所文艺。可为身得老子结能养生思想之指意,老子的智人是天末若色,运含的结能养生之道,虽然只是其养生理论的思想盟牙,但它是原子于对生命本质的深刻动见,到处了长生久吃的真地,因此被后世不断继承发养,形成了远远流长,伯大精神的虚敬养生论。不仅如此,老子关于生命的本质原理的深刻动见,以及他养生思想,都成为中国传统医学最早的思想资源。这些思想在后来的皇帝内金中得到进一步发言光大,成为中国传统文化的重要组成部分。好了,今天关于老子养生之道的内容就讲是完成,到人们下期见。那么,玄之又玄究竟是何意,我们该如何使用三大天道规律呢?接下来,进入正文,混顿之死。装子曾经虚过了一个精彩决论的混顿之死的运言故事,用女人化的比法把玄之又玄这个抽象深澳的道理讲得即形象生动,又风取幽默。南海之地为书,北海之地为呼,中央之地为混顿,书乎本意都是时间级位短暂的意思,这里比与现象世界中有限具体的书,也比于世苏之人,而混顿比与无限,永恒的道。书与乎时不时的相会于混顿的住所,混顿总是非常因情后代他俩。有一天,书与乎一起商量如何报答混顿的大恩大德,说,人人都有言而口鼻等齐敲,用来试听试细,唯独混顿没有,混顿太不幸了。他们适者为混顿遭害齐敲,让他也能享受到试听试细等不同感觉的美妙。于是,书与乎每天给混顿遭害一个恐敲,遭了七天,混顿终于开了齐敲,但混顿也因此死了。这个故事实在是太妄子了。书与乎作为现象世界具体有限的存在,他们已经习惯了一彩分成,品勒繁书,处处对待分裂的世界,认为这就是唯一真实的世界,而他们不懂这个现象世界的本质,恰恰是混顿一体毫无分别的。因此,看到混顿之地没有言而鼻口的分化,不懂视觉听觉秀觉位置的齐妙差异,以至对美与丑,名语案,相与臭,干与苦等等对待差别混然不知,于是自以为聪明的以现象世界的分别对待为犯事,重新塑造混顿的形象,结果不但混顿死了,更严重的是,他们把这个世界赖存在的本体,根基特理消解了。于是,这个现象世界便失去了存在的中级根据,变成了无缘之水,空中罗格,竟然使天地万物失去了生命的原动力,云云重生的发展也便失去了统一的法则和规律,此时,道友你可能会开始思考。故事中混顿之死只会让世界更加平衡,怎么会导致万物原动力消失呢?从表象上来看,我们肉眼可以看到的世界都是从无续变得有续,所以有续才是正道。而实际上,变成有续之前,就因为无续的存在才会有各种运动,各种平衡才能实现有续。同时,在社会的有续发展到极致的时候,自然然的就会开始无续,然后又开启新的运动。正如同三国引一开篇,分久避合,何久避分一个道理。万物原动力就是混顿和无续,如果混顿以死,那么世界将不复存在,这就是道。那么,何味道的混顿性呢?道德经第一章,此两者同处而一名,故未之旋,旋之又旋,重妙之门。此两者是指道,即使无又是有,全职的意思是无于有这两者,来源相同而名称相义,都可以称之为旋妙和身远,但它不是一般的旋妙和身远,而是旋妙又旋妙,身远又身远。是宇宙天地万物之旋妙的总门,以常人的经验,由</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>道德经意公子</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-12-20 20:03:37</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>我們講妝子、老子、到家的核心思想就是無為而且我發現這幾年來越來越多的西方人也開始講無為無為真的是一個大職會那到底什麼叫無為呢?關於無為我們在路妝子的時候其實也講過兩期但我認為他還值得我們再延展一下妝子達成裡面講過一個游泳的故事我認為他是對於無為非常好的詮釋他虛擬了孔子的故事說孔子在旅良觀光看見一個鋪布2、30張高有種飛流之下3000尺的感覺鋪布衝刷而起的水花4件奔騰一流就是40里連圓駝、魚鞭這些極耐水的生物都不敢在這代游泳可見水流是很突然急的水深危險、切物靠近但孔子遠暈的就看見有一個壯年男子在水裡孔子就以為他要尋死就趕緊派他的弟子順著水流下去找他就沒想到這個男子就在水裡前遊了幾百步的距離然後幽災、幽災的唱著歌就從水裡出來了孔子以為他是鬼然後就追上去發現原來是個人於是孔子就耐心地跟他請教說你有那麼厲害 有沒有什麼門道然後這位大哥就說其實沒有什麼我就是做了一件事叫順勢而為他說我跟著炫窩一塊兒塵到了水底又跟著向上的泳流一起浮出水面我順著水勢而不做任何對抗這就是我的辦法我們可能或多或少都看過一些逆水如何自救的視頻答案大多都是一樣的都是讓我們說首先不要慌放鬆全身然後慢慢的身體就會自動飄浮上來這時候你要把頭抬起來浮出水面如果此時此刻我們是越緊張、越對抗有可能就沉得越快你看在生活裡面當我們遇到那些讓我們痛苦、忙然及手焦慮的問題的時候好像道理也都是一樣的首先就是不要慌、放鬆而放鬆的目的是什麼呢是為了消解那種對抗感一個是跟世界的對抗當我們從身體到精神都是高度緊繃的狀態的時候我們跟這個世界就是硬碰是一關心要麼你,要麼我你但不管誰贏都是殺敵一千自損八百放鬆另外一個更重要的目的是消解和自己的對抗其實我們很多時候活得太久解就80%的能量都是自己再跟自己對抗一個聲音告訴我們說很拿起吧另外一個聲音說放下吧就腦海裡面好像一直有兩個小人在打架、在互相爭奪這種主導權別看外界好像什麼事情都沒有發生但是事實上在我們的頭腦裡面已經經歷了一場血與興風的大戰這就很像是手機電量一樣80%在自己的腦子裡消耗掉那我們就只剩下20%去應付這個時間所以什麼是無為呢無為更多指的是我們內心的狀態就是不內耗說得容易啊就不內耗自己該有多難啊不內耗就是你讓那兩個小人停一些下來放手允許一切的發聲我這樣講好像覺得是一件很容易的事情但是你要讓我們對自己放手對頭腦放手、對命運放手彈劾容易就這種鬆弛感它不是平空就能夠產生的就它不是因為知道了這麼一個道理我們就一定會產生鬆弛感其實很多時候鬆弛感的發聲是因為經歷過七慘的絕望還記得那句話嗎知不可奈何而安知若命當我們面對一個人或者一件事情前走後走左走右走都走不出困境我們掉進了那種無解、無望然後無可奈何的無助感理的時候只有當面對那個最七慘的絕望我們才會告訴自己說要不然算了吧我真的就是很多時候遇到這個事情走到死不通裡我就會反問自己於話我說沒有它你會死嗎你想想不會啊那不就得了嘛你知道那一刻你突然間一下就放下了期待放下期待其實也就是放下直念你知道那一刻我們產生了一種什麼樣的力量嗎叫無欲則剛你不怕失去了你不一定非得要了即便要不到他也摧毀不了你了就那一刻我們內心的那種力量感就真正產生了到得經理說聖人無為、顧、無敗、無止、顧、無失說到這裡我們可能會有疑問說那你講的無為是不是就是什麼都不做然後甘做在那裡等待命運安排的結果不是的無為說的是心態有為說的是做法無為心有違法我們還是回到裝備的這個故事裡啊難道這位大哥什麼都沒做嗎有的他所有的經歷都是用來觀察和感受水流然後在進入炫窩的時候跟他同屏就像逆水自救的時候我們其實也不是什麼都不做而是要深吸潛呼這樣使得我們廢部有多餘的機器從而讓身體更容易的漂浮起來所以不要慌、放鬆消解對水的恐懼和對抗這是無為心觀察和感受水流調整呼吸和姿勢這是有違法最後還有非常重要的四個字叫等待時機有的時候不是因為這個事情一定辦不成而是因為時機不對如果你不著急於這一時如果你相信生命本體的智慧那麼在生命這場馬拉松林你就一定能夠笑到最後所以無為真的是大智慧無為心就是把我們的生命能量從那些糾結和直念當中收回來就不再對抗自己也不再對抗世界只有不內耗自己我們才能夠一百分之百的狀態去面對世界以無為心形有違法而此時的有為才是電量滿格的有為</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/output/transcripts.xlsx
+++ b/output/transcripts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,126 +446,64 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>转录内容</t>
+          <t>原始转录</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>优化转录</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>内容总结</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3_公式二：那要不这样吧</t>
+          <t>《道德经实修营》第七章</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-12-19 22:03:35</t>
+          <t>2025-01-02 23:28:34</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>你需要干的事情是这样的想好让步交换的方案不要现场想管领导要30万你心里就得想好让步交换的方案20万也能干对吧实在不行现在要不让你想不让你想不让你想不让你想不让你想不让你想不让你实在不行先不让10万我都能把它轮起来而且10万我是打算1234这么花肯定靠谱不要现场想提前准备好第二点坚持自己的请求是让步的前提而不是一开始进入对方的节奏这句话是经济来你们公平上超一遍我怕你们忘坚持自己的请求是让步的前提注意不是给原因是让步的前提是坚持自己的请求是让步的前提你必须把它弹死了才有可能弹火而不是一开始就进入对方的节奏这句话敲一下坚持自己的请求是让步的前提而不是一开始就进入对方的节奏OK直播中是一种态度态度是需要反差的直播中我让步了我表现出我的态度什么态度解决问题的态度对吧领导我不是在这来给你搞AI的故意难为你的我是真想把这事办成我们真的需要30万我们了你20分钟对吧像老和尚念经你也烦了我也不好意思了耽误您这么久的时间那要不您看这样吧先给我们播10万块钱的启动司机是吧领导我要找两个人光光光磨了20分钟领导要不这样吧这事我们在弄把力但是你能不能多给我一个名了我就要一个名了这真是真的很关键这个人我打算这么用是吧面对问题始终不带情绪记住你是AI你有什么情绪对吧然后在公式二当中可以适当的回答对方的提问回答不是目的是表现态度不要掉进它的逻辑和节奏对吧你一个人你打算怎么用啊你注意他这么一问就代表他松口了好那我可以回答回答可能我们需要一个市场调言现在我们手上这么多人就这么几个兵没人有空但市场调言这事太重要了现在市场数据非常多得专人来处理这个事那你觉得谁合适啊你说这个谁合适我心里没有想法咱这个人得到啊不要进到他的逻辑退回来然后回答问题之后继续重复让步后的请求注意啊我回答问题不是接连回答回答一个意思意思得了是吧就得了好抓住这个思路第一个公司是为了把他压死第二个公司是为了把他救活他快崩了你就说那要不就这样了那同样投诉是吧在饭馆吃饭你就把这个菜给我退了他不行我们这个已经下国了把这个给我退了他不行我们已经下国了这个要把你领导找来我们领导现在特别忙你把你领导找来特别忙你把领导找来这事你不用你解决我跟你领导说把领导找来好那把领导找来我说要退钱这个菜抹掉这是真不行他退钱真不行我们这材料费也挺贵的我们要退钱这个我们都吃完了他还没上来不行我们真退不了这个你给我们退钱真的不行门上了半个钟左右你别让他走是吧然后最后你去那要不这样那个什么给我们点带进去我们下一次来吃我们能用是吧送送送送送三瓶饮料行那个菜我们布木了我们打包但是你这个挑个猪上最便宜的菜给我们免得行不行那要不就这样吧给个画头看他来走是吧好所以呢你会发现叫我可以这样这样但我需要你这样这样我可以怎么怎么样但我需要你怎么样注意啊你前面这个同事又来找你了and帮我干啊哪有道德绑架有各种各样的说辞是吧领导的上方保健都搬出来了你前面硬扛着你这就是你的工作这就是你的工作这就是你的工作这就是你的工作这就是你的工作是吧完全坦死了你说那要不这样吧我可以帮你今天干这个火但是我需要你怎么怎么样是吧开始跟他做让步的交换了ok下面一个压领导这三十万是吧打打打打打到最后的时候你说领导要不就这样吧我给你们心里的一个家围十万块钱来你们不跟你一下开始我们先来第一个同事让你帮他把这个活的锅给杯了你前面说这是你的工作但这是你的工作但这是你的工作是吧你现在要说那要不这样吧我可以帮你怎么怎么样但是我需要你怎么怎么样来那要不这样吧部分我可以来承担但我需要这个方案需要的做可以这个C也得不好需要你做什么你把它补充出来是吧否则你光用这个画树不行火锋放用下一次下一次他忘了怎么办最好一把一清是吧弄到下回他不记仗了你拿他没照又不是法律但是我需要你把我完成123你这123补充全这是个很重要的策略思考不要去你用那个模板你也用用个画树模板黄Q的可以但我需要你在领导那包包把手上的工作提交推荐几天很好很好没问题五小的也没问题Mr.菜也可以没问题CC特别好我可以帮你做一部分但技术我也需要一部分很好没问题试生之后讲经分我一半和可以没问题需要启动预算你得帮我乔调编股这个不好说娜娜的没问题爱把这个说得很好但负责任还是你这个规定得特别好就是谁负责对吧你别到最后我帮忙我这干的有些问题你把锅又甩我身上我可以帮你但我这上工作需要你帮我这个就是太空了具体一点是吧这部分我可以帮你但阅读总结需要提交我们的付出很好没问题好那我们来练第二个你需要领导给30万的预算咱们来开始好都没问题来我来半领导给你们再出个难题你说十万我针给不了五万行不行朋友五万行不行五万我能帮你协调协调理解您的难速当五万针做不了还是要十万要把十万说出来不要进到他的节奏你不要说五万不行最低十万要说出来要说出来理导我理解您的难速但您这五万给跟没给没什么区别十万是最低的了的确需要十万我说你别这么猛我了你再这么猛我我也变不出来十万我就五万你爱要不要你其实说注意很多朋友让不让的太快了说这五万行但有另外一个事我需要你帮别这样你要死十万就是十万你不扛他二十分钟你推到五万怎么办记住我们付一下盘刚才大家聊第二个这个当中的时候注意领导说五万行不行你要明白理解但我需要十万你不要说十五万不行对吧你还是要回到第1个公司大家发现没有第1个公司是核心第2公司是他的外围你要在第1公司和第2公司当中反复的调整对吧某一模一模他那边不行了你说那要不这样吧是吧给他一个替换方案他肯定不会就犯如果遇到很人他还会技术给你模的他还能模下来吗对吧他能继续模那怎么办再回到第1公司守住自己的房线好我们再模拟模拟啊那你给我说说你这十万块钱你干啥用为啥一定要十万就不行我想听听你的十万怎么用你说考验你这个部分了啊CC回答的不好你不要跟他解释五万为什么不行注意不解释不给原因就强调我要什么用这个死路来那我没看出来这个十万和五万有什么区别啊我觉得这个时候五万也能干呀很好象征性的回答回答就行表现一个态度对吧我十万是打算这么花但是我没看出来五万十万有什么区别啊真的需要十万不用给原因一直顶住就行好我现在问你们个问题啊这两个公司看完你发现应对沟通情绪的法门是什么你觉得是话数对吧我们的确给了你两个话数在这个话数背后是啥其实是意志力是对抗情绪的意志力你没有没有发现这样一个特别有意思的情况就是麻省专挑戏处断适着总是软的被捏带有朋友说我这么跟领导说话明天我就被开了那我告诉你你现在离被开也不远了只是说你现在在逃好性的活在你的公司是不是你的领导早就想动手了平常的硬底子功夫你得有对吧与此同时你在表达的时候要达到他的最高效能拼的就是意志力把情绪拿掉你看你们刚才在不断重复这个第一公司和第二公司的时候你没有情绪吗你们一点情绪都没有对吧而且我告诉大家我们现在交的是职场刚才我说了投诉能不能这么用完全可以你处理亲密关系的时候你能不能这么用我告诉你照样好用沟通的策略或者说我们表达的策略就是一开始的时候这个内核用六个公式把我们的内核打造的无比强大防守做的低水不漏讲话的时候思好不带情绪我就是要把这个事给办了然后咱们就拼看谁一直力强大谁们没有情绪大不了到最后两个人都AI是吧那就是遇到高手了但只要有人是脆弱的你一直力强你就赢得了沟通OK所以在这个问题上就是我们讲的怎么样去打造表达内核的部分好再来让步方案思考的违度这个刚才让大家去想了很多的让步方案第一数字上可以加解对吧原来我要30万现在我要10万数字上可以加解时间上可以加解你比如说刚才有朋友在说这个活我可以帮你干但是我的工作的时间你要帮我跟领导去学调往后排OK对吧时间上可以加解然后你自己要在想想我还需要什么比如说资源人计我需要什么对吧领导这个我是10万块钱要不这样10万块钱能干但我额外还需要这些东西你别上去就说领导我那这样10万也能干你就把你的谈判空间一下子被没了你应该说我需要的10万加一二三四这事10万也能把它动起来对吧那领导跟你PK的时候它说不行只有5万那你说我要靠我还没加后面的一二三四对吧我让出来那二十万是得到了这个一二三四上就你不给钱也行你再给我陪两人对吧你再把这个项目这个周期给我再调的时间长一点你给我协调两个客户过来是吧我们跟它跑一跑是吧我让它二十万是要换成一二三四的我不能说不我就直接被你压到了10万那领导上来就说那再来5万是吧你能不能给我5万也能赶明白你压到10万加一二三四领导跟你巴尔定的时候你的空间才阻它也就不会上来冲上来说10万不行5万你说那这后面一二三四是二十万剪下来的这10万是不能动的动了以后那后面一二三四也没法用对吧我就得要10万加一二三四这个策略所以我还需要什么然后本质上要做一个始终有目标感的人你注意第一公式和第二公式就在训练你的目标感在目标上从来不妥协我就要这个我就要这个我就要这个不打目标我就是个AI我不知道大家有没有发现在用电脑的时候或者你们打那种RPG游戏就是古早的什么设定英雄转什么什么什么先见旗下转这种游戏的时候因为它那个程序写得很傻如果你不去按照它的目标去输入正确的指令它就一直在那循环对吧到最后谁妥协了人妥协了为什么因为AI没有情绪对吧一定要有个目标感的人否则交换维度很难拿出一个相样的方案注意很多人说我在交换维度我得有创造力别你需要的是目标感你要有意志力拼到最后就是意志力给你们讲的故事阿里在阿里巴巴假如说一个团队里或者一个邪统团队里面两个人的意见一直不能达成意志阿里采用的方法叫绝斗他们的绝斗的方法非常有意思不是说两个人把枪拿刀不是这两人关到办公室里就开始聊进去了就是一个标准今天只能有一个统一的共识出来如果没有咱俩就在这儿耗着吃饭睡觉吃喝拉扎咱就在这儿看谁盯不住你能为你自己的目标你能为你自己的方案下多少注最后一定有一个人体力拜下来说不行我玩不动了按你个来所以意志力特别关键那天我还在说小船我们要招一个视频研计跟我们人力配合配合的不好拉过来这两个人人力不归我过来我也不能骂只能骂教船了骂教船给人力看赶紧把人给我招来其实说白了就是他们做事的目标感不够我们招了一个候选人我们聊得觉得还可以但那候选人不来他们就把这个结果反给我了我作为老板我能接受吗我没有想法我要的是结果而不是一个不成的结果所以我告诉你我说你这样你就做到人力边上下老师就要这个人15天之后到港你就在旁边盯着盯住他看看能不能来你甚至就是你觉得人力不靠谱你来干干完了以后我们就把这人力给炒了就是这样所以目标感意志力是非常关键的好 高接板叫你们个方法叫一开始就造一个让别人一开始就拒绝的目标什么意思呢乳讯先生有一句名言一屋子人你想开个窗大家都不同意但你要是说一开始说我把房顶先了别人也就同意你开窗了这就是沟通当中的强势沟通强势表达我不知道今天将来上听这个课有没有收获你跟人力下指标的时候你就不应该下一个港你就告诉我要找两个半个月之内给我拿来我盯着你你放心一个肯定到备然后另外一个咱不着了对吧所以要学会这样的一个策略特别重要要开一个窗大家都不同意你就说我把房顶先了大家就同意开窗了所以回到人的基本心理你会发现三种情绪是沟通当中的大纪有了情绪你的表达你的沟通一定不会好一定会进到别人的节奏里或者先用自己的情绪内号我们要干的一件事情是打造一个非常强大的沟通内合表达内合第一公式你说的我听到了我要这个我要这个我要这个我要这个我要这个你崩了我说好那要不就这样吧我给你个替换房案对吧就会发现上再拉去我后来告诉你我要这个我要这个我要这个看谁拼他下来是吧学会让人保持距离所以我们要学会建立信任什么意思呢大家经常说这样的不是一种算机吗算机来算机去的吗你注意不是是把距离保持住大家有没有发现在沟通在表达在做各种各样的沟通鞋伤的时候最难的是是道德人情善恶这些东西进来了这些东西进来了就是我们经常会说的一个词就被道德绑架了而且他们怎么样不可恋话你看刚才有朋友在讲说行这次我帮你下次你帮我完了这是靠道德越速的他下次不帮你呢你能怎么办譴责他吗没有用他不可恋话为什么我们说一把一清最好就就这件事我们达成一个交换而不是说今天我帮你明天你帮我他不一定帮所以一定要学会保持距离大家都是过来要去解决问题的我们保持人与人的边界感这点很关键但反过来恰好是有这样的距离我们学会的信任什么意思呢我现在问大家一个问题真小人偽君子你更愿意跟谁交朋友或者跟谁一起做事你愿意跟偽君子做事妈妈的坑你都不知道是怎么罚的你都不知道是怎么被他填进去的你还自己给自己埋土呢对吧我们喜欢跟真人做事哪怕他是真小人因为他的行为可预测而说我靠他对小账算得可限可明白了天天跟你算小账我们无非要考虑的是我跟他做的时候他算小账的时候对我有什么损失注意不是对我的情绪有什么变化而对我实在会造成什么损失如果我可预测那我就可以选择跟他做或跟他不做我选择跟他做一定是我思考过的我在这个过程当中是立大于毕的这种所谓的信任实际是一种契约对吧怕的是什么怕的是偽君子跟你讲道德讲人情讲善恶很多账就算不明白了因此在表达沟通当中不要受到情绪和不可量化的还有一些其他因素的干扰和影响否则你肯定会重新陷入到情绪当中好给大家一整继续跟这个正面很相关的一句话每一个人每一件事每一个当下都是我们重新开始的机会你不要去想过去了对吧不要活在过去的心里状态从今天开始练习六个公式这六个公式的前两个公式是我们表达沟通的核心技能是我要什么如果你不满足那要不就这样就这两句话你说的我知道了我要这个我要这个你不同意好那要不让我们这样就这两个操作一个是表达我的需求对方一定也会有需求过来然后我们要干的一件事情我退一步然后我们看看能不能交换不要再去各夺的这个情绪内好在里面就好了</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4_公式三：语气词+重复性疑问+鼓励谈更多信息</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2024-12-19 22:05:52</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>我們看公事三啊前兩個公司我覺得大家應該是沒問題了是吧公事三啊與氣此加重複性疑問加鼓勵談更多信息前兩個是防守動作第三個公司是手中代工我們要做疑問我們通過提問從他身上要拿信息主要反過來別人向我們提問你注意我們其實在提供信息不是說不能提供以後會教大家怎麼提供信息但是從本質上我們在表達在談判在溝通當中怎麼站取主動一定是因為我們的信息量大我們的話語權才大首先你可以表達對別人感興趣我去提問這件事情就是一種興趣它也是構建信任的前提而往往我們是通過對於無用信息的提問來獲取別人興趣的前提不一定是為了問有用信息有的時候是問無用的信息提問不是為了獲取信息而是鼓勵對方說下去因為說下去會有更多信息避免什麼避免指問一次你要這個問題能往下走剛才我們教了你一個防守策略就是別人問一個我李茂興的回答一個但是別人再問有可能我叫回到公事一我們防守動作這隻手學會我們的進攻動作技術我問了很多的信息有可能提的問題我的第一個問題切進去的時候不一定是有用的問題可能是無用的比如說我們反過來你的下屬找你要30萬這個啟動預算你想法說我們肯定不能給你對吧還是領導30萬然後開始進入AI了然後你心裡想說我靠有點東西上過課這個時候你該怎麼破局你不要去問他說你為什麼要這30萬啊或者怎麼樣拉開一個圍度問他哎小張最近工作怎麼樣是不是壓力比較大呀貿易是一個無用的問題但其實是不救他的問題來進行提問因為我要不斷地去提問鼓勵他說下去從而我能獲得更多的信息然後你要採用的方法有的時候是不要直接給回應別人問你個問題跟你聊一個東西說了一個陳數據不要直接回應用問題代替回應而且往往人在潛意識裡是相互模仿的你問了個問題他就跟你討論30萬你說你最近工作是不是怎麼樣啊是不壓力挺大的呀他馬上就會往這個方向偏移了但是他受過訓練他給我可能他那個一二個工事用得很好他可能又拉回去了但是沒有經過訓練的他很有可能被你拉到另外一個場域了他會模仿你然後有的時候語氣詞很重要語氣詞不是太多語氣詞就是語氣詞他體現出了某種認可比如說是呀對呀明白理解對可不是嗎我明白你的意思所以解析一下這個公式就是不管別人說什麼對呀明白理解是呀可不是嗎就他一個無關緊要的地方發出一個問題然後發出額外的問題鼓勵他談更多的信息是吧來我們來操作一下假如說你的同事跟你抱怨這個例像真的很凡人套公式是嗎你具體說說砸回事而且以後我們會告訴大家這個叫感受試提問是為問細節試試你具體說砸回事是吧小張這個會報很急啊你晚上加班弄一下這麼火急火療啊到底什麼事這麼急啊重複性疑問對吧明天我們要去團見你想想我們做一個什麼事什麼事什麼事你想想我們做表演跟啥節目我錢又表演節目去哪團見啊注意這些問題看似都不是直指內合的也沒有直接把你的態度亮出來你的目的是為了幹嘛獲得更多的信息從而代節奏注意啊我們有手轉工了啊是為了代節奏好所以你會發現在辦公室裡很多時候有各種各樣的所謂的鹹彈鹹彈不是鹹彈今天你聽完這個課你就明白了鹹彈不是鹹彈你看一看啊女生為什麼總愛說你的這個東西特別好哪裡買的你看是不是我們講的與其詞假問題目的是為了更多信息本質上幹嘛在購物件信任是吧難是為什麼總愛說哎我昨天跟誰誰誰又喝大了中年同時為什麽愛談孩子領導為什麽總要問最近怎麽樣啊其實這些本質上都是以疑問去購物件信任的過程來我們來練習一下一個人今天跟你說同時說這個你小領導或者你同時跟你說下週集團張總來我們公司第一個場地你想一想剛才怎麽套用的公司與其詞一問鼓勵回答更多的信息是吧第二個問題第二個練習人力越底需要我們去教一個沒頭沒腦沒腦的表格是做一下吧與其詞鼓勵更多提問鼓勵更多的信息下午線上會議你把手上的項目進度做個會報吧與其詞提問鼓勵更多的信息你重要這裏根本沒有任何的情緒不信你去帶入一下你自己現在工作單位你最煩的那個人跟你說這句話你有沒有情緒你肯定有對吧但我們現在就要用這個公司把這個情緒打掉獲取更多的信息帶節奏購物件信任來咱們一起來練習一下第一個下週集團張總來我們公司各位開始張總要來周寄來很好張總要來有什麼重要的事嗎張總要來來做什麼張總來啥具體的事真的呀張總好很久不來這次來幹什麼張總要來前兩天不是來過嗎可可這個非常好這是一個很重要的策略張總可能前兩天根本沒來過但可可這個策略是很厲害的叫什麼呢叫故意說錯故故故故意說錯故意說錯正常人在沒有經過訓練的表達的時候他會對你進行糾錯他糾錯的時候他自然就會給更多信息那你回應的時候啊我錯了就行了張總要來張總昨天兩天前再來嗎怎麼又來了馬上有個事是不是誰說張總張總三個月都沒來了我跟你說怎麼兩天來他好久都沒來了上次來對什麼事他還是很有意見的你看這非常好一個策略啊再來一個人歷月底需要我們去提交一個眉頭眉腦的表格誰做一下來你們來練與契詞加重複性疑問又要交表格具體什麼類型好很好這樣啊要做什麼表格所以這裡面他在說話的時候是有情緒到眉頭眉腦的表格事實上人歷部沒有啥活動這個很好很好都很好好再來下面一個下午線上會議你把手裡項目的進度做一個會總吧來你們都不錯第二個一看就是人歷在很多公司都不討巧是吧你們這個問題問的也是很有實戰感是吧子蘇這麼著急你沒提問你們試著把這個問題再往更遠的地方了不要救這個問題而問這個問題有的時候你把問題這也是策略你撚得越遠越不相關別人越要把這件事拉回來相關所以他就會給更多的信息你們看你們還在問的是會議的內容能不能再把它再甩的再遠一點還是有項目你能不能不救這個地方再提拉的一個遠一點的問題還在問參加會議的兩線領導再來公司有變動還是不夠遠還是在會上你們能不能不要把這個我給你們提一個方向下午要做個會總是在騰訊會議上嗎還是在飛書是哪個會議室把它拉得更遠一些就是你把問題拋得越遠越離主題就不要會總不要考慮在項目進度會總這三個詞上有可能他的效率會更高你們看還能不能不要討論這三個然後注意很多的語氣詞你們也放非自我了語氣詞很重要但語氣詞不是太多為什麼不是現下會議很好現上會議需要露臉嗎很好我們今天中午吃茶可以讓人跟我會保精神很好我需要回需要多少時間還行是三方會議嗎很好我能不參加嗎你們怎麼做人開始往外撞好這連續到這兒好顯彈是有目的的是為了獲取信任但是注意過度的顯彈是浪費時間然後你不喜歡的人你是很難影響他的同時大概率他也不會喜歡你因此你要幹的一件事情就是要明白我們就是逢場做戲他是一套戲就是看誰演得更深入你不要把這個喜怒哀樂討厭誰不討厭誰通通的擺在臉上是吧沒必要然後改變自己的社交能力需要你去面對很多過去的錯誤和接納未來的各種可能性什麼意思呢之前他對你犯過的錯誤不代表未來沒有各種各樣的可能性所以你很多的問題在遇到這些話的時候怎麼樣能夠無情緒我給你們說幾個代節奏拿信息這是最關鍵的OK然後如果你更厲害呢就是什麼就是建信任這是第三個特別重要的公司他是往外公了要學會怎麼樣的把這個一個別人說的一個陳述句你一個問題打回來要打破這樣的心理官走吧</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>5_公式四：额外信息+问题</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2024-12-19 22:07:19</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>好公寺公寺公寺有的时候别人也会问你问题那你在回答别人问题的时候给出要故意给出额外信息吃了吗?吃了?没有额外信息吃了吗?吃了?我吃了就吃了我吃了就吃了没有额外信息吃了吗?吃了?我吃着炸酱面给出额外信息然后以问题结束你吃了没?你吃了啥我们来看错误的例子错误的例子是你住在附近吗?我不住在附近,不是它就变成了一个对话中结者这是很难拿到信息的也很难去够见信任的我们要学会做一件事情是给出额外信息然后以问题结束不要怕未出额外信息有什么太大的问题因为你用额外信息是1比1的换了它另外的信息至少是个1比1的过程但是更为攻击重要的是信任拿成了再加上我们前面有学过提问策略一般来说你可能会拿到更多的信息就会带更好的节奏来开个脑洞为什么很多美女一直会遇到渣难我不知道你们有没有跟美女聊过微信尤其是平常比较高冷的美女他们都有一个特点是你说的一个问题他往往只会达最少信息而这个过程其实是什么无社交锻炼无沟通锻炼因为他没有这样的锻炼所以他在10人判断人上面他特别入很有可能就遇到了一个特别不要脸的渣难跳开了他的话然后从而引起了他非常廉价的信任你必须是要在交换信息的过程当中你才能真正的学会不断的判断人判断他们的需求啊判断他们的想法判断他们的方法秘密所以公式四要教你的另外一套进攻的方法是当别人给你提问的时候你回答的信息要多一点与此同时以问题结束我多那么一点实际的目的是干嘛为了去跟你做交换的我额外给你了一个然后我再加个问题你今天中午吃了吗吃了你呢太傻了吃了对话怎么进行没有了今天中午你吃了吗我吃了我吃了炸酱面你吃了啥我也吃了炸酱面哪家啊我也吃了炸酱面别说有点闲咱吃它们这面有点闲可不是吗你看每个人都是多给一点信息增加一个问题这个对话就特别容易滚动起来这是非常重要的对话公路封闭自己等于封闭了自己了解人性的机会封闭越大被骗成本越高表达的底层是自信自信的本质是不怕错然后你要学会设计交换逻辑给额外的信息我是为了去交换而不是一位的担心被骗被拿捏要有这样的信息你信息你在拿信息交换信息的时候你才真正地带了节奏和主动权来我们看额外信息加问题正确的例子你住在附近吗不是我住在中官村你呢明天有空一起去看电影吗明天不行改天我有想看的我请客你看都是给出额外信息再加一个问题很多时候它的对话就能滚动起来是吧练习方法在微信上不做对话中解者记住这个方法用海浩摩师去练自己深度参与对话的能力就是多去聊然后有的时候在一些场景里主动表录自己的缺点以成换成同样过自己的心理观然后你要相信对方未必信所以你就主动地可以去讲一讲你自己的缺点把这些练习方法都给过掉这是第四个公式我们来看四个公式之间的关系第一号的公式构建了你的内合我要什么我的目标感我的意志力第二公式解决的是交换问题那要不这样的这属于什么这属于防守那公式什么呢我们讲了两块第一个第三公式我怎么拿别人的一个成数据最后反回去是个疑问据采用的方法是与其词疑问鼓励你说更多的信息第四个公式是别人如果发问了一个问题我在回答之后给出了外讯息但是我一定要一个问题解决你的公手就减倍了而这种公手减倍可以放在哪儿呢刚才在手上面我们说我要这个我要这个我要这个我要这个那不如这个那要不这么办吧在这个过程当中你是可以进行穿插的如果对方问了你问题你可以回答问题给出了外信息但是你要反问一个问题养成这个习惯那我们来模拟一下领导我要30万啟动这个项目要说现在公司没钱不行领导没30万我们干不了要说你为什么想要这个30万呢领导狄狄是我们就是没30万干不了这个事我知道你为什么想要30万呢说这30万我们也做了一些预估吧这个就是30万很关键您想想这个能不能批评了我们需要我们把这个发展做的做的这个详细一些我们会再转头回去我们就开始弄了听到说你为什么需要30万是吧你说那是这样原因一一一二原因一三然后马上反问一下领导您觉得不给30万您的顾虑是什么注意啊刚才我的方法是第一公司联合第四公司的使用我的手的同时我可以公出去对吧你问我为什么要30万我给了一二三个原因但我不会说完就拉倒我一定要回去一下事那您的顾虑是什么我得让你说那现在这公司不这个手头紧好我还可以利用三来作为工我说你的确那公司现在听手听紧的主要紧在哪些方面对吧还是一个问题公出去所以你就会发现如果你的公手能做得好了以后你自己去有刻意的练习过了以后你会发现你跟别人的对话叫问得多达得少以达换问以达为何什么意思就是我真正内和的那个需求我永远不变我可以把你磨得很难受了之后我让个步我拿个替换方案咱们再来讨论但是在整个过程的来回的拉扯的当中我一定是问得多达得少我即便达了我一定要甩一个问题过去从你那再换到信息但不管怎么样的变化我始终不变的是我的那个需求我会放在这里我很少会现场跟你达成一个我都没有想好的需求但是我可以抱有一个开放信息我回去想完我再来找你了这种沟通要掌握它的方式因为用这样的方式可以干嘛最低限度的把情绪放到最低点它不仅是谈判沟通也是序服也是我们后面讲的所有的表达的化育权的场景都是适用的因为我们要购件化育权的能力之前我们先要把情绪消掉因为很多时候我们被情绪拉这种你就所有的动作不会往这个化育权上去购件了好</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>6_公式五：说的对，我的确经常xxxxx</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2024-12-19 22:09:24</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>公司5公司5它是除了公手之外的应该来讲叫合成性打击它有点突净的意思前面都是手我要这些我要这些你不答应我你就不跟你都聊了我慢慢向了AI式的不断的忽悠不断的转游这边是一个一个一个一个一个一个这边是我要问你问题我要问你问题我要问你问题拿出信息我来做分析公司5和公司6要解决的问题是我们解决问题我们解决问题别的别聊公司5叫你说得对我的确经常怎么样它也是小姐情绪的这是往往在面对批评的时候你要注意的对方器厂特别强大上来就是各种压制性的打击那么你要学会面对它不被情绪所干扰怎么办呢你要拆解批评的命题无非是两句话第一句话是你干了什么什么事这是不对的这是事这是观点我们在用公司5去应对的时候是什么呢事上我承认观点我不达理我通过这个事来跟你购件共识但是我不去争论观点对错我在干嘛我在消解对抗消解对抗本质上是消解我自己的焦虑就是我能不能做到不达理它对我观点的人质因为只有在不焦虑的情况下我们才能去干嘛探究问题本质我们才能用前面的公式三和公式四去做探讯性提问说得对消解对方的情绪但你并没有肯定对方批评的对肯定事实而非肯定对方的观点相反你以后给自己也找了一个充分的且无敌的逻辑起点让对方的进一步的批评无法展开从而专注在解决问题的方案之上举个例子你认真差距总是迟到公式五的回答是说得对我的确经常迟到但我没达理的是什么我这个人挺差距没达理你这个人就是真的做事太难不认真了什么事每次交过来我都给你查屁股的确经常给您贴麻烦但我不承认我差距我不达理这就是公式五说得对我的确经常怎么怎么样这样的一套方法来我们练习你总是迟到这是一种没有责任感的表现错误应对是你为什么是我没责任我想听听为什么弱了你这里又情绪了你说我我真的想知道为什么呀我没有情绪啊对不起对方有情绪了欣赏说我还要给你解释吗你都这样了不要问为什么参考应对对我的确经常迟到你这种态度我很难把后续的重任委托你可以考虑找下一份工作了错误应对我什么态度啊对啊参考应对是我的态度的确没能让你满意我只承认我的态度没让你满意但我不承认什么你下面的重任不能交给我我需要去找下一份工作了没有我只承认事实我要消解情绪好了这种练习经常在哪种现象当中出现的最多呢一是批评领导对你的批评领导对你的副排有的时候炸了这是一种场景二投诉很多时候做客户投诉的这个处理的人员做得非常不好因为他会给你讲他们为什么怎么做他们的苦中在哪他们没办法你投诉过你就知道你根本听不进去他越解释你越闹心是吧但是会处理投诉的人是肯定客观事实对吧比如说举个例子假如我要投诉你假如你是这个比如说酒店的这个打唐心里我要投诉你们这客房太不正洁了你们怎么对待客人呢你们对客人就没有七马的这种服务意识那你应该是什么你说得对我们这客房的确没有整理干净但你不能说的什么下来是你别生气我们对服务员新来的他们对整个的这个保节的意识还是不行您这个大地方北京来的您见多时管我们这小地方实在抱歉没必要而且我可能会说我好在小地方怎么了你是收的价格你这价格也摆在这儿了对吧不解释不要去跟观点有任何的冲撞肯定什么肯定他的事实抱歉一下我们的确这房间收拾了没达到您的满意让您失望了的确我们这个房间未生保节还是有问题我们反思ok对吧您说得对承认事实这件事就可以了来试一试你总是识到这是一种没有责任性的表现对的确我经常识到那你还有理了公司没有规章制度了吗公司是你家开的吗来你们怎么回应开始完了刚才那一段没路我信来 你们来小伤后台路了吗后台没路这一段我还得重新讲以后对对 公司有制度不好抱歉我迟到这事让您生气了很好后台有的啊好的您说得对我迟到的确不对曾广圣说得不好注意你们为什么说得不好呢这些东西你要不要理会啊要不要理会啊不要理会啊我错了下次我注意迟到的确不对很好抱歉我之前迟到了以后注意不再犯错很好您说得对有的确迟到抱歉让您不满意了让您让很好很好不要拉到它的节奏里不管你认不认证不管怎么怎么样不要进入别人的节奏别人有情绪我一定要退出来所以回答应该是什么是的我的确经常吃到然后进入AI模式是不是第一公司就出来了直到什么它提出它的诉求为止什么诉求它有解决什么问题啊对吧我跟你伴嘴在这干嘛呢我自己做内号干什么呢我就认错就行了是吧你还有我理了公司有没有规章制度公司是你家开的吗是的我的确迟到很抱歉下次的我证据不知道你让它站这喷你不要理它不要进入这个对吧是的您批评对很抱歉是的我的确经常迟到对我就肯定这个事实就行了我的确经常迟到我没说我有理我不应该遵守公司的规章制度我没说公司是我家开的对吧我坚决不进入你的解冻但我自己的解冻我要有是的我经常的确迟到是吧我们的目的是干嘛让它提出它的诉求它不提出诉求它讲的所有的东西意义都不大对吧那我们门里一下连到最后崩了你这样明天就给我刺指你说抱歉我真的不应该知道明天就给我刺指它也AI了它很明确地表达了它的诉求是明天就要刺指你应该怎么办那是不是就是就问题来解决问题了对吧连到这个你看我还是很喜欢这家公司我希望能继续在这继续工作我保证以后经过所能尽可能不吃了遵守公司的规章制度这是一种解决就是我拿决心我还想留在这看第二种情况OK行那抱歉这次让您失望了我们按照公司的人力的流程我们就该解决就解决这也没问题因为什么问题明确了不要在情绪里跟别人私策在问题上去解决问题好我们再来你这种态度我很难把互续的重认委托尼你可以考虑找下一份的工作了是我的态度的确没让您没满意那你去找下一份工作是我的态度让您不信任我了那你还不出去你该怎么回答来那你还不出去你该怎么回答是的您批评得对很抱歉可以还可以怎么回答好的我的妈已经要练好这个公式您先喝喝水抱歉领导我回去反省一下实在抱歉了对不起天马鹤的对不起领导让您失望了我以后注意态度您说的对我以后不知道了抱歉的的确做得多好也不用那么抱歉你就直接讲还是AI嘛是我态度的确让你没满意是吧拿这个来就行了进入AI模式直到它提出它的诉求让你接受或者你主导一个让步见公式这个地方我能不能主导一个让步可以的那你还不出去你这就写领导你确让您升起来要不您看这么办行不行是吧我提个方案是吧也可以进入公式所以你会发现公式五的最关键的一件事情是让大家干嘛聚焦在问题上它是一个双方的这个你你主导带节奏的让大家回到问题上第一个公式第二个公式是让你始终聚焦在问题上第三个公式第四个公式是让你去收集足够多的信息和跟别人建立很好的信任公式五是对方有的情绪但我不能有情绪我得把它拉在处理问题上这五个公式分别的作用很清晰了到底什么是事实这个是我们一直在很多课当中都会反复讨论的我带大家过一下就行了什么是事实无非是你看到的一个角度吧如果你的唯独高于他人事实与否并不重要他说我怎么怎么样了是不是事实我不要跟他掰扯我就这事实你说的是事实事实事实我同意但我不同意你的观点但我可以認同你的事实情绪对抗是表达的大敌表达是为了解决问题而不是为了争论对错注意这件事很重要如果对方在跟你争论是非对错你一定要把它拉回来要去解决问题对吧那他如果不提出这个解决问题的方案怎么办我就AI嘛或者我来提一个方案就我要没有公司一要没有公司二都可以但是我不会跟你去争论表达的目的是为了共建共识而不是扩大分歧对方认为事实的部分是最简单购注共识的基石啥意思如果他的事实你都不同意那就没有聊得比较了但他如果说的是一个事实你觉得我同意他无伤大呀那你就先同意他的事实然后本身上就是搞他的心态你让他的心态拿捏住你不要有任何的情绪的起伏到最后你通过让步很容易就聚焦问题了对吧这是点心我们在使用第二公司的时候会有的效果</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>7_公式六：除了xxxx，还有什么问题么</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2024-12-19 22:10:38</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>好 公司六效果是一样的叫除了什么什么还有什么问题这是什么 这叫翻评二除了什么什么还有什么问题这实际是在挖掘底层需求的最佳模式就我的时候我都想要想要让你自己想要让你自己从小就在这种手的最佳模式就我的时候别人在说你别人在用情绪来释放来打压你来来来各种各样的裙绪问题的时候其实你要挖到他的底层需求表达不是讲你想讲的话而是根� Kinda对方已有的心制模式需求来影响他这个非常重要这是对于话语权的不是说你要把你想讲的话讲出去他有的时候不听的你看我没有的第一公事是我直接我想讲的话但我不说服你你爱听不听你不听你到最后这谈话就谈死了但是你还想留在这儿证明什么证明你觉得你还能给我谈好 我用第二公事我来做一个让步对吧第三第四公事是我不断的去发觉信息跟你购奸信任寻找公事第五公事是什么我跟你同意的是事实我不同意的是你的观点然后我套用第一第二公事来回的使用最终让大家找到一个解决问题的方案那么第六个公事就是什么就是表他什么对方其实未必同意你你是要找到他真正的心智某事他的需求是影响他你要能抓住他最底层的东西比如说刚才这个领导就是那你还不出去这事实我觉得太多的确让你生气除了我的太多问题你觉得我还有什么问题下载吧一次他又是提问又是翻篇对吧没想到说除了太多问题我就告诉你你这个人就是不尊重人好了 拔打一下懂了什么太多不太多对吧太多就不清洗无非就是我没有尊重你呗那我下回就尊重你呗不就行了吗我尊重你了后面不就好办了吗就是这套死路所以在这一点上是吧就是要学会除了什么什么还有什么问题吗因为这种表达呢我们看似是我们知道我们在用的这个话术的模式是翻篇但对方听上来是啥是前面这个问题我那么认了对吧我让不过了但其实我们让了吗我们并没有让我们叫歌诀我们要把你心里更深层次的问题对吧找到那个歌来去解决好推进问题的解决歌制争议共同探讯面对新问题是大家的起跑线是一样的技术前面他骂了你那么一堆或者说的那么一堆或者怎么着大家争制了那么一堆你说除了什么什么还有什么问题吗这时候大家起跑线一样话语全又一样了对吧用问题掌握对话的主动并且不堂土来 练习你这个腹盘做的太不用信了基本数据都弄错了错误应对是数据我都查了一遍肯定是财国那边给错了他说数据基本数据错不错不重要对吧参考应对好的除了数据的问题我还需要注意什么其他方面吗歌制对吧当然我可以用第五个如果我这个数据我的确觉得即使上面有些问题你说对您说的对这数据不太对但我不说我腹盘不太用心我认同你的事实但我不一定认同你的观点挫了几次下来你说ok除了这个数据问题我还有什么其他方面我还做得不太好的还需要额外注意的这个东西领导说了就是按这个办你非要自作主张错误应对者领导就没说要怎么办明明说要这么办错误应对参考应对是明白除了我没领会领导的要求以外我还有啥书楼需要去赶紧捕的吗都是在这儿除了还有除了还有这边翻片不跟你聊这儿是吧下面还有什么你把我从问题列一遍我回去好了整体打包来想想这些事到底该怎么做并且把你最底层的需求拿出来好挑战一下你这个副盘做的实在太不用心了基本数据都弄错那么好的除了数据问题我还需要注意什么方面吗基本数据你都弄错还能指望你干什么来你们来应对我们是不是可以用第五公尸产来做来回应了对吧抱歉我这数据做错了我不去领会他说还能指望做什么是吧您批评的是我数据都弄错了对这一次我疑病都弄好我除了数据以外还需要有什么其他问题吗你可以用这个公式这个应该公式五也或者是用公式六两类回答都可以您批评的是我的数据都弄错了看他怎么说对吧对你说的对这次我疑病都弄好您觉得我除了数据以外还有什么其他问题吗进一步的法决公式六AI 下终步</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>道德经1</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2024-12-20 20:02:26</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>本视频号是229天,总计两小时33分,基于道德经原文,从八个核心天道规律深入分析,用现代人的思维理解仙者的思想平用于事件,道德经到底全在哪里?他又如何助理人生逆转,我是梅头那的阿星,接下来让我们开启内心之旅探索之路。1.反者道知动篇虽然这些道现代都会被生物学、物理学等学术专业知识一一解释,但基本不会有人将其归纳总结成万五归律,也只有老子这位独立地球之外的觉醒NPC会这么做。因此,所谓的命运和具备的归律,掌握归律主动引导事务的运动变化,积极改善掌握自己的命运。老子认为,万五虽表象不同,但却具有共同的运动变化归律,而这个归律的重头就是反者道知动。这趋徐五个字也成为道德经论的核心内容,而通过多方学习,阿普找到认为相当精彩的理论解释与兴共伤。同时结合本人个人潜包的经历,对反者道知动进行时间的补充。地球理论于时间相结合,继续大家一起完成内心之旅。您的支持是我最大的动力,下期我也会继续推出弱者道知用篇。反者道知动最核心的是反字。反意味着反向对抗,同时协因反,因此又有反回之一。具体来说,反包含了事无运动变化的三条基本规律。阴阳护转,物极必反,循环往复。接下来将对这三条规律进行一一解释。首先,阴阳护转,阴总是向阳的一级变化发展,反之依然,阴阳各自向对方的一级变化发展。老子也针对这条规律力举许多实力,把所谓的阴阳具体化,取责权,网泽指,刮责营,取责权是指残缺不存的事物,总是向完整状态发展。树木再被砍掉制调的地方总会长出新的制雅,就像人的伤口总是屈向预合。网泽指是指完全的东西总是向端子的方向发展,人越是用流氛去谈谎,他就越有一种向端子生涨开的力量,挖责营,是指地势低挖就会变得充营,水往低处流,越是低挖的地方,越容易具体更多的水。虽然这些到现代都会被生物学、物理学等学术专业之使一一解释,但基本不会有人将其归纳总结成万五规律,也只有老子这位独立地球之外的觉醒NPC会这么做。总之,当事务处于某一基定状态时,他总是自我否定,沿着以自己相反的一级发展,这是事物运动变化的普遍法则,无论于事与无于人,盖墨能外,第二条规律,误极必反,无论事物内部阴向阳运动变化,还是阳向运动变化,都不会沿着直线一直发展下去。这种发展到一定程度,又会调转头来访回自己原来的状态,这就是事物的矛盾转化。最为经典的是老子的服货领域,货息,服质所以,服息,货之所服,是服是货都要看命运耻伦的转动情况,仅近此具,很容易误认为老子也是苏明论者,命运主在一切。但这段文字还有下半句是,熟知其急,其无正,正复为其,善复为妖。谁知道货发展到极线就会转化为服,服发展到极线就会转化为货的道理。这个理论一出,服货矛盾双方的转化就有了条件,这个条件就是急。因此所谓的命运也举本了规律,掌握规律主动引导事物的运动变化,积极改善掌握自己的命运。关于人生,我们可以说,不信者别以为自己永远不幸,得知者也必以为幸福于自己永远相伴。人生遭遇措者不幸,但他也可以激发人们重新崛起的意志。方法使错者转化为新生的契机。人人都渴望生活在安逸的顺庆中,但长期的安逸生活也可能成为小姐人们一直的麻醉藥,甚至成为遭遇各种不幸的火根,第三条规律,巡换网负。事物的运动变化不是运转到一个周期,或者轮回一次之后就停止发展,事物为了的阴阳两极,游阴到阳,游阳到阴,再游阴到阳。这是一个巡换网负永无止息的运动变化过程。老子说,面对网务分成进行争艳的宇宙世界,他特别注意观察的一个现象,富,富就是反富的意思。自然界一切向的运动都表现为周形的特点,例如,苍海变桑田,桑田变苍海,三十年合动,三十年合西,四季轮回,周夜交替等等。人的生存生活也无不如此。人一生的所有活动都可以用做和吸两个自难过。人一生就是做而吸,吸而做的巡换运动。人每天每周每年的工作如此,整个人生一副如此。正所谓人生带带无穷意,将远年年只相似。而站在NPC的角度,老子更是看到万物从无道有,最终又回归虚无的运动变化回律。运言重生,当走往各自的生命力程,最终都要回归到万物的本源,然后重新开始。万物经过一世的遮层回到本源,就是富贵为虚无虚敬的存在状态。富贵为虚无虚敬的存在状态,同时也成为万物重新开始的歧视状态。因此,万物不碗如何发展变化,最终都要回归自己的本性,这是永恒不变的规律。认识这个规律,就会忽然开了,反之,则会预遇划还。在道几期万物的阴阳互转,物击必反,巡荒往福三大规律的共同之约作用下,宇宙世界形成一个更高的法则,这就是宇宙平衡法则。任何事物既不会一位区象,注留在阴级,也不能一位区象注留在阳级,而始终在阴阳两极之间徘徊,竟然互相抗衡,制约和互相接纳包容。最终实现了宇宙世界,极其万物的阴阳和谐,稳定有序的存在状态。这个法则的最高表现形态,就是浩汉无音的宇宙太空中无数心体一去周形的轨迹,而表现出的稳乱而不乱,反中有简单的仅然秩序。我们在理解三条规律以后,如果今天是,哦,我知道了,学习了这种心态,想必会让老子这位 NPC 失望,因为反者到之动,运藏着诸多更加深入的厨师哲学,典型的有反向思维,无为成就大为,以退为尽等等。接下来详细解读,厨师哲学一就是反向思维,面对任何事,任何问题都要反着想,反着说,反着做,简研之就是要学会反向思维,反向形势。到得及三十六张绝立一,将与废之,必顾取之,这段文字十分中性,需要按照受重来理解,如果受重是你的敌对,就可以理解为捧杀。你如果想废掉一个人,最好的方法就是向他捧到高位,然后再稍微拆下台,就会让此人跌落至粉身碎骨。人性无法经受住考验,任何吹捧都会导致人的捧杖。所以,知道现代,大家都仍在使用这种废人的方法,却不知老子,倒在几千年前,究竟十分明确。如果受重是自己,这句话就变成了,将与强之,必顾弱之,可以理解为破福臣州。人生到达古底之时,如果真的想彻底翻身,那就先把自己所有认知中的后路全部堵死。当我们毫无估计时,反者到之动,会让你彻底崛起。而崛起的真正原因正是你的决心。这种子端后路的方法,相遇是实践者,也是我们可以模仿和学习。到得经三十六张举例二,将与取之,必顾与之。用现代的话来讲,就是御情孤众,也是反者到之动的经典案例。追求成绩更进一步的同学,都会喜欢分享自己的解体思路。表面上是无常帮助其他人,实际上是不断维护大脑神经的突出生长。追求利益最大化的商人,都会在无形中让你觉得占了便宜,表面上是不断给予,实际上是更加兇残的绝取。人要生存,不仅需要从自然他人社会那里获取来生存的物质资料,还需要得到他人在情感,精神上的关心,尊敬和社会的认可。那么人怎样才能更好的获得自己生活所需要的一切呢?许多人在获取的过程中,不懂取和语,即使对立又是一存的关系,只是一味的直接锁取,而忘记了,给予是锁取的基础与全体。结果,虽然日夜矛算,但是往往不能达到真正货取的目的,或者虽然暂时信货的那些利益,但难以长久,甚至最终一无所有。所以,不管有多少追求,不管想货取什么,最有效的途径只有一个,先给予后货取,护止生活资料的货取如此,精神生活资料的货取也是如此,处事哲学二,就是无为而成之大为。道德经七张中指力,天地所以能长且久者,以其不自生,故能长生。天地之所以长久,是因为他的存在就是给予人类空间,但基本不会达扰人类的生存,但天地确实人类的绝对领导,我们到现在都无法讨多天地的控制。我们总会无意将忘掉这位领导,所以他可以长久存在。世人诸多理解错误老死官有无为的含义,他并不是教世人躺平,可以想象,那时候的世人如果躺平恐怕是要饿死,至少他们还需要干农火维持温宝的吧,如果你将反者道正的核心思想,来品为无为,才会知道,老死是在教育那些又纯又坏的诸候领导呢。教育他们无为吧,别争有的没的,他们无为了,就会给大家造就最有为的环境。这里反映了老子,一推违进的思想特点,也担有私心,表象让诸候领导无为,但实际上为天下更加太平,以无为来达到大为的目的,换取百姓安尼。用现在的话,来理解领导的环例就是无为而至。在现在某种环例体系下,上下班打卡,写周报开立会等等环例措施,表面上领导环例有方,使则是在不断人为控制并额下原功的积极性,结果是人赴于是人员自为。而在另一种环例体系下,领导表面上消失,给原功足够的自由空间,表面上人人蓝散无纪无数,使则是给予大家足够的空间完成真正的工作,结果是真正的上,领导也在无卫中实现自己最终的目的,而用现在的话,来理解刺身的管理,就是拿得起放了下。情绪管理一直都是用文化体,而老子也在无心中提出了自己的观点,人就是情绪本身,是所以为人,便是因为情绪的存在,但情绪仅仅是本末的点罪,却因本末的胡知,导致情绪成为本末的主导,我会义语,我会崩溃,这都是情绪占据身体的距向体现,而情绪最害怕的就是本末的无为,如果你能拿得起放了下,无为而为,情绪是无法控制你的,你能够做到收放自如,情绪反而成为你左绑右臂,助力美好人生的建立,这种无为,也造就了本末的大为,厨师哲学三就是一退为尽,道德经41张绝立,明道若美,尽道若腿,明道若美,光明的道路看起来却宽暗不明,无论是高考还是考研考宫,对于普通人来说都算得上人生道路上的光明之图,但在寻找光明之图的过程中,我们都会长进在黑夜中摸索前行的痛苦,经历冷摸着石头过河的危险,没有在黑暗中痛苦摸索的经历,就不可能找到光明之图,所以光明之图看起来却是宽暗不明的,尽道若腿,前进的道路有时却像在道腿,平坦的大道却向高低不平,股票在翻背的道路中都是回弹无数次的结果,只想进生的道路中都是在无数坑中摔出来的经验和机会,好事成绩的提升都是在无数刷提中激赞的思路和记忆,人生没有一路向前的坦图,前进的道路上难免有看看科科,需要随时停顿下来清除路障,而且有时主动后退,愈回而行反而更有利于前进,这两句话也全面体现了老子反者道之众的哲学思想,其一,民与妹进一退,即使对立的又是统一的,唯有相反才能相成。其二,事务的因与阳两极总是不断运动变化的,运动变化的规律就是各自向对方的方向发展,而任何一起运动发展到极致,又会转向元初的性质状态,因此寻找光明的图中可能遇到黑暗,而黑暗道极致,又会流暗花明又一村。追求永往之前必然会于遭遇坎坷,而经历一切坎坷之后,最终达到前进的目的。其三,很显然,在明道与妹,近道与退的关系中,老子追求的是明道,近道。那么什么才是真正的明道,近道呢?老子认为,事务最理想的存在,既不是孤音,也不是独养的单几状态,而是音中有阳,阳中有音的和谐统一体。所以,真正理想的明道,近道,必须善于接纳异己,要由于自身对立的妹,退等性质的弥补抗衡。这样,明道近道就不再是与妹、退,对待的单几性质的分败了,而分别成为包含了对立性质的阴阳和体,即实现了合的存在状态。好了,本期关于老子反着到之动的哲学思想就讲完了,下期将继续弱者道之用片。2.弱者道之用片老子所说的刚强则是音摔而阳胜的不和谐状态,甚至是完全失去音的性质,或是能抗衡纯阳的单几存在状态。音摔阳胜意味着音语阳相互感应,激盪于抗衡的生命机制储向稳乱,生命的原动力不足,因此,刚强是音阳适衡的体现,是生命里苦解的象征。在竞争内险的国家,历来都会注重专制和压迫的社会管理方式,从上强和炫耀的行事作风,信奉弱弱强制的身份策略。在这样的历史背景和残酷的现实条件下,随波主流成为多数人校访的普世处事哲学,而坚定不已的奉行柔弱行事原则的人却聊聊无级。道德经中核心内容,反着道德动的下文是弱者道之用,它指的是道即其万物的功能作用的发挥,是通过其柔弱的外线提醒而实现的。阿普常试直接分析原剧,担心涉及太多的哲学名字道之难以理解。很幸运的是,道德经中还有两个与弱者道之用相关的思想,柔弱胜刚强和有之以为力,无之以为用,他们共同从侧面结束了弱者道之用的内合,接下来我将卓中分析这两个思想。您的支持是我对大的动力,下期我将啟动不一样的阳明兴血探索之路。首先,柔弱胜刚强。老子泡豬这样的思想,出看是与尝试相为备的,不太像普世法则。因为千百年来的经验尝试告诉人们,无论自然界还是人类社会,无论个体与个体的背扛还是群体与群体的教量,现实力量强大的一方,总是居于竞争的优势地位,而现实力量弱小的一方,总是处于竞争的劣势。人们之所以会对关度制战这种以弱胜强的案例精进乐道,就是因为这种案例太少见了。那为什么柔弱可以战胜刚强,又如何运用到真实的生活中呢?接下来一一接小。以弱胜强其一的理论一句,就是反者到之动中的阴阳对立发展相互转化。老子认为,事务在不断发展变化,刚强与柔弱伤疯的竞争关系并非永远是强者站去闪疯,而弱小者居于劣势,到底谁有谁劣,要具体分析。用现在的话讲就是用发展的眼光看问题。从事务存在的共识性或既定状态而言,力量弱小的一方显然是无法与力量强大的一方抗衡的。关度之战,无论从兵力还是世纪方面,曹操显然是无法战胜元少的。在这种情况下,不是柔弱胜刚强,而恰恰是刚强胜柔弱。但是如果从历史性或事务运动变化的趋势而言,刚强能否战胜柔弱就不具有必然性了,而柔弱胜刚强反而具有了必然性。这种必然性也是由反者导致动中的物级必反的规律决定的。柔弱以刚强代表了事务存在状态的两级,按照物级必反的规律,不仅柔弱发展到极致会转向刚强,刚强发展到极致也会转向柔弱。从事务运动变化的趋势而言,元少正因为实力太强,优势太明显,反而会有细小的疏忽和漏洞。所以,曹操可以抓住夹风中的机会,从局部关键的胜利不断扩展,从而逐步使正争局势完全逆转。以弱胜强还有一个更核心的理论依据,即老子对柔弱于刚强废的特殊内涵。世俗所谓的刚强和柔弱,着眼于失务外在形体和力量的强大于否。而老子则着眼于失务内在生命力的强弱。老子认为外在形体力量上的强壮恰恰是内在生命力日期衰竭的表争。而外在形体和力量上的弱小恰恰是内在生命活力、强和旺盛的体现。用现在的话讲,就是外强中肝、外柔内肝。外在用眼看,靠的是感受非常主观,而内在得是需要在时间中检验更加客观。道德经33章,胜人者有力,自胜者强。能够战胜别的人,只能算是力量强大,能够战成自己的人才是真正的强者。老子说胜人者就是世俗所谓的刚强者,他们的外在形体和力量都很强大。老子说自胜者就是内心刚强者,他们的内在充实且生命力强。老子认为我们面临最大的敌人,不是他人而是自己。能够战胜自己的人才是一个真正的强者。柔弱胜刚强并不是说柔弱的一方在外在形体力量方面能够战胜刚强者。而是说柔弱的一方具有更强和更持久的生命力。那么柔弱为什么是生命力强和持久的表现呢?因为道德经中的柔弱并不是世俗所谓的外在弱小,而是本身包含了英语洋两种性质的阴洋和些统一体。而英语洋的互相感应,激盪和抗衡,正是生命的激力和原动力所在。因此,柔弱是生命本质的体现,是生命活力的象征。柔弱胜刚强的是阴衰儿洋胜的不合谐状态,甚至是完全失去阴的性质,或是能抗衡成洋的单级存在状态。阴衰洋胜意味着阴语洋相互感应,激盪与抗衡的生命机制出现稳乱,生命的原动力不足。因此,刚强是阴洋适恒的体现,是生命力库解的象征。这才是柔弱胜刚强的核心寒翼。老子也为大家贡献足够多的实力,道德经76张,人之生也柔弱,其思也坚强,草木之生也柔脆,其思也哭搞。人活着的时候,肌体是柔弱的,人思以后肌体变得僵硬。草木活着的时候,支条柔软,草木一旦死亡支条变成哭搞。所以肩强的东西总是与死亡围办,柔弱的东西总是与生命同类。道德经78张,天下末柔弱于水,而攻肩强者末之能胜,以其无一一直。事实上没有比水更柔弱的,而攻克肩强的东西没有什么能够胜过它。为什么刘子心的三体会有水滴的形象,不认为获得或少都说到了道德经的影响。可见,劳子主张弱者道志动,提出柔弱胜刚强,实至是对弯强和旺盛的生命力的可求。然而柔弱胜刚强的厨师哲学容易理解,但真正要在生活工作中做到确实极其难的。劳子也进一步分析了如何才可以应用柔弱胜刚强的厨师知道。道德经73张,永于赶则杀,永于不赶则活。永于承强都气的人就会招致死亡,永于不承强都气而认输的人就可以保存生命。永于承强很好理解,但永于不承强,会被很多人理解成松胞、胆小之类。在这里其实有两层含义,其一,永于不敢的永于是懂得擅长或惊通的意思。这个意义上的永于不敢是说,坚守柔弱者懂得天道法则,身安柔弱胜刚强的哲理。因此他们不认为身体强壮或外在势力的强大是真正的强大。他们追求的是自我与万物的和谐统一,因为他们坚信对立两级的互相抗衡,相互弥补,才能相得一张,才是生命里玩强和持久的象征,才是真正的坚强。所以最终反而可以超越,并且占身外强中干屎的坚强者。其二,永于不敢的永于又有感于有勇气的意思。这个意义上的永于不敢是说,奉行柔弱的厨师态度并不是一件容易的事,需要其他的勇气和高差的智慧。在竞争内卷的国家,立来都会注重专制和压迫的社会管理方式,从上强和宣要的行师作风,信奉弱弱强制的生存策略。在这样的历史背景和残酷的现实条件下,随波主流成为多数人校访的普世厨师哲学。而坚定不宜的奉行柔弱形式原则的人却聊聊无己。要做到举世接着为我独卿,重人接罪而我独行,没有念了上的大无微勇气,缺乏超越世俗的极高明的智慧,是断然不可能做到永于不敢的。所以,无论坚信弱者道之用的真理,还是奉行柔弱生刚强的厨师原则。都不是世俗大众亲而易举做的事。以我马尔言,我们可以参考老子的厨师哲学,真正常试去理解柔弱生刚强的则力。并不但经济成为真正之有反世俗精神的勇士,不去计较一时厉害得失。始终坚守柔弱的厨师原则,最终做到永于不敢。而老子也认为,唯有这样的人才能更深固地长生久世。与若者道之用相关的另外一个重要思想式,有知以为例,无知以为用。实体的有发挥了便利作用,人们可以使用它。例如房子本身是可以遮风党语的。而这个有却依赖于无,有了无才能有有。例如,房子的空间才是我们需要的无和空,有了空间我们才能住在房子里。由于无,就像事物难与异,长于短的关系一样,都是构成事物不可获却的议题两面性,相法而相成。而利于用则代表了具体实在的物质力,与不实在的抽象力,可见,有之力与无之用的区别,就是具体之用与抽象征的区别。老子若者道之用在普世功能的运用就在于此。世俗之人储慕村皇,只追求具体之用,而老子在肯定具体之用的前提下更注重抽象之用。认为无之用才是事物真正,或更具本质性的价值意义之所在。以企业为例,企业的资产不仅仅支厂房、生产设备等这些具体的有形资产,还包括企业拥有或者控制的没有实物形态,但可以给企业带来持续的长久力的无形资产。无形资产除了专利权、土利使用权等权利以外,还包括企业文化、企业形象等等。无形资产不仅是企业在有形资产之外的巨大财富,还是盘火开发有形资产,使其持续不断创造价值的动力源权。道理很简单,一个没有技术和先进的经验里面的企业,即使拥有在熊后的有形资产基础,也无法实现有效的生产经营。计划经济时代的许多中国企业,就不懂得无形资产的重要性。不懂得用法律手段保护企业长期经营形成的专有技术,品牌商标,导致一度被境外商家纷纷抢先注册的现象,给许多中国企业造成了巨大的损失。在以人的生命为例,人的生命是身体和精神的同一体。如果将人的生命等同于动物生命的意义而言,身体当然是生命的先在性和决定性的因素。物质性的生存是人生的主要内容,但从人作为理心动物的生命意义上而言,精神则是人的生命的决定性因素。不仅身体的意义与动受着精神的支配,而且整个人生的深刻性,丰富性决定于人的精神的深刻性和丰富性。精神的能量决定于生命的能量,精神的境界决定了人生的境界。我们不同意微信主义在本元意义上对物质与意义时关系的颠导,但在本元意义上承认物质决定意义时的前提下,绝不能忽视微信所限,微使所变的真理性。有之以为例,无之以为用,除了让我们更加证实万物飞实际的用途之外,还让我们反思当下之用与长远之用的利弊得事。当下之用就是利己就可以产生的功效,或当下就能明确意识到的功用。长远之用是当下没用而长远看有用的事物会行为,或当下没有意识到有用而长远看实际上有用的事物会行为。当下之用是有之力,长远之用是无之用。注重当下之用而忽视长远之用体现了一种狭隘的功用价值观。在当今社会表现的油尾突出,这就是全社会各行各业极工经历的风气。围观一方,追求看的见,见消快的正习。于是大型统一模式的基建建设就成为了工作图号抓手。而事关名声的教育医疗社会保障等基础服务性体系,因工作周期长,见消骂而被忽视。科研管理机构追求一年一度为周期的科研考核管理制度,科研工作人员追求短平快的科研成果,而号时废力但价值一生一年的基础性研究却很少有人问惊。各级学校以各类生学考试,各类就业考试为指挥棒的硬式教育,和偏重专业知识和技能的教学体制。使学生对人知生存,对基础性和终身意义的力生为人的道德学问不卸一步。乃至整个社会呈现出过度追求物质性生活的趋势,而对作为人生理想的精神性生活缺乏普遍的热情和期待。对求当下之用可见之用组织了人的思维,举前的人的事业,一直的人的创造性活力。阻挨的人们对应有人生广度的拓展和对应有人生深度的挖掘。这样的人表面上看茫茫路路,自自以求,但绝不会成就什么人生挥黄,更不会成为发挥社会大眼的动量制裁。所以,在一定意义上说,汉思最有用的有之力其实是最无用的。汉思最无用的无之用,其实是最有用的。装子对老子的思想做了很好的发挥。会死是装子的朋友,学父、车、天文地理无所不想,但他注重的是有关可见之物的知识,集对有之力的关注。而装子则经常思考探讨各种抽象的人生折力等学问。因此,有一天会死对装子说,你的言论没有什么用处。装子说,如果你真正懂得无用之用的道理的话,那我就可以与你说说公用的问题了。于是装子就虚过了一个情景,对会死说,大力不能不说广帽无音。但一个人要在大力上站立起来,只需要容得下双角的一小块土地霸。于是,许多人认为,对自己最有用的就是双角直接踩他的这一小块土地,而周围广帽无变的大力对自己毫无用处。装子说,如果真是这样,那么我给你做个假设,请你双角并且站在地上,我把你双角直接踩他的这块地留给你。把你双角之外广帽无音的大力通通掏空到九全之下。请问,这时候你能够在这一小块土地上站起来吗?你还有勇气站在这一小块土地上吗?你还觉得那一小块土地有用吗?为此,黄然大物的说,我原来认为最有用的东西恰恰成为最无用的东西。装子总结说,这样看来,那么无用的东西才是最有用的道理,也该明白了吧。装子这段话是对老子的有知以为力,无知以为用的生动助角,现在独来,我们既有一种亲近感,又有一种破歉感。说,亲近感是因为他简直是对当下社会的教风,学风,科研风气,那这整个社会集工经历的人生态度和工作作风的新纳缝次。说,紧迫感是因为阿不觉得,当代社会各行业集工经历的风气和人生态度已经达到无以复加的程度。已经对个人和整个社会的发展造成了极大的损害,继续尽快扭转彻底改变。所以,关于有知以为力,无知以为用,也是弱者道之用的功能体现。而所谓的弱,即使容易被人忽略的万物抽象之用,也是精神之用于软实力。于社会官员或企业领导而言,以退为尽,以慢为快,立足现实发展更加具备长远力的事业似乎更加符合老子的处事哲学。而与我们自己而言,12位人,如果仅仅追求当下之用,过渡追求物质性生活,这与动物无意,完全委辈了老子弱者道正的核心思想。老子知道我们应该追求,无知用,拆脱自身事业,发觉人生应有的广度和深度。好了,今天关于弱者道正的哲学思想解析完成,小伙伴们下期见。3.道德言读方法片老子是为了研究解决人生社会等现实问题才展开他的哲思。因此,对人生社会等现实问题的关注思考才是道德经的逐知所在。所以,尽管老子经常养往天空,游心太旋,但窮楼玉雨不是他向往的天堂。尽管老子不吃冷言均语,喷地现实,但对现实人生的骨刀热长恰恰是他的心知所念。这是一种站在太空腐蚀大地的四位方式,也是一种遮变素援高站援助的理论事业。很多自媒体的炒作,导致道德经,以及老子哲学思想被批上伤增,外星人,非生等各种离谱之籍的外衣。这些自媒体在脖曲流量以后,就会结束深入的解析。这些导致道德经的真实内核被果的言言事实,只剩下华而不是的外衣。再次声明本人不是立起去的阿不主。关于道德经的思想,本人更倾向于此书能够用于时间,解决人生和社会问题,而不是玄幻小说。接下来,让我们一起用正确的方式打开道德经的大门。中国历史上有三部典级,被称为三选,分别是周一,道德经和装子。这三部典级之所以被核成为三选,一是由于他们共同构成了未尽玄学的理论依据。二是由于他们运行的哲诗选妙,文字古澳普通人难以同小。其实就道德经而言,人们之所以觉得玄澳难懂。在很大程度上是因为我们的理解都是依据世俗的经验常识,带着习惯性的思维方式。而道德经恰恰超日了世俗的经验常识,其所思往往备理的人们习惯性的思维方式。也就是说普通独着的世俗经验常识和习惯思维方式,不但不利于理解道德经,反而会成为走进道德经的兰路虎。老子早在道德经写作过程中就意识到这个问题。道德经第七十张,五言身一之,身一行。天下莫能之,莫能行。意思是说,我所设的道理本来很前显一种,也很容易复助实践。但天下却没有人能知晓,没有人能见行。我们之所以无法见行,就是因为我们受制于世俗的经验常识和习惯性思维方式。老子将这种世俗经验常识和习惯思维方式成为前识。道德经第三十八张,老子认为这样的前识其实是道之华与之使。所谓前识,是对道德华而不是的潜魔理解,是愚昧的开始。老子的前识类似于德国哲学中所说的前友,前建或前理解。即使人们在新的理解活动开始前,就已经拥有了各种价值观念,经验常识和思维方式。他即使人们新的理解活动展开的基础,又会成为先入为主的成见或偏见。德国哲学强调了前友,前建对于新的理解和产生的积极效应。而老子强调了前时对于新的理解产生的消息效应。在老子看来,只有破除和超越世俗的经验常识习惯思维方式才能动习道德经。测误老子的思想,为此我们必须了解老子独特的运思方式或思维路响,这是走进道德经的入门钥匙。下面我们从三个方面对此于一说明,1.追本宿园的理论识域老子生活在春秋末期,此时周王朝游强转弱,王氏日益帅围大泉庞落。而诸后国则随着政治经济军事实力的日益强大野心膨胀。互相争罚,竞相称罚天下,于是战争平凡国家分裂,天下无道,生灵图炭成为春秋末期社会的最大特点。为了结束动乱分裂,重建社会秩序。大批人人知识,或者不同的社会理想,站在不同的立场。一边分分住宿,你说,汉语经郑国救命的药方,一边游水四方扩大自己的思想影响。朱子百家有此而清。因此,朱子百家的思想有一个共同点,都是针对春秋末期特定的历史现实,对人生社会问题的思考。都企图建立自以为行之有效的文化信仰体系和理想的人间社会秩序。但以老子为代表的道家,在思考解决这些问题时,观察问题的角度,思维方式,理论事业与其他各家,各派竭然不同。从思维的空间为度而言,其他各家各派都是站在人生社会现实的角度,思考解决各种人生社会等现实问题。或者说,他们都是立足于大地和人间,而观察思考人与人的问题。老子虽然也思考解决人生社会等现实问题,但他观察思考问题的角度,不又于人生社会现实。而是将思维视角,由人生社会领域扩展到更加红扩的自然界,再由自然界进一步提升到浩安的宇宙。或者说,老子是站在宇宙的高度,将天道地道人道视为魂战一体,还荒相扣的有机整体。通过,宗官还与,两官天道,复察地道,最后将视角居交日人道,从而提出解决人生社会等现实问题的一系列设想。以上思维视角的不同,接用中国古代形儿上形儿下的哲学书语,就是说,各家各派是正在形儿下的角度思考形儿下的问题,而老子则是站在形儿上的角度,神是形儿下的问题。从思维的时间为度来看,虽然先请各流派在力伦一句方面都注重历史的回望,以史为见,及言着过去现在未来的时空模式勾兼自己的学说,但其他各派对历史的关注。都没有超越人类历史这一有限的时空饭筹。他们只是以有限的人类历史为准则,而却力后世社会的饭市以先王剩人的言论为经典,作为理想社会饭市重建的理论根据。而没有从人类历史以外更红扩的天地自然与周生成过程,去寻求人类社会饭市重建的中级根据。老子也注重回望历史,也强调一史为见。当他对历史的关注没有限于人类历史,而是将四位的处角层层推进,步步提升,从有限的人类历史的考察,延伸到对自然界历史的追溯。在由自然界追溯到整个宇宙的形成历史。因为在老子看来,人类社会不过是天地自然演化的结果,人类历史不过是自然历史的一部分。而天地自然又是整个宇宙演化的结果,天地自然的历史也不过是整个宇宙历史的一部分。当老子的理论事业提升到宇宙的高度而服势环语时,他将四位拒绕到一个人类几乎不可能有的中级答案,但这要永恒追尽的问题上。人及其宇宙万物是怎么产生的。导致宇宙万物产生的最初那个东西,或中级原因到底是什么。通过重官环语,养官府查名思苦响,老子发现和接视了宇宙本源的真面目,将其名之为道。老子对人生社会等现实问题观察思考的思想力程,就是从这个中级源头切入而展开的。法国起蒙运动基建流行医区艳语,懂得了起源就懂得了本质。这句话可以帮助我们理解老子这一思路的深刻理剧。要研究解决任何问题,首先要了解这个事物的现象问题的本质,而要了解这个事物的现象问题的本质,就必须探究这个事物现象,问题的来龙去卖,同理,要研究解决人生社会等现实问题,首先必须任情人生社会的本质,而要任情人生社会的本质,就必须探究人及其人类社会的起源。而人类社会不过是天地自然演化的结果,天地自然就是整个宇宙演化的结果。因此,要探究人类社会的起源,不得不深究天地万物的起源。而要探究天地万物的起源,必须要进一步追问整个宇宙的起源。所以,对起源问题的观察思考是解决一切问题的前提条件,不懂得这个道理,就无法任情万事万物的真面目。而一旦弄清了万物的起源,一切事物的本质就招然落接,一切问题将迎然而解。这正是老子的运思方式。对此,到得近第二十一张,自经极古,其名不去,以月重斧。五何以知重斧之壮灾,以此。意思说,从苦道今人们总是道压道压的谈论不休。人们之所以如此关注道的问题,是为了依据到观察认识天地万物。我为什么能认识天地万物发展变化了各种状态规律呢?就是根据这个道的总原理。到得近第五十二张,天下有史以为天下母,记得琴母一之其子,记之其子复守琴母,没身不带。这里的史和母比于宇宙万物的本原,及老子说的道,子比于宇宙本原道创生的云原重生万物。整句的意思是,天地万物都有本有史。这个作为本史的东西就是天地万物之母。了解掌握天地万物的本原,就可以有此认识天地万物。如果认识了万物,又能坚守住万物的本原,终身都不会有危险。老子探探的这些问题属于旋轻深二的宇宙哲学问题。但是我们必须明白,购建宇宙哲学体系不是老子写作道德经的初衷。老子是为了研究解决人生社会等现实问题才展开他的哲思,因此对人生社会等现实问题的关注思考才是道德经的逐知所在。所以,尽管老子经常养往天空,游心太旋,但窮楼玉雨不是他向往的天堂。情况老子不吃冷言均语,喷地现实,但对现实人生的骨刀热常恰恰是他的心知所念。这是一种站在太空府市大地的四位方式,也是一种追本素援高战援助的敌论事业。独发道德经,许多人可能意识还不能理解或接受他的全部思想。但尽道德经愿含的这种观察思考问题的应思方式,就足以给人们以巨大的企业。我们对任何现象问题的观察思考,如果能超越现象问题本身,而养官、府市通过追本素援的方式,寻找问题产生的深层次原因。不是可以获得对有关现象问题更透彻地认识吗?不是可以使人们明确解决问题的更有效,更根本的途径和措施吗?2.天道推演人道的类比思维只顾知道之所以能够预金之有,老子关注思考研究人生社会等现实问题,之所以要从勾捐宇宙哲学体系入手,还在于老子认为人道与天道还换相互,息息相通,人道不离天道,天道不远人道。天道是指宇宙万物运动发展的根本法则和普遍规律,人道是人类应有道德理念和遵循的行为准则,以及人类社会应有的普遍饭饰和发展规律,老子认为,宇宙世界与人的社会在结构秩序,运动发展规律的方面是息息相通的,但二者不是并存关系,而是主存关系。天道在时间上先运人道,在空间上高运人道,在作用威力上大运人道,从而天道主在的人道,人道哪天地万物的存在方式,发展运动规律都受着天道的制约,都要英询效法天道。老子通过分析宇宙间四类最伟大的存在对象的关系,产明了这个道理,道德经第二是五章,古道大天大地大人意大,一中有四大而人居其一言,人法地地法天,天法道道法自然。老子认为,宇宙间有四类最伟大的存在对象,分别是道天地人。人为天地万物之灵,是云云万物中唯一用有主体一世的存在对象,所以老子将人从云云万物中独立标准出来,是为宇宙间四类伟大存在对象之一。道天地人,虽然从新闻上看是病例关系,但老子通过敘述顺序的先后安排,明税表示他们并非不分先后高下的病例存在对象,而是宇宙间不同等级层面的存在对象。宇宙间最高的存在对象是道,它熊居天地人之上,是天之为天地之为地人之为人的终极根据,是宇宙的最高法则,其四是天,其后安太空的一切存在对象,其四是地,其大地,它是太空星期中唯一拥有生命物的星球,人,是只居住在大地上的万物之灵,人是大地之子,吃穿住行等一切活动直接受职于大地,所以人的生存方式要阴巡效法大地的运行规律,而大地的存在运行受整个太空星系运行法则的职约,因此大地的存在运行要阴巡效法太空星系的总体规则,而太空星系的存在运行最终受宇宙最高法则的职约,因此要阴巡效法天道,那么天道的法则是什么呢?天道的法则就是自然,因此天道的法则阴巡效法自然,歸根解底天地人及其万物最终都要阴巡效法道的自然法则和规律,也正因道天地人的存在运行规律是还换相扣,息息相通的,因此天地人存在发展的普遍规律完全可以通过,层层类比推延而获得,动息宇宙之旧的最高法则就掌握了天的法则,掌握了天的法则就懂得了大地运行的规律,懂得了大地运行的规律就明白了人之生存,应该有的道德理念和行为准则,就明白了人类社会的发展规律和阴巡的普遍饭饰。合建,类比推延是与老子追本数员高粘原住的李倫事业,密切相关的运私方式,对其思想形成更具内在的影响力。下面就让我们看看有天道推延人道的类比思维在道德经用的具体应用,道德经地三十二上,道长无明,福,虽小,天地末能沉野,猴王若能守之万物将自兵,大意是,道永远是无明的,福之自然的,虽然优为不可见,天下却没有什么能使他沉浮,猴王如果坚守奉行大道,万物将会自然的归从。道德经地三十九章,稀之得意者,天得意以清,地德意以寧,神得意以寧,古德意以寧,万物得意以生,猴王得意以为天下正,大意是,自古以来,繁登坚守奉行大道者,天尊旋大道而运行,就会显现出他的情朗,地尊旋大道运行才会安稳寧静,神寧尊旋大道才会显现出他的领驿,虚空的东西,尊旋大道就会变得充赢,万物尊旋大道才会生长发语,猴王尊旋大道治理国家,就可以使天下安定。老子认为,水最能象征大道的品格特征,因此他经常接用水的种种特征来类比人因有的各种美特,道德经地六十六张,江海之所以能为白骨王者,一起善下之,故能为白骨王,是以预上民,必以言下之,预先民,必以身后之,江海所以能成为众多合流慧网的地方,是由于江海善于处在低下的地方,所以能成为百川之王,因此,要治理国家统治人民,对老百姓说话一定要态度温和,与其千倍,要像领导人民,必须把自己的利益放在人民的利益之后,类比思维不仅是老子为了由天道推论人道而刻意追求的思维方式,而且是老子意义冠知的思维方式,在道德经中,老子即使论述其他问题时,也同样平平运用类比思维,道德经地五张,天地之间,起喉头月呼,虚而不屈,动而语出,老子以风乡中空而能鼓动出无限风力,比喻道随虚空,而内运着无限能量,道德经地六张,全品之门,是为天地根,绵绵若存用之不情,老子以玄卖的辞性生知气,比喻道无穷无结的创生功能,道德经地六十张,至大国若碰小鲜,他以碰认先任的小鱼,不疑平凡角动,比喻无未而知的道理,擅长类比思维不仅是老子思维特色,更是中国传统思维民族特色的充分表争,这一民族思维特征形成的基础,从道家思想的源头而言,就是老子的混顿玄同的世界观,从中国传统文化思想冤冤而言,就是天人合一的世界观,在这一世界观基础上形成的思维方式,就是类比推远思维方式,而在类比推远思维基础上形成的认知,就是求同认知,这与西方的人与自然而言对立的世界观,以及建立在分析思维基础上的求意认知大乡境庭,三,超越世俗的反向思维,老子独特的思维路向还体现在他的反向思维方式中,老子的反向思维体现在,与世俗之人通常的思维言说,行为方式相比,他总是反向而死,反向而说,反向而做,因此,到的金中表他的所有思想观念,几乎都是超越世俗长清常理的,具有强烈的反世俗观念的批判精神。老子之所以提出一系列精湿害俗,甚至冒天下之大伯爲的其他怪论,当然不是处于分世技术标心利益,而是他的独特思维方式和哲学思想的必然结果。老子发现,天道及宇宙万物的运动发展遵循了一个共同的规律,反,反者道之动,反包含着宇宙万物运动变化的三条规律,其中一条规律就是阴阳护转,即是其内部的阴阳两种对立的元素或试能始终处于运动变化中,阴的一级总是向阳的一级发展区径,而阳的一级总是向阴的一级发展区径,例如,取责权,网责值,挖责营,弊责心,少得多,多责货。当然,把以上每具反过来独特地也是同样的道理,权责取,职责网,营责挖,新责弊,多责少,反世以后运动变化的根本规律,这个规律支配着天道地道人道乃之万十万五,因此,人应该主动积极的阴巡效法天道,从而使人的生存方式行为举动,乃至人的四位方式都遵循着反的运动规律,那人怎样遵守反的规律呢?道德经第三十六章,江羽西之,必顾章之,江羽弱之,必顾强之,江羽废之,必顾新之,江羽取之,必顾语之,世为微明。江羽使他收脸,一定先让他够扣张,江羽使他削弱,一定要使他强盛,江羽使他废弃,一定要让他心往发达。江羽打到货取的目的,一定首先给予对方,这就叫建为知之的通小明达。老子从反着道之动的宇宙法德中,领悟到为人处事,行为局质,四位眼睛的总原则。面对任何事,任何问题都要反着想,反着说,反着做,江实现杨的目的,则从阴的一级命司,要实现阴的目的,则从杨的一级入手,以此类推,遇上则先下,遇所则先右,遇动则先进,遇前则先后,遇义则从难,遇多则从少,反死种种,不易而足。其实说老子反着想,反着说,反着做,这是用试辱的眼光对老子思想的看法。老子因参透了宇宙运动变化了根本法则,领悟了天道地道人道的同够一体性,从而自己的应用超越世俗长情场里的四卫方式关键行为。它的四卫方式关键行为虽然超越世俗,反叛长情,却是最何辜天道地道,从而也是最何辜人间正道的四卫方式关键行为。而世俗之人因不能参透宇宙运动变化的根本法则,为能领悟天道地道人道的同够一体性,这才是他们阴巡所谓的长情场里,雇手沉沉香阴的习惯思维和行为策略,而这一切恰恰是完全被离天道地道和人间正道的。所以,站在宇宙之道的高度看,老子所谓的反,恰恰是长道,人间正道,世俗之人的长,恰恰是反常,伟逆之道。老子还说正言弱反,意思是真理之言说出来或听起来向反化。弱反,恰恰说明老子从不以为自己所言的,是反常的其他怪论,而是实施在的正言,常言。认为弱反的,仅仅是世俗之人而已。古希腊哲学家苏格拉里有一句明言,未经醒察的人生没有价值。在苏格拉里对古希腊世俗人生发出如此警告的几乎同时,老子则对中国人的世俗价值体系进行了更加全面系统性的反思批判。哲学的根本精神就是批判意识,与批判精神。一个缺乏批判意识,以批判精神的人不可能成为真正的哲学家。一种缺乏批判意识,以批判精神的哲学也不可能具有真正的哲学评格。而哲学家之所以具有批判意识和批判精神,就在于他们经过对宇宙世界的本质和普遍规律的深刻动察,使先了四位方式的根本辨格。因此,真正的哲学必然是时代精神的精华。无论从哲学和哲学家的哪个唯度审视,老子都是真正的哲学家,道德经都是人类史上真正的哲学居住,关于哲学和哲学家的反思评格,19世纪德国哲学家黑格尔有一个充满失益的精彩比喻。哲学就像Miniwa的猫头银一样,它总是在黄昏时起飞。Miniwa是罗马神话中的智慧女神,希洛在她身边的猫头银,则是思想和理性的象征。黑格尔用这个比喻,一再说明哲学是一种反思活动,是一种陈思的理性。黑格尔认为哲学的反思是对认识的认识,是对思想的思想。如果把认识和思想比喻尾鸟儿在续日东升,或燕阳当空的蓝天中熬响,反思当然就是只能在薄木降临时悄然起飞。这个比喻还有一层更深刻的含义,其宣秀的白天是世俗人生追明主力的舞台。人们精精乐道地日常生活的平凡,所屑,一位被现实的功力的试语签着鼻子走,从而不懂得反思现实改变人生。而哲学的反思必须是深沉寧静的,自干寂寞的,需要精神上情绪上深刻的认真态度。需要从日常极破的兴趣中抄托出来,需要排除洗俗意见的空书浅博。因此,黄惠以后的夜晚才是哲斯放弃的最佳时间。所以哲学就像,Miniwata猫头银一样,它不是在虚日冬孙的陈西中导想,而是在落日西晨的黄惠才敲染起飞。老子就是Miniwata猫头银。当我们掌握以上三点内容后,道德经的大门自然敞开,我们也能够更好理解期间内合,并将其用于实践,更深层次地达到误道效果。好了,关于道德经的打开方式,今天就讲完了,到你们下期见。四,道德本元篇。如今的世界,为物主义不仅在世界许多国家成为现行官方世界观的组成部分,而且其实在西方哲学中,比如在所谓深心讨论的范围内,也常常吹支配地位。但恰恰是这个物质概念,始终是使这个世界的科学家,感到最困难,最难解绝和最难理解的概念。总之,老子的宇宙本言论思想,即摆脱了创世神话的,盟媚幼稚的幻想,又撕破了个害宗教,虚望米性的神秘面杀。即超越了为心主义,又不举线于维物主义,它是人类历史上非常堵道而深刻的哲学指挥。老子思想的诸致是对人道的反思,即对人生社会各个领域问题的思考。老子认为,人道效法天道。因此要思考解决人道的各种问题,必须从研究天道入手。对天道的考察研究过程了老子的宇宙哲学,它的全部思想建立在其宇宙哲学的基础上,所以要全面系统了解老子的思想,必须从解读它的宇宙哲学开始。老子的宇宙哲学包括宇宙本言论和宇宙生成论两部分内容,本期视频诸将老子的宇宙本言论。宇宙本言是指宇宙的本始状态,是宇宙万物得以产生的对出原因。对宇宙奥秘和生命本原的探索是人类的中级关怀,是人类不可恶质的永恒情节。还一方面原因人对生命奥秘的好奇,另一方面原因人类企图超越生命达到永恒的向往。人类自争开智慧的双眼就没有停止过对中级的追问。神话实在的人类蒙懂无知,他们只能借助身体经验,引起独物,幻想出许多巨人垂死化身的神话故事来解释天地万物的游来。神话实在以后,人类对中级问题的关怀其中表现在各个民族宗教文化中。所有宗教认为,宇宙的本体是一种具有人格特征的神,神住在与世俗世界对立的另一个世界,其天堂,神带着某种目的和意志创造的人云宇宙万物。而虽这人类理性的不断发展,人类开始形造更加科学的中级解释,但是随着科学探索的不断深入,似乎一切逐步回到原点,回到老子的道。我们都知道,老子早在几千年前就提出道,才是宇宙万物的本源。道的本意是人形走的道路,这一原始一一种包含着许多可以被隐身的潜在因素。一,区势,由于道具有确定的指向,是人们达到特定目标的闭经之路,于是隐身为事物存在于发展的必然性与必然趋势。二,原则,由于道是人们抵达目的地必有之境,于是隐身为事物运动变化的规律,尽而隐身为人的行为所必须遵守的原则。三,方法,由于道为人们提供了达到基定目的的途径和手段,于是又隐身为认识事物解决问题的根本方法。道的这些隐身含义已经具有了一定的抽象性和普遍意义,但于宇宙本源相比,在境界上还是相差深远。那么真正的道到底有什么含义呢?或者说道具有哪些特征呢?一转,细此上约,形而上者为之道,形而下者为之气。形而下是指存在于有形世界中的人们可以直接感知的具体事物和现象。人们生活中用的各种气名就是具有物质形体特征的具体存在物,故意气名的气,借带一切形而下的事物和现象。形而上是指一切超越物质形态特征,人们无法直接感知观察的抽象存在对象。老子所谓的道就是超越物质形态特征的抽象存在对象,故意道指带一切形而上的对象,而道的本质特征也源于此。结合各种书记的学习和感悟,终和来说,道是非精神也非物质的存在,由于无的结合,虚无以失存的结合,超越时间的永恒,超越空间的存在,创生万物的能量,宇宙唯一的绝对,接下来对道的特征主义详细描述,非精神也非物质的存在,我们在读道德经时往往有一个疑惑,老子的思想到底属于维物主义还是维心主义,似乎不搞清楚这个问题,就难以把我老子的思想使质,尤其难以变稀老子思想任的积极成分于消极因素,这一困惑与长期以来,我们将维物主义和维心主义是为二人对立的观点有直接关系。其实,老子的思想既不是纯特的维物主义,也不是纯特的维心主义,而是超越了维物和维心的一种独特的世界观。宇宙的本体或本源是什么?这是人类智慧遭遇的最大挑战。当然,最初面的这个问题感到志穷立结的时候,各种创施神话和宗教知神的观念变产生了,但老子对宇宙本源的追问,超越了创施神话对宇宙起源的幼稚认知,也没有陷入宗教的泥潭。他虽然没有明确否定上帝的存在,却端然已到代替了上帝的本体性地位,认为即使真的有上帝,但到远在上帝之前就存在了,也就是说,在老子看来,上帝根本不是宇宙的本源,到才是宇宙的本源万事的即使。到不仅比上帝具有更本源性的存在,而且具有完全不同于上帝的本质特征,基督教认为,上帝是具有人格特征的神,而老子认为倒是一种自然现象,倒法自然。上帝是有目的有意志的,而倒是无目的无意志的,上帝自然为是全能全知的,而倒是无知无言的混顿存在,总之,倒得一切功能作用的发挥是自然的结果,而上帝的一切功能作用都是神的指引,既然老子倒这么虚武,那么如此看来,他的思想是为心主义吗?非也,老子的思想与为心主义更不展变,他明确将倒坚定为物的现象,而非精神现象,倒得精第21张,倒之为物,为谎为呼,呼吸谎吸其中有象,谎吸呼吸其中有物,谣吸明吸其中有精,其精甚真其中有幸,意思是说,倒这个东西,皇皇呼呼,四有四无,虽然呼呼皇皇,但其中又有形有象,虽然皇皇呼呼其中却有十无的存在,他虽然微不可见,身不可测,其中却运含着精气,而且这个精气是非常真实的,是有信念平正的,显然老子所说的道不具有任何精神性的特征,老子的宇宙本言论也是于微心主义化性的借险,倒既然是一种自然现象,而且老子说是其中有物,这是否意味着倒是物之形的存在呢?虽然老子说倒之为物,其中有物,但这个物不是可感知的物质形态之物,而是前物之之物,倒是神奇的宇宙基因,儲存着万物形成和转化的无限潜能,协待着推动万物生生不惜的全部信息,或者说倒是一种无形的,却又无所不在的抽象的宇宙能量,它周由于天体之间,也就是说,老子认为宇宙世界建立在非物质的基础上,物质不能成为物质的终极原因,非物质的倒才是物质世界得以产生的终极原因,这显然又以为物质意识相左的,层级合时,宇宙世界是绝对实体的观念被奉为放置似海而接准的真理,然而按赢思想的相对论证明,物质的质量根本不是绝对不变的实体,质量于速度有关,在质量于速度的互动关系中,抽象的能量可以变为实体的质量,实体的质量也可以变为空级需物的能量,层级合时,经典物理学认为,物质由分子构成分子由原子构成,原子是由电子、中子和制子这些基本例子构成的,人们坚信,即使物质细分道不能在细分的中子和制子这些基本例子层面,仍然保持着可观测、可寄良,可验证等物质的固有的确定性和横定性,然而,量子力学的星期彻底改变了人们对物质构成的认识,彻底颠覆了人们的世界观,在量子世界,物质过的可观测可寄良等确定性、客观性不复存在,不仅如此,科学家进一步发现,整个宇宙中存在的现象也不知像我们过去认为都是普通物质,除了普通物质还有暗物质和暗能量的存在,其中暗物质占宇宙的25%,暗能量占70%,我们通常所观测的普通物质只占宇宙之上的5%,也就是说,主在整个宇宙的不施普通物质,而是宇宙暗的一面,暗物质、暗能量。如今的世界,为物主义不仅在世界许多国家成为现行官方世界观的组成部分,而且其实在西方哲学中,比如在所谓深心讨论的范围内,也常常处于支配地位。但恰恰是这个物质概念始终使这个世界的科学家,感到最困难的最难解决和最难理解的概念。总之,老子的宇宙本言论思想,记忆摆脱了创世神话的盟媚幼稚的幻想,又思破了个害宗教虚望米性的神明面杀,记超越了微信主义,又不举线于维吾主义,它是人类历史上非常堵稻而深刻的哲学指挥,由于无的结合。我们都知道双奉干涉实验,宽踏着的存在会让实验结果发生重大变化,老子倒就是如此,它即使无又是有,名义失统,看你站在哪个角度观赵而已,当你观察它,它就以成为有,变成具体的内容,当你不换察它,它富贵遇到变成虚无的内容,由于无是道德别名,道是虚无性和十分性的合体,也就是由于无的合体,道德经第一章,道合道非常道,明可明非常明,无明天地之使有,明万物之母,故长无,遇义关其妙,长有,遇义关其角,此两者同出而一名,同位之旋,旋之又旋,重妙之门。道是可以言说的,但不能用通常的言说方式言说,道是可以称明的,但不能用通常的命名方式称明,为什么这样说呢?因为在老子看来,道不像普通道理或具体事物,不能用描述普通道理的语言来谈,无论,不能用给具体事物命名的方式来复于他名称,老子记着说,道即是无,又是有,明之为无,是为了说明道是天地的本使,明为有,是为了说明道是万物的母亲,也就是说,当老子强调道的虚无性时,将道明之为无,当老子强调道的十存性时,又将道明之为有,正因为道即是无,又是有,所以老子记着说,经常从虚无的角度,认道,可以想象领悟道的神奇奥妙,经常从石油的角度体无道,可以观照道的明确可验的真实性,总之,道即是无,又是有,明义是同,看你站在哪个角度观照而已,所以,老子最后说,无于有,是源于同一个对象的不同称为,都只在那个玄奥神秘的道,道不是一般的抽象玄奥,而是玄奥中的玄奥,他就是动息与招万物无穷奥妙的门境,虚无与时存的结合,在一般人看来,虚无与时存是矛盾对立的,因为在日常生活中,许多人判断一个对象是否存在,往往以是否能被人感知作为根据,能被人直接感知就认为是客观存在的,相反就认为是虚望不真实的,其实这个判断是很片面的,这个世界上许多高度抽象的对象,虽然不能被我们感知,但他们真实存在,比如终于的经落,大自然的磁场等,老子所说的道,就是这种计虚无忧真实的存在,为了避免人们将道的虚无理解为存在的虚空,老子从来不单独谈论道的虚无形,而总是将道的虚无性与时存性和二论治,道德经第十四章,世之不见,明月一,听知不文,明月西,博之不得,明月微,此三者不可至杰,故魂二为一,老子说,道具有看不到,听不见摸不着的存在特征,即道是不能为人的感觉器官所感知的虚无存在,道是宇宙世界的中级原因,而他自身的存在是没有原因的,他本来就是那样,所以面对道的存在特征,不能有为什么的追问,他是魂敦一体的存在,接上来,其上不角,其下不美,明明不可明,富贵于无物,是为无壮之壮,无物之相,是为忽惑,迎知不见其守,随知不见其后,从虚无性的角度来看,道优引不显,一点也不明了,从十分性的角度来看,道又是确证无疑的真实存在,一点也不婚案,道是分员不觉得无限存在,不能用语言,给他以限定性的名称,道虽然是真实存在,但中规不具有物质形态特征,说他是虚无,但似乎又有形状,刚才把它叫做没有形状的形状,没有物相的形象,或者叫做不可捉目的谎呼,道不像具体事物有钱有后,食语中,假如迎面看,看不到它的开始,跟随其后看不到它的结束,这段话,以后说道的虚无性,一会儿说道的实在性,其并非表示老子对道的存在将行将疑,而是一种审深的语言表达策略,道虽然是客观真实存在的,但毕竟难以感知观察无法验证,在这种情况下,用明确决断的言说方式,不仅有无段之前,而且恰恰会遮蔽道的虚空,和悬傲神秘的特点,超越时间的永恒,我们都在用肉身的思考去追求永恒的存在,在道的面前这种妄想不公自破,只有当我们真正做到完全脱离物质束缚时,才真正有资格摸到永恒的边缘,宇宙间只有道是不生不灭,无史无中的永恒存在,道德经第二是武章说,道是天地万物之母,所以在天地万物产生之前就存在,道德经第四章有说,假如有天地的话,道比天地更具有现在性,那么道德存在是否有一个更现在的原因呢?老子说,五不知谁知子,不知谁知子的自灭意思,是说我们不知道他是怎样产生的,实际意思等于否定了道之上,有一个派送的道更高的存在,道是自本自根,自足自因的,他是一切存在的总根源,是天地之使,没有一个更早的开始决定他的存在,道德经第六章,五神不死是为玄聘,玄聘之门是为天地根,绵绵若存,用之不情,股市以山谷和谷的虚空意象,比于道的空气虚无性,神比于道的神奇威力,神秘莫测,这个既空虚又神秘莫测的道是无史无中超越生死的,接着,老子又把道比为玄妙的辞性生之气,说天地万物都是从这个生之记中发出来的,他是天地万物的根源,道士连绵不觉得永恒存在,他创身万物的功用无情无敬,其中股神不死,绵绵若存就是说道的存在没有镜头没有终结,道德经第十四章说,道士迎之不见其守,随之不见其后,以及假如迎面看,看不到他的开始,跟随其后看不到他的结束,不见其守,比于道没有其使,不见其后,比于道没有终结,总之,由道创身天地万物都是特定时间的有限存在,我有道士超越时间的永恒存在,天地万物没有不生不死的,我有道士超越生死的,超越空间的存在,道不仅在时间上无史无中,而且在空间上无所不在,道德经第三十四章,大道繁夕,起刻左右,大道广泛流布,或上或下,或左或右,无所不在,真是说道不是具体的存在,而是一种无所不在的能量,装子曾以灰鞋风趣的一段对话,形象生动的皆是道在空间存在上的无线形,东国子听装子经常谈选论道,觉得神秘莫测就问装子,你所说的道在哪里,装子说无所不在,东国子觉得装子的回答大而不当,于是对装子的回答提出要求,必须要指出具体存在的地方,装子便说道在楼椅,在提败,在瓦屁,装子的以上回答其实是在起发,东国子思考一下问题,谁是楼椅据了不同于密封,唐朗等东武独特习近的生存特点呢?是什么原因是,提败成为提败,道古成为道古,卖子成为卖子呢?为什么瓦屁能牢过的,复在无顶而不移动呢?在这些事物和现象背后,必然有一种共同的力量或因素,在支配着他们,东国子无法理解,高身莫测道竟然如此悲响,于是沉默不语,线路沉思。东国子的困惑也是许多人的困惑,实际上,如果把道比左万有引力的话,它在空间上的无限性就容易理解了。万有引力本身就是道的自然能量和规律的一种表现,它不是特定空间的具体存在,而是辨布天地无所不在的能量,它像道一样无声无息,无形无向,但通过天地万物间普遍存在的引力现象,我们又确证无疑地感受到它的真实存在。自古以来,人们就将万有引力管放应用到生活十年中,但在牛顿的自然定律发表之前,有几个人会注意到万有引力的现象,并懂得其中的奥秘呢?创生万物的能量道一方面是虚物的存在,另一方面有其中有物,其中有象,其中有精。今世过程万物最精致的物质元素,它就是道运藏的创生万物的前代能量,这个前代能量是深不可测的,其功能发挥起来无穷无尽。为了皆是道具有无限的前代能量,老子除了把道比余为宇宙的生质器之外,它还用了一个通俗的比喻加以说明,道德经第五章,天地之间,其由陀月呼,续而不屈,动而遇出,天地难道不正向一个风箱吗?它内部中空但功能永不穷近,一旦股东起来,风力就会源源不断的输出。正因为道拥有无限的前代能量,它才能成为天地之使,万物之母,成为玄之又玄的重要之门。那么,为什么空气虚物的道却具有创生万物的无限功能呢?道德经第四十一章,大英西升大象无形,道影无名,符为道善代且成,是说道优引不现,无法用语言名撞,但正是这个道善于辅助万物,成就万物。下面我们捉种分析大英西升大象无形的内涵。大英西升大象无形的字面意思是最大最美的声音是无声的,最大最美的形象是无形的。这里的大英不是指音频最高最想念的某个具体声音,而是指包含了一切音响要死的声音,大象也不是指某一具体的形象,而是指包含了一切形体要死的形象,可见大英大象指的是总体,而不是指具体个别的存在对象。中国传统音乐理论认为完整的音乐在工商绝职与五个音节和五种调形过程,每个音节每个调形有不同的表演风格,但任何一首具体乐曲只能表现一种调形的风格特色,而老子所说的大英是同时包含了工商绝职与所有调形风格的那种音乐,谁能演奏出那的音乐呢,谁也演不出来,因为人一旦开口唱歌,一旦拿起乐器演奏,形成了只能是一首表现具体有限音乐风格的歌曲会乐曲,那么包含了万有大全大美的音乐在哪里呢,他存在于道中,大音大象都是道的比喻,道不是谋欲具体的声音,但这个世界上所有的声音现象都是从道中生发出来的,道不是谋欲具体的形象,但在这个世界上一切有型之物都是由道创生的,也就是说,道中愿含着一切声音潜能,一切形象要素,所以,与现象世界谋欲具体的声音,具体的形象比较,道才是真正的大音和大象,愈含着一切声音潜能的大音必然是无声无息,包吕一切形象要素的大象必然是没有形体特征的,因此,牺牲无形比喻道的空气需无形,而大音大象比喻道拥有无限潜在能量,和创生天地万物的无限可能性,正因为道是空气需无的,所以它什么也不是,正因为道什么也不是,所以它才具有创生天地万物的无限可能,与众唯一的绝对,要理解绝对性,最好先搞清楚什么是相对性,所谓相对性是这一个事物的存在,实时受它自身以外的其他事物会因素的影响,至于,以至于没有其他事物的影响,它就无法存在,就不会具有属性特征和功能,每个人的生死也不是自己能决定的,相对于父母的存在才有了是每个人的生命,受至于大自然的规律,每个人都要走向死亡,至于人的吃穿著行更是实施刻刻不能离开对他人社会自然的依赖,人与万物从生到死,有死而生始终是相对性的存在,相对性意味着自己不能为自己做主,即没有自主性,没有自主性就意味着没有自有性,所以从终极一上而言,相对性不自主,不自由是人与万物注定的宿命,那么什么东西不受自身以外的事物和因素的影响呢?它就是作为天地之使,万物之母的道,道的存在不依赖它自身以外的任何因素,它才具有各种能力和特性,道是自主自恰,自本自根的,它本身就是自己存在的唯一原因,这就是道的自因性,道的自因性说明道是绝对性的存在,道是最高的存在,是天地万物的总根据,它统设至于的天地万物,没有任何东西可以改变它。道德经第二是武章说,道法自然,其道的最高法则是自然,这里的自然不是我们现在说的自然界,而是用的自然一次的本意,自是自己事物自身的意思,然是这样的意思,自然就是自己如此,本来如此的意思。道法自然是说,道的法则就是自然,道不仅是万物存在的终极原因和根据,也是它自身存在的唯一原因和根据,它之所以具有这样性的特征和耐的功能作用,是自己如此,本来如此,而不是因为它自身以外有一个更高的存在对象,因此,老子自然的基本含义就是强调道的绝对性,除此以外,在道德经中,老子还从宇宙万物产生以前和宇宙万物产生之后的两个角度,产生了道的绝对性,在宇宙万物产生以前,道是这个世界上唯一存在,不会有任何其他因素,力量的存在而影响它,因此,道德绝对性表现为现在性为一性,道创生宇宙万物之后,道自身以外,虽然有分返复杂的云云万物,但道依然独立而不改,因为道不仅是宇宙万物的创生者,而且是宇宙万物的主宰者,天地万物都要无条件的负通道,效法道,而不会对道产生任何影响,更不可能驱遣意识道。道德经地三十二章,道长无名,福,虽小,天下木能臣,道优隐不现难以明撞,它是原始,致普的存在,道虽然优隐不现,苗小的让人感觉到他不存在,但天地万物却没有什么,能使他臣服,道德自因性决定了道德绝对性,道德绝对性决定了道德自主性,道德自主性决定了道德自由性,道德们说道实资本资根,自己如此存在状态时,就意味着说道是绝对的自主独立的存在。道家一派从装辞开始,将道德绝对性自主性自由性是为人生的最高境界。装辞一书开纵明义第一篇纪位消耀有,消耀有是一种人生态度,人生境界,独装人要效法道,就要摆脱明御力等现实的几半,实现像道一样的无千无话,无祖无外的高度独立自主的生活境界。在装辞的眼里,世俗质人失去了自己的本性,忘掉了自己的初心,实时受着自身以外的公民力路等身外之物脱类,处处受着他人社会的种种因素和势力的制约,委辈了大道招致的生存境界。人的理想生存境界就是道所招致的自主独立,自由的境界。要实现这样的理想生存境界,就得无功无名无己。超越一切人生社会等现实的束缚,率性而做,任性而由。作为一种人的精神层面的理想追求,装子的思想是极其深刻,能可贵的。但在此基础上,竟然逃避社会,隐居山林,一位名者保身,尤其忘掉作为社会一份子和家庭成员应有的社会担当和人生追求。这就走向了极端物入期徒了,这与老子主张到法自然的思想初中也是被当而迟的。在我们理解道的寒艺和特征以后,我们可以逐步发现道具为了成为宇宙本云的能力,但我们仍然需要统迫这层隔阔,老子把道作为宇宙本云的根据道理是什么呢?经过分析和篩选,我们可以龙统将其为规则为无点。道是天底之使,万物之物,万物之归宿,万物的最高法则,人类的道德行为准则,接下来主义享受。道是天底之使,老子认为,道之所以成为宇宙万物的本云,是因为他熊剧于天底之仙万物之上,道德经第二是五章,有物混成,先天地生,寄西了西,独立不改,周形而不代可以为天下母。老子说,有一个混然艺体的东西,在天底形成以前就存在了,他无声无息,空谎续舞,他不依然任何外在因素而独立存在,不抽任何外在影响,他寻谎往复的运行,而永无停息,他就是天地万物的本云,为了说明道是万物之上的宇宙本云,老子更是突破当时的思想极限。道德经第四章,五不知谁知子,向地知仙,老子说,我不清楚道是怎么产生的,大概在天地以前就存在了,凡是凡物有此必有富,有果必有因,五不知谁知子,并不是说道上面还有更高解的存在,而是说沿着试试万物存在的英国链一层一层的命流追溯,追溯到道这里时,就到了英国链的顶端,以上在乎更高的因缘存在,因此,他是天地万物存在的第一因,中极因。向地几天地的意思,中国老百姓后来俗成为老天爷。老子以假扇的语气说,假如真的有天地,那么道原在天地之前就存在了,老子虽然没有否定天地的存在,但明确已道代替了天地的本源位置,在老子看来,天地根本不是宇宙的本源,道才是宇宙的本源,万物的歧视,而这种思想,在当时已经突破了所有人的认知,甚至遭到极端的牌制,道德经第一章,无名天地之使,老子经常用史词称道,也都是为了强调道在天地之前,万物之上的先在性,不断佐证道是天地之使,道是万物之母,道作为宇宙万物的本源,它同时具有创生性,是天地万物生命的给予者,是万物存在的总根据,为了说明道的创生性,老子常用母笔于道,道德经第一章,无名天地之使,有名万物之母,无可用来表述天地混沌未开之际的状况,而有则是宇宙万物产生之本源的命名,道德经第二十章,我独义于人而跪使母,我之所以与众人不同,是因为我在权利以赴的探索万物的本源,与生命的真相,我是谁,我从哪里来,要到哪里去,在此基础上,老子竟然用母于子的关系,比于道于天地万的关系,道德经第五十二章,天下有史以为天下母,老子说天地万物是有本有史的,这个作为本史的东西就是天地万物之母,为了说明道具有创生万物的功能,老子还把道比于为于子的生之气,道德经第六章,五神不死是为玄品,玄品之门是为天地根,连连若存用之不情,这个激空虚又神秘莫特的道士无史无中超越生死的,他好像玄妙的辞性生之气,天地万物都是从这个神秘的生之气之门中发出来的,他是天地万物的总根源,道士连绵不断的永恒存在,他创生万物的功用无穷无尽,总之道士于周万有生命的给遇者,不仅是天地之使,而且是万物之母,道士万物之归宿,老子认为万物不仅生遇到,而且最重要富贵遇到,道德经第十六章,志虚极,守静独,万物并做无以关富,福物云云,各富归习根,老子说面对一彩分成的宇宙世界,让心灵保持虚荷静的志籍独定状态,我特别注意观察一个现象,富,富就是反富的意思,官富就是观察万物从无到有,最终又回归虚武的运动变化规律,道创生的云云重生万物,当走完各自的生命力成,最终都要回归到万物的本源,万物富贵于虚武的思想也表现在下面一段话中,道德经第二十五章,大约是,是约远,远约反,因为道运含着无限能量,具有生成天地万物的无限可能性,所以老子将道又成为大,道德能量大到极限,他就要是,是的,直接意思是离去,这里的事继续道德能量释放,又指道创生万物起万物脱离道德虚武性的过程,万物从虚武的道征产生后,见见脱离的道德虚武性,应有了最初的物质特征,这是大约式的含义,随着万物成长壮大不断发展,最终完全脱离了道德虚武性,而变成了纯粹的物质性存在,这时候万物的性质特征距离道德虚武性的本初状态,就更加遥远了,这是世约远的含义,但是道德物级必反规律的制约,任何事物不可能沿着一个方向永远直线发展下去,远到极限,就要返回他的元初时状态,所以说远约反,反到哪里呢,富归虚武,返回道德母体,道是万物的最高法则,道作为天地万物遵循的总法则,天地万物都应该效法道德规律,这是冠川道德经始终的基本思想,与此相关的言论在道德经中比比皆是,道德经第25张,人法地,地法天,天法道道法自然,老子说,人的存在要效法大地的运行法则,大地的运行要效法整个宇宙的法则,宇宙的运行要效法道德法则,而道德最高法则就是自然,总之,天地人与万物都要效法道德自然法则,道德经第14张,只古之道已遇经之有,能知古史是为道记,这是说,只守自古其经永康不变的道德规律,是为了价欲应对当今之万事万物,能动习宇宙万物产生的原始道理,并以此作为人与万物的行为准则,这就是天道的普遍规律,道德经第73张,天之道不争而善生,不言而善应,不赵而自来,产然而善谋,天往回復数而不失,天道的规律是不争而善于得盛,不发号失令而万物击击响应,不召唤而万物自动规顺,显示安然而善于仇策,道就像一张广大无边的法网,引然不显却没有一点漏事,道是人类的道德行为准则,老子总论天道是为了产民人道,作为宇宙法则的道落实到人间,就成为有天道而领悟到的人类,应该有的道德规范和行为准则,老子将天道引身到人间社会,告记领导治理下属因尊巡的理念和法则,以及一万人因而的厨师态度和原则,道德经第81张,天之道,立而不害,胜人之道,为而不争,这说天道的规律是有利于万物而无害于万物,胜人的行为法则应该失手而不争夺。道德经第37张,道常无为而无不为,喉王若能守之,万物将自话,这说,天道永远是顺人自然的,然而没有一件事不是他所为,因此喉王如果能迟首天道的法则,万物就会自生自涨。道德经第77张,天之道其由章公余,高者一知,下者举之,有欲者损之,不足者捕之。这说,天地自然的规律不正向拉功事件的道理嘛,显卫高了就把它压低一些,显卫低了就把它抬高一点。多余的就加以前少,不足的则给一补充。天地自然的规律,总是减少有余用来补充不足。老子认为人间社会也应该效法天地自然规律,均平复等跪践,实现大同的社会理想。然而,他看到社会的现实却不知这样,统治接近逆天伟地,疯狂搜刮名指名告,残酷播学贫困者本来很少的财富,而用来供奉富有的权贵。于是老子感开说,熟能有余一封天下,唯有道者。谁能够把多余的财富拿出来,就几天下贫困者,只有见行道的胜人才能做到。概括以上论述,我们可以总结出老子知道有三重基本含义,这就是宇宙本言知道,宇宙规律知道和人生社会知道。总之,老子思考宇宙本言的问题,其根本目里不知从认识论的角度,单纯探索宇宙的本真实相和宇宙万物得以生成的基础物质,而是从价值论的角度,尋求万物存在的理想境界,按所天地人的本真关系状态,从而为建立人类普遍的道德行为准则,人类社会的理想饭食,人类应追求的最高价值理想而提供中级的提论义,依税。这个中级根据就是道,道就是宇宙的本体,万物的主宰,一言一必知,道是天人合一的整体境界,这是老子宇宙哲学的重要特色,也是中国传统哲学不同于西方传统哲学的民族特色,是绝对的人文关怀,向制者老子之境。好了,今天关于道的分析就结束了,到也买下期见。中说,上古之人春秋皆度百岁而近中其天年,时至今日,物质生活如此丰富,我们法而受命缩短,这是为何。起看合爱的哲学家老子是如何讲解养生之道,解密上古常受之密。大家好,我是新人阿布主梅头娜的阿星,接下来我们来聊一聊养生。老子可能是一个统计学家,他对古往进来人们的生命状况做过一次意味生长的统计,道德经第五十章,生之图石有三,死之图石有三,人之生,动之于死地,亦石有三。福何故,以其生生之后。老子认为,天生常受的人在整个人类中大概占十分之三,天生短受的人在整个人类中也占十分之三。这两类人或常受或短受,仅仅是自然的常受和短受,与是否善于养生无关。还有一类人本来可以常受,但由于不懂养生之道而望做非为,导致遭遭走向死亡,这类人也占十分之三。这类人本来可以常受却过得死亡,原因合在的,因为他们过度后代自己的生命了。这句话是老子对世人无知的諷刺。以上三的人合起来占总人数的十分之九,还有十分之一,老子没有言己。这是只哪类人呢?不言而语,这十分之一的人才是真正懂得养生之道的制者。那么,在老子心目中,什么样的生命状态是最好的呢?道德经第十章,在营破报意,能无离忽,团气制柔,能如阴耳忽。人的生命活力表争就是形语神的和谐统一,一旦形语神分离,就意味着失去生命活力。人的生命力程中,阴耳阶段的生命最旺盛,因为阴耳的形语神实现了最高级的统一,出生的阴耳经古柔弱,全头缺握得很牢固,出生的阴耳整天好哭,但喉咪却不会杀呀。这些都是完全生命状态的巨想化,因此在老子眼中,阴耳的生命状态是最好的,因为阴耳阶段是整个生命力程中,形语神最为何些统一的阶段。而这不仅是老子的养生原则,也成为后来终于传统一学养生和治疗的基本原则,终于的四大治疗手段,编真纠要,都是通过降火去热,或出汗去失,以恢复身体各个技能和整体技能的阴阳平衡。在我们找到最佳生命状态之后,接下来我们需要思考如何随着年龄增长,人能保持阴耳般的形神状态。老子认为,保持阴耳般的状态是不可能的,但是我们可以不断接近,我可以保你长命,但不能保你百岁。关于养生知道,我们需要做到三点,养神,回归阴耳本能,更物人之本质是生命而不是物质。养能,珍惜生命能量,杜绝物质追求上无位的经历消耗。养行,保持自然需求,反对过渡的物质感官的外界刺激。接下来我们一探究竟,养神,不知道大家是否有注意过阴耳的自我保护意识,其实,阴耳阶段是人类生命中最吸命的阶段,阴耳会害怕任何对生命造成威胁的事情。而随着年龄的增长,我们却逐渐迷失在茫茫世界中,相比于生命,我们更追求金钱。而这种追求可能一直持续到死去,我们距离阴耳的状态也见行见远,毫无养生知道可言。老子基于对阴耳和对成人的观察,对我们提出了精神层面的两个中告,一是众内亲外,道德经第44张,名与深属亲,深与或数多,德语王属病,甚爱必大废,多藏必后王,故之足不辱,知之不代,可以长久。作为身在世俗红尘的普通人,我们早已迷失自我,很难分轻和为内外,再加之如今越来越多的快餐师大脑刺激,让我们无法抵御诱惑而一位追求物质享受,无结智的放众自己的欲望,忘掉了人的本质是真息和体验生命,所以老子才会访问,名声和生命相比哪样更亲近,生命和前才相比哪样更贵重,得到名力和喪失生命哪样为害更大,过分的令息,反而会付出更大的耗费,过多的残惑必定会遭制惨中的损失,所以知道满足就不会受到驱逐,知道世可而止就不会带来危险,这样才可以保持长久,知识是对人的行为的限制,其无论追求什么,要世可而止不可走极端,而知识关键在于知识组,极对遇望的理性控制,唯有知识才能知识,也就是真正懂得了珍惜的奥义,二是无声,道德经第13章,五所以有大患者,唯无有声,极无无声,无有何患,人生之所以遭遇各种祸患,都是由遇望之声而引起,如果能意志或彻底消除遇望之声,怎么会有兇险祸患呢?老子认为,内语外,误语声都是相对而言的,只要有声存在,外界就必然会对其发生作用,依然想要真正摆脱外部的脱蕾和亲害,最彻底的方法摸回于无声,也就是清楚砸念遇望,道德经第7章,天地所以能长期久者,以及不自生,不能长生,天地所以能长久存在,是因为他们不为了自己的生存而自然的运行者,所以能够长久生存,人生之所以有许多麻烦和祸患,既因为我们有生存压力,更因为我们有遇望之声,如果没有这个声,消除了内语外,误语声的对立,外误无所加烟,患又从何而来呢?这的确是一种最彻底的方法,然后老子所谓无声,并非不要身体和生命,它只是一种对待生命的独特态度,无声的态度反而会收到存身长生的效果,反而能很好地保全和护养生命,因而无声乃是存身,成其思的有效手段,这就是养生的变证法,也是无为而无不为的思想,在养生领域的运用,只有无为才是最高最好的为,接着老子说,听说善于养护生命的人,在陆地上行走不会遇到西牛和老虎,在战争中不会受到沙伤,西牛用不上他的脚,老虎用不上他的转,冰气用不上他的认,为什么呢?因为他从不忘作废为,不是自己至于危险的境地,这就是老子的养生知道,从因而中来到承认中去,我们逐步找回最原始的生而为人的本能,注重生命体验,忘掉物质追求,远离因为物质利益而让你自己生命至于危险的境地,养能,因而虽不能言语,也没法深度思考,但这种状态反而让他们节省最多的能量,老子的养生理论中还运含着结能养生的思想哲学,道德经地五十九章,致人是天末若色,福为色是为祖福,老子说,无论是致理人世还是养护身心,没有比爱惜经历更重要的,这段话中色,指的是爱惜经历,他包含了老子的结能养生知道,色的行为告诉我们,人的生命能量有一个横定的预值,而不是无限的,一个人到30岁就耗尽了全部的生命能量,意味着他只能活30岁,50岁耗尽全部的生命能量,意味着他只能活50岁,如果他在九十多岁时,人为耗尽生命能量,意味着他可能会活到100岁,生命就像一只蠟燭,然少得越快,熄灭的越早,所以人要学会珍惜积聚自己的生命能量,不要忘作非为无谓的耗费,这里引出老子的根深底雾,长生九世知道,他认为珍惜积的经历,才是真正的长生知道,这里的长生九世,很容易使人联想到后世,道教所精心地道的长生不老知道,其实这两者之间有着本质区别,道教所谓长生不老,是指肉体的永生或成仙,而老子的长生九世,不过是严严一受的意思,而绝无长生不老之意,老子关于长生的思想,可以从两个层面解读,从个体的石油生命而言,老子认为天下万物生于有,即作为个体的石油生命,都是由一年二七聚合而成,石油的生命按照自然的规律由弱道状,由状而衰直到消亡,可见,作为个体的石油生命是有限的存在,所以不可能长生不老,从不同的生命形式存在的关系而言,宇宙间的不同生命形式是一个不断轮回转化的无限过程,万物从续物中产生,变成石油的生命形式,石油的生命形式衰往后,富归道的母体,再次变为续物的宇宙能量,在道的作用下,续物的宇宙能量又演变成新的生命形式,如此巡换往复用不止吸。这个意义上的生命是永恒的,是长生不死的,但这是只宇宙生生不以创存的规律,而不只只同一个生命形式的长生不死,可见,将老子的长生久世之道,理解为长生不死之道,是对老子思想的歪曲,养行。因而提闹,他竟竟是因为恶了,所以吃饱了就会带着微笑寒睡,因而不太明白各种三天苦拉的自己,反而更喜欢无味的食物。在成练的世界中,我们会去追求各种每为刺激,但随着健康理念的深入,我们也会接受到各种养生理论,例如节食、节信语等等。因此形成两大阵营,一类是极度追求各类美食的,一类是极度追求修身养行的。老子则其中,他主张养行,但他又与现行的养生理念完全不同。他肯定人们对食物和幸运的自然需求,但否定了为了追求食色感官刺激而去食色的欲望。道德经地十二章,五色令人募忙,五音令人二龙,五味令人口爽,五色五音五味代表刺激人们身体欲望的各种物质幼火,爽是差失违背的意思,五味令人口爽,是说过渡追求各种美味的享受,就会使位觉受到损伤,不再有好的胃口。表面上看,老子似乎完全否定了人们对五色,五音五味等物质幼火的满足,其实非野。对人的自然性需求和物质幼火,老子的完整思想是,为父不为目,故去比去死。为父是指人们对生命的自然需求或生存必须的基本物质条件的满足,为目是这超越了生命或生存的自然需求,纯粹出于感官自己的和想乐的贪雨,例如,可而隐,既然时以及幸运的自然满足就是为父。而在满足了正常的时,色欲望的基础上,单纯为了时事的感官刺激,而无修指的追求时事就是为目。老子主张去比而去死,其他在充分肯定人们正常物质幼火的前提下,否定人们非分的物质贪雨。老子之所以否定人们非分的物质贪雨,是因为过渡的物质享受不但不利于强身健体,而且会抢害生命,道德经第五十五章,老子说,一生约强,也是这个意思。其过分增议身体享受,就会有灾阳。一生表面上是重生,其实也是亲生。总之,关于养行身体方面,老子的结论是,以为无为,事无事,为无为。为无为就是以清淡无为,为美食的意思。这里的美为,不只可口有为,而是指最利于养生的隐食或喷调方式。追求色香味的过渡喷调,激破坏了隐食过辉的营养成分,又刺激了人们抱怨抱怨的奢狱,使人们一望了吃饱渡的隐身目的,而一位放大欲望狂隐抱餐。二,服为无以身为者,是嫌疑贵生。意思是说,我用那些不追求身体想的的人,才剩过那些对身体疯养失质的人。这是老子的养行之道,我们逐步找回那种吃饱就能微笑入睡的状态,而不再去一位的追求更多的感官自己,让自己的身体始终处于低压状态。老子的无为思想,虚静论隐身到养生领域,都可以隐身出结能养生的客观意涵。这个意义上的无为就是否定和消除一切好费行体生命能量的旺作非为。这个意义上的虚静就是恶指一切好费精神生命能量的捨遇之心。道德经第46张,故之足不如,知止不代可以长久,所以说懂得满足就不会受到趋务,懂得试可而止就不会遇到危险,这样才能保持住长久的平安。故之足之足长足以,所以说知道什么地步就该满足的人,永远是满足的,也都可以在这个意义上来理解。汉代斯马弹,论六家药址该扩道家学说药址时说,道家使人精神专一,动何无形,善足万物。斯马强也说,凡人所生得神也,所托者行也,扶神大用则杰,行大老则必,行神骚动,遇天地长久,非所文艺。可为身得老子结能养生思想之指意,老子的智人是天末若色,运含的结能养生之道,虽然只是其养生理论的思想盟牙,但它是原子于对生命本质的深刻动见,到处了长生久吃的真地,因此被后世不断继承发养,形成了远远流长,伯大精神的虚敬养生论。不仅如此,老子关于生命的本质原理的深刻动见,以及他养生思想,都成为中国传统医学最早的思想资源。这些思想在后来的皇帝内金中得到进一步发言光大,成为中国传统文化的重要组成部分。好了,今天关于老子养生之道的内容就讲是完成,到人们下期见。那么,玄之又玄究竟是何意,我们该如何使用三大天道规律呢?接下来,进入正文,混顿之死。装子曾经虚过了一个精彩决论的混顿之死的运言故事,用女人化的比法把玄之又玄这个抽象深澳的道理讲得即形象生动,又风取幽默。南海之地为书,北海之地为呼,中央之地为混顿,书乎本意都是时间级位短暂的意思,这里比与现象世界中有限具体的书,也比于世苏之人,而混顿比与无限,永恒的道。书与乎时不时的相会于混顿的住所,混顿总是非常因情后代他俩。有一天,书与乎一起商量如何报答混顿的大恩大德,说,人人都有言而口鼻等齐敲,用来试听试细,唯独混顿没有,混顿太不幸了。他们适者为混顿遭害齐敲,让他也能享受到试听试细等不同感觉的美妙。于是,书与乎每天给混顿遭害一个恐敲,遭了七天,混顿终于开了齐敲,但混顿也因此死了。这个故事实在是太妄子了。书与乎作为现象世界具体有限的存在,他们已经习惯了一彩分成,品勒繁书,处处对待分裂的世界,认为这就是唯一真实的世界,而他们不懂这个现象世界的本质,恰恰是混顿一体毫无分别的。因此,看到混顿之地没有言而鼻口的分化,不懂视觉听觉秀觉位置的齐妙差异,以至对美与丑,名语案,相与臭,干与苦等等对待差别混然不知,于是自以为聪明的以现象世界的分别对待为犯事,重新塑造混顿的形象,结果不但混顿死了,更严重的是,他们把这个世界赖存在的本体,根基特理消解了。于是,这个现象世界便失去了存在的中级根据,变成了无缘之水,空中罗格,竟然使天地万物失去了生命的原动力,云云重生的发展也便失去了统一的法则和规律,此时,道友你可能会开始思考。故事中混顿之死只会让世界更加平衡,怎么会导致万物原动力消失呢?从表象上来看,我们肉眼可以看到的世界都是从无续变得有续,所以有续才是正道。而实际上,变成有续之前,就因为无续的存在才会有各种运动,各种平衡才能实现有续。同时,在社会的有续发展到极致的时候,自然然的就会开始无续,然后又开启新的运动。正如同三国引一开篇,分久避合,何久避分一个道理。万物原动力就是混顿和无续,如果混顿以死,那么世界将不复存在,这就是道。那么,何味道的混顿性呢?道德经第一章,此两者同处而一名,故未之旋,旋之又旋,重妙之门。此两者是指道,即使无又是有,全职的意思是无于有这两者,来源相同而名称相义,都可以称之为旋妙和身远,但它不是一般的旋妙和身远,而是旋妙又旋妙,身远又身远。是宇宙天地万物之旋妙的总门,以常人的经验,由</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>道德经意公子</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2024-12-20 20:03:37</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>我們講妝子、老子、到家的核心思想就是無為而且我發現這幾年來越來越多的西方人也開始講無為無為真的是一個大職會那到底什麼叫無為呢?關於無為我們在路妝子的時候其實也講過兩期但我認為他還值得我們再延展一下妝子達成裡面講過一個游泳的故事我認為他是對於無為非常好的詮釋他虛擬了孔子的故事說孔子在旅良觀光看見一個鋪布2、30張高有種飛流之下3000尺的感覺鋪布衝刷而起的水花4件奔騰一流就是40里連圓駝、魚鞭這些極耐水的生物都不敢在這代游泳可見水流是很突然急的水深危險、切物靠近但孔子遠暈的就看見有一個壯年男子在水裡孔子就以為他要尋死就趕緊派他的弟子順著水流下去找他就沒想到這個男子就在水裡前遊了幾百步的距離然後幽災、幽災的唱著歌就從水裡出來了孔子以為他是鬼然後就追上去發現原來是個人於是孔子就耐心地跟他請教說你有那麼厲害 有沒有什麼門道然後這位大哥就說其實沒有什麼我就是做了一件事叫順勢而為他說我跟著炫窩一塊兒塵到了水底又跟著向上的泳流一起浮出水面我順著水勢而不做任何對抗這就是我的辦法我們可能或多或少都看過一些逆水如何自救的視頻答案大多都是一樣的都是讓我們說首先不要慌放鬆全身然後慢慢的身體就會自動飄浮上來這時候你要把頭抬起來浮出水面如果此時此刻我們是越緊張、越對抗有可能就沉得越快你看在生活裡面當我們遇到那些讓我們痛苦、忙然及手焦慮的問題的時候好像道理也都是一樣的首先就是不要慌、放鬆而放鬆的目的是什麼呢是為了消解那種對抗感一個是跟世界的對抗當我們從身體到精神都是高度緊繃的狀態的時候我們跟這個世界就是硬碰是一關心要麼你,要麼我你但不管誰贏都是殺敵一千自損八百放鬆另外一個更重要的目的是消解和自己的對抗其實我們很多時候活得太久解就80%的能量都是自己再跟自己對抗一個聲音告訴我們說很拿起吧另外一個聲音說放下吧就腦海裡面好像一直有兩個小人在打架、在互相爭奪這種主導權別看外界好像什麼事情都沒有發生但是事實上在我們的頭腦裡面已經經歷了一場血與興風的大戰這就很像是手機電量一樣80%在自己的腦子裡消耗掉那我們就只剩下20%去應付這個時間所以什麼是無為呢無為更多指的是我們內心的狀態就是不內耗說得容易啊就不內耗自己該有多難啊不內耗就是你讓那兩個小人停一些下來放手允許一切的發聲我這樣講好像覺得是一件很容易的事情但是你要讓我們對自己放手對頭腦放手、對命運放手彈劾容易就這種鬆弛感它不是平空就能夠產生的就它不是因為知道了這麼一個道理我們就一定會產生鬆弛感其實很多時候鬆弛感的發聲是因為經歷過七慘的絕望還記得那句話嗎知不可奈何而安知若命當我們面對一個人或者一件事情前走後走左走右走都走不出困境我們掉進了那種無解、無望然後無可奈何的無助感理的時候只有當面對那個最七慘的絕望我們才會告訴自己說要不然算了吧我真的就是很多時候遇到這個事情走到死不通裡我就會反問自己於話我說沒有它你會死嗎你想想不會啊那不就得了嘛你知道那一刻你突然間一下就放下了期待放下期待其實也就是放下直念你知道那一刻我們產生了一種什麼樣的力量嗎叫無欲則剛你不怕失去了你不一定非得要了即便要不到他也摧毀不了你了就那一刻我們內心的那種力量感就真正產生了到得經理說聖人無為、顧、無敗、無止、顧、無失說到這裡我們可能會有疑問說那你講的無為是不是就是什麼都不做然後甘做在那裡等待命運安排的結果不是的無為說的是心態有為說的是做法無為心有違法我們還是回到裝備的這個故事裡啊難道這位大哥什麼都沒做嗎有的他所有的經歷都是用來觀察和感受水流然後在進入炫窩的時候跟他同屏就像逆水自救的時候我們其實也不是什麼都不做而是要深吸潛呼這樣使得我們廢部有多餘的機器從而讓身體更容易的漂浮起來所以不要慌、放鬆消解對水的恐懼和對抗這是無為心觀察和感受水流調整呼吸和姿勢這是有違法最後還有非常重要的四個字叫等待時機有的時候不是因為這個事情一定辦不成而是因為時機不對如果你不著急於這一時如果你相信生命本體的智慧那麼在生命這場馬拉松林你就一定能夠笑到最後所以無為真的是大智慧無為心就是把我們的生命能量從那些糾結和直念當中收回來就不再對抗自己也不再對抗世界只有不內耗自己我們才能夠一百分之百的狀態去面對世界以無為心形有違法而此時的有為才是電量滿格的有為</t>
+          <t>第七章天长第九天地所以能长且久者以及不自生故能长生是以胜人后期身而身先外期身而身存非其无私业故能成其思这样一段从侍面理解上这个还是比较好理解的天长第九现在天长第九就把他描述主要是人的情感比如王菲长的格纳什么天长第九天长第九这个词最早就是从道德经出来了讲的是天地的状态咱们都知道独道德经的时候天地自然这些道其实是一个意思所以天长第九就是道德长九为什么天能够常地能够久就是因为他不自生他不会自己去谋各种各样的利益不自生故能长生所以解决了这个原因然后从这开始推击胜人这又是我们讲的叫什么天地胜人不是对吧反体胜人后面必花重点让你干嘛叫后期身而身先又是我们讲的一个什么这种取反思维对吧你为了身先你需要做的时候你往后转反而你能到前面去外期身而身存不要在乎自己的身怎么样适合出去你反而你的身就得以了保存然后最后感太一句对吧非其无私也故能成其死因为无私所以能成其死所以这个文字上没有什么太大的难点那么我们从内容上来大家一起来看一下第一天长地久天地所以能长且久者一起不自生故能长生这样一段其实的核心就是极与和创造德国有个非常著名的哲学家叫菲尔巴哈菲尔巴哈他说过一句名言叫做价值存在一起对象之中对吧什么意思我是老师我的价值在哪我的价值在学生学生牛逼了我自己不用说我自己的牛逼大家都会说我牛逼对吧我记得当年心动方有一个学校写了一个昭生广告写得特别好而是这么写就当年也广告法也不允许你海报上面写说压重了什么什么样的题目然后呢他们一开始写压中题目结果被投诉了他们转念一想写的叫我们从不说我们自己压重考题这应该是我们的学生走出考场时跟你们说的对吧所以你在这里就能够看出来叫价值存在一起对象当中所以我们在做很多的事的时候不要总是想着锁取这种想法是非常漏的对吧是什么是百姓和楚狗们会去考虑的问题他不是什么人要去考虑的问题锁取锁取我要我要我要不是这样应该是我给我给因为你要这件事情不代表你有价值只有你给人家要才能代表你有价值对吧就是这样一点所以价值存在期对象之中在很多事上如果你总觉得遇到了很多的咖点你转念想一想你有没有极与什么你有没有创造什么这个宇宙不会因为你锁取变得更好这个宇宙会因为你创造变得更好你不断地在极与和创造就代表着你自己怎么样自然就很长久因为你不自生不能长什么对吧这是我觉得理解这句话非常关键的一点那包括比如说上次我们给大家讲的太傻天属里面是不是反覆给大家强调的一件事情是什么爱与服务你看天下为什么我们在说就是到最后的时候叫道术未列天下道术未列就是所有的东西它没有什么样的分裂它是一体的就大家讲得到最后是一件事对吧你比如说抢爱与服务这个词其实是典型的基督教的用法对吧拉分测试典型的基督教的说法但是你看道德经当中也在讲对吧天地所以能长且久者一起不自生不能长生它就是野善与服对吧国家讲什么讲是得对不对如家讲的比如孟子舌深舌身取义舌身取义对吧所以你发现大量的都是在做这个舌的动作大量才做舌的动作所以人锁取是一个非常低能量的表现因为他在锁取这件事情当中本身就暴涵着就暴露了他自己的用缺法所以你每次在做事只要你是有缺法感这个事大概率不可能做成所以一直有人在讲说我要赚钱我要赚钱这辈子这个人不可能赚到钱但相反这个人说我要做事我要做事我要做事这个人一辈子他的收入不太会差讲到这大家就能明白根本不是在讲鸡糖对吧也不是在花笔更不是脾胃而是什么宇宙运行的大道所以大家为什么要去读道德经就是要去把握宇宙最底层的这种运行的原则与此同时我们要取法自然对吧我们要去关道要加入其主是吧所以以后遇到各种各样的事难解之处想一想我给了些什么我创造了些什么这一点非常关键第二我们要了解道德经当中手段和目的的关系道德经牛逼之处在于他跟这个儒家不一样道德经啊他劝你向善他劝你做好事他并不是说你如果不做好事你就是个小人他没有加道德的这个绑架他跟你讲什么他跟你讲规律他告诉你你去服务你去创造你去奉献你的爱你去能够不自生这些所有的事情到最终是一个多营的局面别人也好我也好这是啥这是智慧什么儒家讲的是什么呢宁可我不好我要让大家好这是什么这是道德对吧法家谈的话题是什么你们好不好我不管我要好这是什么这是权力所以你能看到不同的甲台用的事情就是不同的方法对吧所以我们为什么说老子的智慧更加是高密就是在智慧这件事情上老子的智慧更加是高密儒家的智慧孔子的身上实际有很多老子的影子我们在开篇给大家讲道德经的时候说道德经一分为三是吧装子拿走了道德经当中的道甲部分成就了其自由孔子拿走了道德经的部分成其为道德然后寒非拿走了道德经当中的预议人之数所以成其为权力自然而然全部你万法规中谈道德经的这个部分就是一种了解宇宙大道运行的智慧智慧是啥我是说我不好我要让你好而是说我们一定能找到一种方式是你好我也要让你好我也好我让你好是达到我自己好那什么手段所以在这里就有一个非常有意思的问题就在于我能不能让自己好道家的智慧就告诉你当然了但是你要注意手段在哪手段在于你也要让大家好你就能一直一直地好下去你只要不断地让大家好大家就一定会让你好这是宇宙大道的运行规律是从天地当中我们效法得来对吧但是如家不是如家就是如家有一种道德上的虚见和修愉感就是如果我好了别人怎么看我对吧最好的一种状态是我不好让你们好你们总不会再说我些什么了吧但问题在于你真正进入社会之后会发现如果你不好为了让他大家好你自己不好大家也不会放过你或者说大家也根本不会再一对吧然后很多人就从如家转面成法家了我怎么不管你们好不好我先好了再说结果发现第一自己不一定能弄得好第二即便能好了很快也被推翻下去了所以道家智慧应该这么讲是中华文明当中智慧能向全球给他们好好说一说的东西中国的特点是什么你们我一定要让大家好但是我最终的目的肯定是我自己也对好是吧不毁必自己想好的这件事完全自恰不毁必不像如家就讲什么我自己好了不太好说是吧道家没所谓所以你可以看到在这里目的和手段就分得很开目的是什么目的是长生手段是什么是不自生这件事情上要了解道德经经常会提的关于目的和手段的问题这就是真正的智慧的人有知的人回去选有知的人回去选好那同样这段话你自己就后面就能督动了是以胜人后期身上身先外期身上身存非以其无私也固能成其死第一点点形的天地生人死为模式独道德经独道这个天地生人你就知道这叫效法天地我们要效法生人生人模式照着做就行了第二在这里你可以看到有相对的二元关系出现了每次一旦独道德经发现了二元关系道德经想都不要想他的手段一定是什么破二元他一定要告诉你二元到最后的时候是什么是合一的是统一的胜人是一报一为天下使人对吧他一定到最后是合一是统一的要破二元而拥俗之人看待世界他永远是一个二元的关系但是独岸道德经寻求天地之悔的人永远是合一的之悔他要破二元这是第一点但今天我们又看到了另外一个视角关于二元的视角叫用二元只有你能先破二元你才能用二元你如果自己合一不了你就永远是站在一边那一边永远是你的敌对面只有你把这所有的东西看成是一体的而这些勇人看不明白你就可以利用二元解决问题了那这其实就是手段勇目的你想一下任人后期身而身现请问这个世界上能不能所有的人都成圣人如果换的是佛家我家就会讲每个人都能成佛人人心中自由佛心是吧但是你放到道家你仔细一读进去你发现道家的看法这是所有的事情咱们就像自然学在自然界当中它就是个正态分布极蠢的人少数极牛的人少数绝大部分人在中间而不管是极蠢的人还是在中间的这群人他们一定做不到后期身而身现他们一定选择的路是身现但到后面的时候却变成了后期身变成了身后对吧这种选择先身的选择是什么是百姓的选择以后百姓的选择是吧它不是真正高手的选择高手的选择一定是什么后期是这是什么这是手段我要借手段达到的目的是什么是身形道德经是非常强调目的的而且在手段上要跟百姓区别开来你们往这排队我排什么队有什么好排的我另开一道对吧这点非常关键怎么这个流没有了又有了OK没问题对吧就是这所以能明白这些事情之后你就会发现目的和手段完全不一样要采取不一样的方法没问题吧没问题好这一点把它长无处是吧所以破二元是基础用二元是方法真正的高手是先破二元然后再用二元好我们再来看思这个字当然从字面上的我们可以把它理解成字识对吧无识字识非一其无识也固能成其识但是如果我们真的深究这个道德经济的思这个字你会发现里面的门道还是很深的为什么这么讲呢这个思这个字是禁体字它不是中国的古代汉语用的字在中国的传统的三大古文当中加古文金文小钻这个思怎么写呢这个思就这么写就没有和字旁它就表示死OK和字旁后来加的是什么就是说咱是农业文明这地是我的加个和字旁但是其实这个思你如果再去看再早期的一些文现它这个思就是这一思就是一个横折把一点对吧这个就叫做一个脾折加一点这个字就念死就念死而后来才出现了和字旁这样的一个思这个思表示什么意思呢如果你去看古文关制它表示的意思叫字营这现在一看这字营晚上大家就互联网辞了对吧这是我的字营品甚至后来我们现在经常讲这是我的思欲发现没有啥意思我自己就可以完成一个必环的这个叫做死说白了我自识对吧或者用现在流行的话来讲叫内循环这个叫做死我自己依靠自己我不依靠于外务这个叫做死我管好自己的事这个叫做死而不是自死不是我们现在汉语当中这个自私的否定汉而是我管好我自己道德经得有一个非常重要的观点是什么叫小国寡民跟我们现在大国大名的状态不一样小国寡民啥意思不是说这个国家一定要小人说要少不是老子的观点就是他们你每个人管好你自己这个社会一定就好了这个社会之所以乱七八糟就是总是有人想去管别人的事对吧真正每个人能做到自扫门前血就不会有他人瓦上双这就是好的社会现在他们之所以乱七八糟就是总是有些人他不管利用利益的手段权利的手段道德绑架的手段要去干预别人的命运要让别人去衷于他所以你听到这以后你就能明白这个死其实在道德经理他未必是现在的自私的儿子而应该强调的是什么是自赢的意思自己照顾好自己自己管好自己自己对待好自己不给别人贴麻烦这个就叫做死那什么叫做非以及无私业不能成其死了说白了就是你不要去考虑那一些依靠别人的事情自然而你就可以自立了往这个角度上思考你就能知道实际这个死他并不是说我自己的利益不受伤害而是说我自己能把自己照顾得很好这个角度是吧所以有的时候我们经常会讲叫什么还记得吗叫能量回收对吧把去干预别人命运的那些能量收回来即便我们愿意去给但人家也不见得要要我们给了人家要那行我们在属于这个奉献爱与这个帮助是吧创造可以但是你给了半天人家也不要或者是人家要了人家不对你产生任何的反馈他自己没有变好那我们就要学会能量回收为什么因为我们自己首先要完成自我共能能量回收那能量回收来干什么呢非常有意思来看一看这个死我在网上夹一笔它是不是就变成了血呢对吧死这个字其实是什么是这一个我再加一笔这是不是就变成了腰我们讲那个腰肌的腰对吧然后我再往前加一笔很高表示天的这个位置它就成了血所以你会发现死这个字和血这个字本身就是什么就是一体的你怎么能血就是你首先要死我死是为了什么我死的目的是为了去探究整个生命的血的之中那什么叫做血是为我回到第一条对吧血之又血重秒之门我们说了这个秒是木子庞要干吗有内棍打到看这个内心当中的到对吧那你说我自己对吧那么多时间经历去想着别人的命运那么多时间经历一定要干成那些事那些事我浪费的时间经历我是不应该回收回来看什么看自己内心的小宇宙自养自己的灵魂反过来当你能够把自己的内心这些灵魂都给修养好了的话你真正去帮别的时候那就真的就是属于搬手维云 附手维予轻轻易帮人家的命运就发生变化对不对就是这一点所以万事万物管好自己能量回收管好自己所以不要总是去跟别人争不要总是跟别人去抢我们要学会后期身而身先外期身而身存要利用要知道破二元同样的道理我们要学会用二元这是一点那我们小姐一下第七章核心点讲了一下几个第一能量回收是自修的前提万事让你闹心的人闹心的事可以暂时不管对吧把他们从你脑子里清出去实际具就话说的本身你去想想他们在你脑子里吗不再也是你自己应生生把他们拉到你脑子里的你看你现在不就把夏老师拉到你脑子里了吗你不把道德经老子请到你脑子里了吗对不对这就是我们说的叫能量回收是自修的前提第二无私的意思是无所外衣我不依靠外物就叫做无私对吧所以无私的目的是私而私的目的是为了更高违度的合意我要去穿越我认知的权成我要去穿越我社交的权成我要去穿越我人生为了遇到的权成甚至说得再选一点我要穿越宇宙为了的选择我必须省出大量的时间和经历来进行自修和内观对吧他是不现于试的为什么呢因为他没有时间去干这些什么他需要把大量的時間經歷用在自己去跟高微度的生命去進行鏈結的過程另外還記得講說地球上修的最好的競爭是一頭經餘當然這個共參考未必是真但底底確確在別人身上滑廢時間去改造別人的命運這件事情然後通過改造別人的命運讓自己的命運變得更好啊這些事情是不是真的必須得怎麼去做你們可以自己去想一下很多朋友可能問說那蝦老師你出來講這個課你這個目的是啥其實還是逆了一些目的所以為什麼我一直說在直播的時候我要求大家一定要去跟我密切的配合和思考我們能更好的去把這個課上好的原因就在於這個課真的屬於叫做高數目用跟市面上的一些其他人講他們聽不懂不僅聽不懂他也生煩惱性我們也生煩惱性跟各位講大家能認同課間大家能交流上課極限安靜這其實就達到了一個至少在我們這一群人當中我們形成了死吧是這一我就記得當時我學泳春泉我的師叔梁少紅師叔他在珠海開權館他有個特別有意思的點就是成年人如果想拜師跟他學藝拜到他的門下館他叫師傅好茶期是三年才能拜入他的門下本過來如果是小孩很靈的師叔免費酒所以你在這你這能看到不一樣的點還是為了一個所謂的私而負不讓自己的能量好善因為很多成年人到那去去他到底是什麼樣的目的啊到底師叔也不想去費這個禁好茶三年這個人足夠有恆心免免若存用之不清已經基俊遇到了帶過來小孩那本身天然的道小孩甚至不收錢酒去傳播和繼承這樣的一個無學這就是真正的高手的高數其實是沒用的用錢把一些有煩惱性的人直接打來外面進來了就是認真的能夠做到前半我們剛才說的等一下就是你生人後期生而生些外期生而生存非其無私也不能成其死所以大家回去的時候自己仔細的去想一想這個私到底是什麼不是自私自力而是自贏對吧然後你做這種所謂的無私這件事情只是一種什麼手斷而而我不在乎名我不在乎力到最後的時候所謂的名利對我來講只是讓我能夠去做更高級修煉的一種養料也好或者資源也好或者是原材料也好的東西就是正前最後不是為了正前正前是為了更好的修煉的對吧你這麼一離急你就會發現可能正前這件事情對你來講你說不能說不重要但是你不會那麼太質於其結果因為正前已經變成了你做其他事情的手斷手斷所以無私也是手斷私也是手斷中其最後的那個死並不是自私自力的死而是自贏的理解到這一點結果好這是第七章第七章各位也可以再看一看這個原本</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>第七章天长第九天地所以能长且久者以及不自生故能长生是以胜人后期身而身先外期身而身存非其无私业故能成其思这样一段从侍面理解上这个还是比较好理解的天长第九现在天长第九就把他描述主要是人的情感比如王菲长的格纳什么天长第九天长第九这个词最早就是从道德经出来了讲的是天地的状态咱们都知道独道德经的时候天地自然这些道其实是一个意思所以天长第九就是道德长九为什么天能够常地能够久就是因为他不自生他不会自己去谋各种各样的利益不自生故能长生所以解决了这个原因然后从这开始推击胜人这又是我们讲的叫什么天地胜人不是对吧反体胜人后面必花重点让你干嘛叫后期身而身先又是我们讲的一个什么这种取反思维对吧你为了身先你需要做的时候你往后转反而你能到前面去外期身而身存不要在乎自己的身怎么样适合出去你反而你的身就得以了保存然后最后感太一句对吧非其无私也故能成其死因为无私所以能成其死所以这个文字上没有什么太大的难点那么我们从内容上来大家一起来看一下第一天长地久天地所以能长且久者一起不自生故能长生这样一段其实的核心就是极与和创造德国有个非常著名的哲学家叫菲尔巴哈菲尔巴哈他说过一句名言叫做价值存在一起对象之中对吧什么意思我是老师我的价值在哪我的价值在学生学生牛逼了我自己不用说我自己的牛逼大家都会说我牛逼对吧我记得当年心动方有一个学校写了一个昭生广告写得特别好而是这么写就当年也广告法也不允许你海报上面写说压重了什么什么样的题目然后呢他们一开始写压中题目结果被投诉了他们转念一想写的叫我们从不说我们自己压重考题这应该是我们的学生走出考场时跟你们说的对吧所以你在这里就能够看出来叫价值存在一起对象当中所以我们在做很多的事的时候不要总是想着锁取这种想法是非常漏的对吧是什么是百姓和楚狗们会去考虑的问题他不是什么人要去考虑的问题锁取锁取我要我要我要不是这样应该是我给我给因为你要这件事情不代表你有价值只有你给人家要才能代表你有价值对吧就是这样一点所以价值存在期对象之中在很多事上如果你总觉得遇到了很多的咖点你转念想一想你有没有极与什么你有没有创造什么这个宇宙不会因为你锁取变得更好这个宇宙会因为你创造变得更好你不断地在极与和创造就代表着你自己怎么样自然就很长久因为你不自生不能长什么对吧这是我觉得理解这句话非常关键的一点那包括比如说上次我们给大家讲的太傻天属里面是不是反覆给大家强调的一件事情是什么爱与服务你看天下为什么我们在说就是到最后的时候叫道术未列天下道术未列就是所有的东西它没有什么样的分裂它是一体的就大家讲得到最后是一件事对吧你比如说抢爱与服务这个词其实是典型的基督教的用法对吧拉分测试典型的基督教的说法但是你看道德经当中也在讲对吧天地所以能长且久者一起不自生不能长生它就是野善与服对吧国家讲什么讲是得对不对如家讲的比如孟子舌深舌身取义舌身取义对吧所以你发现大量的都是在做这个舌的动作大量才做舌的动作所以人锁取是一个非常低能量的表现因为他在锁取这件事情当中本身就暴涵着就暴露了他自己的用缺法所以你每次在做事只要你是有缺法感这个事大概率不可能做成所以一直有人在讲说我要赚钱我要赚钱这辈子这个人不可能赚到钱但相反这个人说我要做事我要做事我要做事这个人一辈子他的收入不太会差讲到这大家就能明白根本不是在讲鸡糖对吧也不是在花笔更不是脾胃而是什么宇宙运行的大道所以大家为什么要去读道德经就是要去把握宇宙最底层的这种运行的原则与此同时我们要取法自然对吧我们要去关道要加入其主是吧所以以后遇到各种各样的事难解之处想一想我给了些什么我创造了些什么这一点非常关键第二我们要了解道德经当中手段和目的的关系道德经牛逼之处在于他跟这个儒家不一样道德经啊他劝你向善他劝你做好事他并不是说你如果不做好事你就是个小人他没有加道德的这个绑架他跟你讲什么他跟你讲规律他告诉你你去服务你去创造你去奉献你的爱你去能够不自生这些所有的事情到最终是一个多营的局面别人也好我也好这是啥这是智慧什么儒家讲的是什么呢宁可我不好我要让大家好这是什么这是道德对吧法家谈的话题是什么你们好不好我不管我要好这是什么这是权力所以你能看到不同的甲台用的事情就是不同的方法对吧所以我们为什么说老子的智慧更加是高密就是在智慧这件事情上老子的智慧更加是高密儒家的智慧孔子的身上实际有很多老子的影子我们在开篇给大家讲道德经的时候说道德经一分为三是吧装子拿走了道德经当中的道甲部分成就了其自由孔子拿走了道德经的部分成其为道德然后寒非拿走了道德经当中的预议人之数所以成其为权力自然而然全部你万法规中谈道德经的这个部分就是一种了解宇宙大道运行的智慧智慧是啥我是说我不好我要让你好而是说我们一定能找到一种方式是你好我也要让你好我也好我让你好是达到我自己好那什么手段所以在这里就有一个非常有意思的问题就在于我能不能让自己好道家的智慧就告诉你当然了但是你要注意手段在哪手段在于你也要让大家好你就能一直一直地好下去你只要不断地让大家好大家就一定会让你好这是宇宙大道的运行规律是从天地当中我们效法得来对吧但是如家不是如家就是如家有一种道德上的虚见和修愉感就是如果我好了别人怎么看我对吧最好的一种状态是我不好让你们好你们总不会再说我些什么了吧但问题在于你真正进入社会之后会发现如果你不好为了让他大家好你自己不好大家也不会放过你或者说大家也根本不会再一对吧然后很多人就从如家转面成法家了我怎么不管你们好不好我先好了再说结果发现第一自己不一定能弄得好第二即便能好了很快也被推翻下去了所以道家智慧应该这么讲是中华文明当中智慧能向全球给他们好好说一说的东西中国的特点是什么你们我一定要让大家好但是我最终的目的肯定是我自己也对好是吧不毁必自己想好的这件事完全自恰不毁必不像如家就讲什么我自己好了不太好说是吧道家没所谓所以你可以看到在这里目的和手段就分得很开目的是什么目的是长生手段是什么是不自生这件事情上要了解道德经经常会提的关于目的和手段的问题这就是真正的智慧的人有知的人回去选有知的人回去选好那同样这段话你自己就后面就能督动了是以胜人后期身上身先外期身上身存非以其无私也固能成其死第一点点形的天地生人死为模式独道德经独道这个天地生人你就知道这叫效法天地我们要效法生人生人模式照着做就行了第二在这里你可以看到有相对的二元关系出现了每次一旦独道德经发现了二元关系道德经想都不要想他的手段一定是什么破二元他一定要告诉你二元到最后的时候是什么是合一的是统一的胜人是一报一为天下使人对吧他一定到最后是合一是统一的要破二元而拥俗之人看待世界他永远是一个二元的关系但是独岸道德经寻求天地之悔的人永远是合一的之悔他要破二元这是第一点但今天我们又看到了另外一个视角关于二元的视角叫用二元只有你能先破二元你才能用二元你如果自己合一不了你就永远是站在一边那一边永远是你的敌对面只有你把这所有的东西看成是一体的而这些勇人看不明白你就可以利用二元解决问题了那这其实就是手段勇目的你想一下任人后期身而身现请问这个世界上能不能所有的人都成圣人如果换的是佛家我家就会讲每个人都能成佛人人心中自由佛心是吧但是你放到道家你仔细一读进去你发现道家的看法这是所有的事情咱们就像自然学在自然界当中它就是个正态分布极蠢的人少数极牛的人少数绝大部分人在中间而不管是极蠢的人还是在中间的这群人他们一定做不到后期身而身现他们一定选择的路是身现但到后面的时候却变成了后期身变成了身后对吧这种选择先身的选择是什么是百姓的选择以后百姓的选择是吧它不是真正高手的选择高手的选择一定是什么后期是这是什么这是手段我要借手段达到的目的是什么是身形道德经是非常强调目的的而且在手段上要跟百姓区别开来你们往这排队我排什么队有什么好排的我另开一道对吧这点非常关键怎么这个流没有了又有了OK没问题对吧就是这所以能明白这些事情之后你就会发现目的和手段完全不一样要采取不一样的方法没问题吧没问题好这一点把它长无处是吧所以破二元是基础用二元是方法真正的高手是先破二元然后再用二元好我们再来看思这个字当然从字面上的我们可以把它理解成字识对吧无识字识非一其无识也固能成其识但是如果我们真的深究这个道德经济的思这个字你会发现里面的门道还是很深的为什么这么讲呢这个思这个字是禁体字它不是中国的古代汉语用的字在中国的传统的三大古文当中加古文金文小钻这个思怎么写呢这个思就这么写就没有和字旁它就表示死OK和字旁后来加的是什么就是说咱是农业文明这地是我的加个和字旁但是其实这个思你如果再去看再早期的一些文现它这个思就是这一思就是一个横折把一点对吧这个就叫做一个脾折加一点这个字就念死就念死而后来才出现了和字旁这样的一个思这个思表示什么意思呢如果你去看古文关制它表示的意思叫字营这现在一看这字营晚上大家就互联网辞了对吧这是我的字营品甚至后来我们现在经常讲这是我的思欲发现没有啥意思我自己就可以完成一个必环的这个叫做死说白了我自识对吧或者用现在流行的话来讲叫内循环这个叫做死我自己依靠自己我不依靠于外务这个叫做死我管好自己的事这个叫做死而不是自死不是我们现在汉语当中这个自私的否定汉而是我管好我自己道德经得有一个非常重要的观点是什么叫小国寡民跟我们现在大国大名的状态不一样小国寡民啥意思不是说这个国家一定要小人说要少不是老子的观点就是他们你每个人管好你自己这个社会一定就好了这个社会之所以乱七八糟就是总是有人想去管别人的事对吧真正每个人能做到自扫门前血就不会有他人瓦上双这就是好的社会现在他们之所以乱七八糟就是总是有些人他不管利用利益的手段权利的手段道德绑架的手段要去干预别人的命运要让别人去衷于他所以你听到这以后你就能明白这个死其实在道德经理他未必是现在的自私的儿子而应该强调的是什么是自赢的意思自己照顾好自己自己管好自己自己对待好自己不给别人贴麻烦这个就叫做死那什么叫做非以及无私业不能成其死了说白了就是你不要去考虑那一些依靠别人的事情自然而你就可以自立了往这个角度上思考你就能知道实际这个死他并不是说我自己的利益不受伤害而是说我自己能把自己照顾得很好这个角度是吧所以有的时候我们经常会讲叫什么还记得吗叫能量回收对吧把去干预别人命运的那些能量收回来即便我们愿意去给但人家也不见得要要我们给了人家要那行我们在属于这个奉献爱与这个帮助是吧创造可以但是你给了半天人家也不要或者是人家要了人家不对你产生任何的反馈他自己没有变好那我们就要学会能量回收为什么因为我们自己首先要完成自我共能能量回收那能量回收来干什么呢非常有意思来看一看这个死我在网上夹一笔它是不是就变成了血呢对吧死这个字其实是什么是这一个我再加一笔这是不是就变成了腰我们讲那个腰肌的腰对吧然后我再往前加一笔很高表示天的这个位置它就成了血所以你会发现死这个字和血这个字本身就是什么就是一体的你怎么能血就是你首先要死我死是为了什么我死的目的是为了去探究整个生命的血的之中那什么叫做血是为我回到第一条对吧血之又血重秒之门我们说了这个秒是木子庞要干吗有内棍打到看这个内心当中的到对吧那你说我自己对吧那么多时间经历去想着别人的命运那么多时间经历一定要干成那些事那些事我浪费的时间经历我是不应该回收回来看什么看自己内心的小宇宙自养自己的灵魂反过来当你能够把自己的内心这些灵魂都给修养好了的话你真正去帮别的时候那就真的就是属于搬手维云 附手维予轻轻易帮人家的命运就发生变化对不对就是这一点所以万事万物管好自己能量回收管好自己所以不要总是去跟别人争不要总是跟别人去抢我们要学会后期身而身先外期身而身存要利用要知道破二元同样的道理我们要学会用二元这是一点那我们小姐一下第七章核心点讲了一下几个第一能量回收是自修的前提万事让你闹心的人闹心的事可以暂时不管对吧把他们从你脑子里清出去实际具就话说的本身你去想想他们在你脑子里吗不再也是你自己应生生把他们拉到你脑子里的你看你现在不就把夏老师拉到你脑子里了吗你不把道德经老子请到你脑子里了吗对不对这就是我们说的叫能量回收是自修的前提第二无私的意思是无所外衣我不依靠外物就叫做无私对吧所以无私的目的是私而私的目的是为了更高违度的合意我要去穿越我认知的权成我要去穿越我社交的权成我要去穿越我人生为了遇到的权成甚至说得再选一点我要穿越宇宙为了的选择我必须省出大量的时间和经历来进行自修和内观对吧他是不现于试的为什么呢因为他没有时间去干这些什么他需要把大量的時間經歷用在自己去跟高微度的生命去進行鏈結的過程另外還記得講說地球上修的最好的競爭是一頭經餘當然這個共參考未必是真但底底確確在別人身上滑廢時間去改造別人的命運這件事情然後通過改造別人的命運讓自己的命運變得更好啊這些事情是不是真的必須得怎麼去做你們可以自己去想一下很多朋友可能問說那蝦老師你出來講這個課你這個目的是啥其實還是逆了一些目的所以為什麼我一直說在直播的時候我要求大家一定要去跟我密切的配合和思考我們能更好的去把這個課上好的原因就在於這個課真的屬於叫做高數目用跟市面上的一些其他人講他們聽不懂不僅聽不懂他也生煩惱性我們也生煩惱性跟各位講大家能認同課間大家能交流上課極限安靜這其實就達到了一個至少在我們這一群人當中我們形成了死吧是這一我就記得當時我學泳春泉我的師叔梁少紅師叔他在珠海開權館他有個特別有意思的點就是成年人如果想拜師跟他學藝拜到他的門下館他叫師傅好茶期是三年才能拜入他的門下本過來如果是小孩很靈的師叔免費酒所以你在這你這能看到不一樣的點還是為了一個所謂的私而負不讓自己的能量好善因為很多成年人到那去去他到底是什麼樣的目的啊到底師叔也不想去費這個禁好茶三年這個人足夠有恆心免免若存用之不清已經基俊遇到了帶過來小孩那本身天然的道小孩甚至不收錢酒去傳播和繼承這樣的一個無學這就是真正的高手的高數其實是沒用的用錢把一些有煩惱性的人直接打來外面進來了就是認真的能夠做到前半我們剛才說的等一下就是你生人後期生而生些外期生而生存非其無私也不能成其死所以大家回去的時候自己仔細的去想一想這個私到底是什麼不是自私自力而是自贏對吧然後你做這種所謂的無私這件事情只是一種什麼手斷而而我不在乎名我不在乎力到最後的時候所謂的名利對我來講只是讓我能夠去做更高級修煉的一種養料也好或者資源也好或者是原材料也好的東西就是正前最後不是為了正前正前是為了更好的修煉的對吧你這麼一離急你就會發現可能正前這件事情對你來講你說不能說不重要但是你不會那麼太質於其結果因為正前已經變成了你做其他事情的手斷手斷所以無私也是手斷私也是手斷中其最後的那個死並不是自私自力的死而是自贏的理解到這一點結果好這是第七章第七章各位也可以再看一看這個原本</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>### 第七章：天长地久的智慧
+#### 天长地久的本质
+《道德经》中提到“天长地久”，其核心在于“不自生故能长生”。天地之所以能够长久，是因为它们不为自己谋求利益，而是无私地滋养万物。这种无私的奉献精神，使得天地能够永恒存在。
+#### 胜人与后期身
+“胜人”并非指战胜他人，而是指超越自我。通过“后期身而身先”，即先退后进，反而能够领先。这种取反思维告诉我们，不要过分关注自身，反而能够保全自己。
+#### 无私与成其私
+“非其无私也，故能成其私”意味着，正是因为无私，才能成就自我。无私的奉献最终会带来个人的成长和成功。这种观点强调了奉献与自我实现之间的内在联系。
+#### 价值存在于对象之中
+德国哲学家费尔巴哈曾说：“价值存在于对象之中。”这意味着我们的价值体现在我们所服务的对象上。例如，教师的价值在于学生的成功。通过给予和创造，我们能够实现自身的价值。
+#### 道德经的智慧
+《道德经》强调通过奉献和创造来实现自我价值，而不是通过索取。这种智慧与儒家和法家的观点不同，道家更注重通过无私的奉献来达到多赢的局面。
+#### 目的与手段的关系
+道家智慧在于明确目的与手段的关系。目的是长生，手段是不自生。通过无私的奉献，最终能够实现自我保全和成长。这种智慧超越了儒家的道德绑架和法家的权力追求。
+#### 破二元与用二元
+《道德经》强调破二元，即将对立的事物统一起来。通过破二元，我们能够更好地利用二元关系，达到更高的智慧。这种思维方式帮助我们超越表面的对立，找到内在的统一。
+#### 自赢与无私
+“私”在《道德经》中并非指自私，而是指自赢，即自我管理和自我实现。通过无私的奉献，我们能够实现自我保全和成长。这种观点强调了自我管理与无私奉献之间的平衡。
+#### 能量回收与自修
+能量回收是自修的前提。通过将注意力从外界收回，专注于自我修养，我们能够更好地实现自我成长。这种自我管理的方式，帮助我们更好地应对外界的挑战。
+#### 总结
+《道德经》第七章的核心在于通过无私的奉献和创造，实现自我保全和成长。通过理解目的与手段的关系，破二元与用二元，我们能够更好地把握宇宙运行的规律，实现自我价值。</t>
         </is>
       </c>
     </row>
